--- a/Items.xlsx
+++ b/Items.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F464FD3-B36B-49B6-A5A0-663A88EB97BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BECDE8-7C6F-4A9E-9CB8-6BEFE247F015}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2745" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D4271B40-E291-4F7D-B212-DFF8B5827327}"/>
+    <workbookView xWindow="38280" yWindow="2745" windowWidth="29040" windowHeight="16440" xr2:uid="{D4271B40-E291-4F7D-B212-DFF8B5827327}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sets" sheetId="2" r:id="rId1"/>
-    <sheet name="Runewords" sheetId="3" r:id="rId2"/>
+    <sheet name="Runewords" sheetId="3" r:id="rId1"/>
+    <sheet name="Sets" sheetId="2" r:id="rId2"/>
     <sheet name="Uniques" sheetId="4" r:id="rId3"/>
     <sheet name="Suffixes" sheetId="1" r:id="rId4"/>
     <sheet name="Talent Perks" sheetId="5" r:id="rId5"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="819">
   <si>
     <t>armor_percent</t>
   </si>
@@ -184,21 +184,6 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>Rune I</t>
-  </si>
-  <si>
-    <t>Rune II</t>
-  </si>
-  <si>
-    <t>Rune III</t>
-  </si>
-  <si>
-    <t>Rune IV</t>
-  </si>
-  <si>
-    <t>Rune V</t>
-  </si>
-  <si>
     <t>1o Mod</t>
   </si>
   <si>
@@ -1628,13 +1613,892 @@
   </si>
   <si>
     <t>Health/Magic Shield Regen Flat</t>
+  </si>
+  <si>
+    <t>Bloom</t>
+  </si>
+  <si>
+    <t>Ano, Goh</t>
+  </si>
+  <si>
+    <t>Zeal</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Magma</t>
+  </si>
+  <si>
+    <t>Scales</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Royalty</t>
+  </si>
+  <si>
+    <t>Goh, Mos</t>
+  </si>
+  <si>
+    <t>Ano, Mos</t>
+  </si>
+  <si>
+    <t>Dos, Voh</t>
+  </si>
+  <si>
+    <t>Wor, Goh</t>
+  </si>
+  <si>
+    <t>Ber, Cen</t>
+  </si>
+  <si>
+    <t>Ita, Ano</t>
+  </si>
+  <si>
+    <t>Follower</t>
+  </si>
+  <si>
+    <t>Radiance</t>
+  </si>
+  <si>
+    <t>Thief</t>
+  </si>
+  <si>
+    <t>Ita, Dos, Voh</t>
+  </si>
+  <si>
+    <t>Ita, Mos, Rah</t>
+  </si>
+  <si>
+    <t>Rah, Mos, Goh</t>
+  </si>
+  <si>
+    <t>True Hit</t>
+  </si>
+  <si>
+    <t>Attuned</t>
+  </si>
+  <si>
+    <t>Fortress</t>
+  </si>
+  <si>
+    <t>Ano, Psi, Voh</t>
+  </si>
+  <si>
+    <t>Yon?</t>
+  </si>
+  <si>
+    <t>Unique Runes</t>
+  </si>
+  <si>
+    <t>Psi</t>
+  </si>
+  <si>
+    <t>Qar</t>
+  </si>
+  <si>
+    <t>Rah, Qar, Ber</t>
+  </si>
+  <si>
+    <t>Cen, Oni, Mos</t>
+  </si>
+  <si>
+    <t>Oni</t>
+  </si>
+  <si>
+    <t>Zephyr</t>
+  </si>
+  <si>
+    <t>Limitless</t>
+  </si>
+  <si>
+    <t>Magician</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>Profound Sea</t>
+  </si>
+  <si>
+    <t>Mos, Xah, Cen, Ber</t>
+  </si>
+  <si>
+    <t>Voh, Ita, Ber, Xah</t>
+  </si>
+  <si>
+    <t>Dos, Ano, Xah, Rah</t>
+  </si>
+  <si>
+    <t>Ita, Cen, Voh, Ber</t>
+  </si>
+  <si>
+    <t>Dos, Ano, Rah, Cen</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>Infinity</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Promise</t>
+  </si>
+  <si>
+    <t>Purity</t>
+  </si>
+  <si>
+    <t>Undying Magic</t>
+  </si>
+  <si>
+    <t>Voh, Xah, Ber, Ano, Cen</t>
+  </si>
+  <si>
+    <t>Cen, Dos, Ano, Ber, Xah</t>
+  </si>
+  <si>
+    <t>Ita, Ano, Dos, Xah, Goh</t>
+  </si>
+  <si>
+    <t>Voh, Ano, Cen, Xah, Ber</t>
+  </si>
+  <si>
+    <t>Goh, Ano, Dos, Cen, Mos</t>
+  </si>
+  <si>
+    <t>Rah, Ano, Psi, Cen, Mos</t>
+  </si>
+  <si>
+    <t>Archmage Armor</t>
+  </si>
+  <si>
+    <t>cloth</t>
+  </si>
+  <si>
+    <t>Armor of the Elements</t>
+  </si>
+  <si>
+    <t>all armor</t>
+  </si>
+  <si>
+    <t>Artifact Armor</t>
+  </si>
+  <si>
+    <t>Ascension of Fire</t>
+  </si>
+  <si>
+    <t>Ascension of Nature</t>
+  </si>
+  <si>
+    <t>Ascension of Thunder</t>
+  </si>
+  <si>
+    <t>Ascension of Water</t>
+  </si>
+  <si>
+    <t>Archmage Vestments</t>
+  </si>
+  <si>
+    <t>Barbarian Armor</t>
+  </si>
+  <si>
+    <t>Elemental Essense</t>
+  </si>
+  <si>
+    <t>jewel</t>
+  </si>
+  <si>
+    <t>Eliminator</t>
+  </si>
+  <si>
+    <t>Flaming Devil</t>
+  </si>
+  <si>
+    <t>Forest Guardian</t>
+  </si>
+  <si>
+    <t>Godking's Plate</t>
+  </si>
+  <si>
+    <t>Ice Lord</t>
+  </si>
+  <si>
+    <t>ring, charm</t>
+  </si>
+  <si>
+    <t>Mystical Ornaments</t>
+  </si>
+  <si>
+    <t>Mod IV</t>
+  </si>
+  <si>
+    <t>Ranger Armor</t>
+  </si>
+  <si>
+    <t>Rockman Chains</t>
+  </si>
+  <si>
+    <t>Royal Thief Adornments</t>
+  </si>
+  <si>
+    <t>all armor + offhand</t>
+  </si>
+  <si>
+    <t>Scholar's Robe</t>
+  </si>
+  <si>
+    <t>Seer's Guidance</t>
+  </si>
+  <si>
+    <t>helm, neck, charm</t>
+  </si>
+  <si>
+    <t>Set Rings of Impossibility</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>Spirit of the Arcane</t>
+  </si>
+  <si>
+    <t>The Ascended</t>
+  </si>
+  <si>
+    <t>The Protector</t>
+  </si>
+  <si>
+    <t>chest, shield</t>
+  </si>
+  <si>
+    <t>Treasure Finder</t>
+  </si>
+  <si>
+    <t>Tree of Life</t>
+  </si>
+  <si>
+    <t>Will of Lightning</t>
+  </si>
+  <si>
+    <t>Wisdom of the Elders</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Set Drop Set</t>
+  </si>
+  <si>
+    <t>Wisdom Set</t>
+  </si>
+  <si>
+    <t>axethunder0</t>
+  </si>
+  <si>
+    <t>attack_thunder_damage_flat</t>
+  </si>
+  <si>
+    <t>0.75 str</t>
+  </si>
+  <si>
+    <t>2o Mod</t>
+  </si>
+  <si>
+    <t>0.5 str, 0.5 int</t>
+  </si>
+  <si>
+    <t>axewaterfire0</t>
+  </si>
+  <si>
+    <t>axefire0</t>
+  </si>
+  <si>
+    <t>attack_fire_damage_flat</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>bow_fire0</t>
+  </si>
+  <si>
+    <t>bow_nature0</t>
+  </si>
+  <si>
+    <t>bow_thunder0</t>
+  </si>
+  <si>
+    <t>bow_water0</t>
+  </si>
+  <si>
+    <t>attack_nature_damage_flat</t>
+  </si>
+  <si>
+    <t>attack_water_damage_flat</t>
+  </si>
+  <si>
+    <t>1.0 dex</t>
+  </si>
+  <si>
+    <t>water_nature_damage_flat</t>
+  </si>
+  <si>
+    <t>Bracelet</t>
+  </si>
+  <si>
+    <t>braceletfire0</t>
+  </si>
+  <si>
+    <t>braceletnature0</t>
+  </si>
+  <si>
+    <t>braceletsetdrop0</t>
+  </si>
+  <si>
+    <t>braceletthunder0</t>
+  </si>
+  <si>
+    <t>braceletthundernature0</t>
+  </si>
+  <si>
+    <t>braceletwater0</t>
+  </si>
+  <si>
+    <t>0.5 str</t>
+  </si>
+  <si>
+    <t>health_regen_percent</t>
+  </si>
+  <si>
+    <t>0.75 vit</t>
+  </si>
+  <si>
+    <t>0.75 sta, 0.5 wis</t>
+  </si>
+  <si>
+    <t>Is Set</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>0.75 str, 0.75 vit</t>
+  </si>
+  <si>
+    <t>0.5 vit, 0.75 wis</t>
+  </si>
+  <si>
+    <t>Charm</t>
+  </si>
+  <si>
+    <t>charmnature0</t>
+  </si>
+  <si>
+    <t>charmthunder0</t>
+  </si>
+  <si>
+    <t>charmwater0</t>
+  </si>
+  <si>
+    <t>charmfire0</t>
+  </si>
+  <si>
+    <t>0.75 str, 0.75 wis</t>
+  </si>
+  <si>
+    <t>0.75 wis, 0.75 int</t>
+  </si>
+  <si>
+    <t>0.75 str, 0.75 int</t>
+  </si>
+  <si>
+    <t>Cloth Boots</t>
+  </si>
+  <si>
+    <t>nature_cloth_boots0</t>
+  </si>
+  <si>
+    <t>thunder_cloth_boots0</t>
+  </si>
+  <si>
+    <t>water_cloth_boots0</t>
+  </si>
+  <si>
+    <t>fire_cloth_boots0</t>
+  </si>
+  <si>
+    <t>1.0 int, 1.0 wis</t>
+  </si>
+  <si>
+    <t>Cloth Chest</t>
+  </si>
+  <si>
+    <t>chestmana0</t>
+  </si>
+  <si>
+    <t>1.0 wis</t>
+  </si>
+  <si>
+    <t>Cloth Helm</t>
+  </si>
+  <si>
+    <t>helmetmana0</t>
+  </si>
+  <si>
+    <t>helmetwisdom0</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>nature_ele_hammer0</t>
+  </si>
+  <si>
+    <t>thunder_ele_hammer0</t>
+  </si>
+  <si>
+    <t>water_ele_hammer0</t>
+  </si>
+  <si>
+    <t>fire_ele_hammer0</t>
+  </si>
+  <si>
+    <t>hammerphysical0</t>
+  </si>
+  <si>
+    <t>hammerthunder0</t>
+  </si>
+  <si>
+    <t>very_high_critical_hit_perecent</t>
+  </si>
+  <si>
+    <t>0.5 str, 0.75 int</t>
+  </si>
+  <si>
+    <t>physical_damage_flat</t>
+  </si>
+  <si>
+    <t>1.0 str</t>
+  </si>
+  <si>
+    <t>0.75 str, 0.75 sta</t>
+  </si>
+  <si>
+    <t>Leather Chest</t>
+  </si>
+  <si>
+    <t>chestdodge0</t>
+  </si>
+  <si>
+    <t>Necklace</t>
+  </si>
+  <si>
+    <t>necklacegambler0</t>
+  </si>
+  <si>
+    <t>necklacenature0</t>
+  </si>
+  <si>
+    <t>1.0 vit</t>
+  </si>
+  <si>
+    <t>necklacesetdrop0</t>
+  </si>
+  <si>
+    <t>0.25 sta, 0.75 wis</t>
+  </si>
+  <si>
+    <t>necklacethunder0</t>
+  </si>
+  <si>
+    <t>0.5 sta, 0.75 int</t>
+  </si>
+  <si>
+    <t>necklacewater0</t>
+  </si>
+  <si>
+    <t>U Mod V</t>
+  </si>
+  <si>
+    <t>0.75 vit, 0.75 int</t>
+  </si>
+  <si>
+    <t>necklace_doomsday</t>
+  </si>
+  <si>
+    <t>0.25 str, 0.25 sta, 0.25 wis</t>
+  </si>
+  <si>
+    <t>necklace_magic_shield0</t>
+  </si>
+  <si>
+    <t>0.75 int, 0.5 wis</t>
+  </si>
+  <si>
+    <t>necklace_strength0</t>
+  </si>
+  <si>
+    <t>0.25 vit, 0.25 sta, 0.25 wis</t>
+  </si>
+  <si>
+    <t>necklace_wisdom0</t>
+  </si>
+  <si>
+    <t>1.0 int, 0.25 wis</t>
+  </si>
+  <si>
+    <t>necklaceenergy0</t>
+  </si>
+  <si>
+    <t>1.0 sta</t>
+  </si>
+  <si>
+    <t>necklacefire0</t>
+  </si>
+  <si>
+    <t>water_resist_flat</t>
+  </si>
+  <si>
+    <t>plus_blazing_inferno_spell_lvl_flat</t>
+  </si>
+  <si>
+    <t>1.0 int</t>
+  </si>
+  <si>
+    <t>Plate Boots</t>
+  </si>
+  <si>
+    <t>bootsthunder0</t>
+  </si>
+  <si>
+    <t>bootswater0</t>
+  </si>
+  <si>
+    <t>bootsfire0</t>
+  </si>
+  <si>
+    <t>bootsnature0</t>
+  </si>
+  <si>
+    <t>sword_damage_flat</t>
+  </si>
+  <si>
+    <t>0.75 wis</t>
+  </si>
+  <si>
+    <t>axe_damage_flat</t>
+  </si>
+  <si>
+    <t>0.75 sta</t>
+  </si>
+  <si>
+    <t>Plate Chest</t>
+  </si>
+  <si>
+    <t>chestfire0</t>
+  </si>
+  <si>
+    <t>chestnature0</t>
+  </si>
+  <si>
+    <t>chestthunder0</t>
+  </si>
+  <si>
+    <t>chestwater0</t>
+  </si>
+  <si>
+    <t>Plate Helm</t>
+  </si>
+  <si>
+    <t>helmetthunder0</t>
+  </si>
+  <si>
+    <t>helmetwater0</t>
+  </si>
+  <si>
+    <t>helmetfire0</t>
+  </si>
+  <si>
+    <t>helmetnature0</t>
+  </si>
+  <si>
+    <t>0.5 vit, 0.75 int</t>
+  </si>
+  <si>
+    <t>Plate Pants</t>
+  </si>
+  <si>
+    <t>pantsnature0</t>
+  </si>
+  <si>
+    <t>pantsthunder0</t>
+  </si>
+  <si>
+    <t>pantswater0</t>
+  </si>
+  <si>
+    <t>pantsfire0</t>
+  </si>
+  <si>
+    <t>0.75 vit, 0.5 int</t>
+  </si>
+  <si>
+    <t>0.75 sta, 0.75 int</t>
+  </si>
+  <si>
+    <t>1.0 sta, 0.5 int</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>ringcrit0</t>
+  </si>
+  <si>
+    <t>0.25 str, 0.5 int</t>
+  </si>
+  <si>
+    <t>ringdodge0</t>
+  </si>
+  <si>
+    <t>ringenergy0</t>
+  </si>
+  <si>
+    <t>ringwaterfire0</t>
+  </si>
+  <si>
+    <t>thunder_ele_ring0</t>
+  </si>
+  <si>
+    <t>high_intelligence_flat</t>
+  </si>
+  <si>
+    <t>water_ele_ring0</t>
+  </si>
+  <si>
+    <t>nature_ele_ring1</t>
+  </si>
+  <si>
+    <t>fire_ele_ring2</t>
+  </si>
+  <si>
+    <t>ring_hermit_insanity</t>
+  </si>
+  <si>
+    <t>ring_magic_shield0</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>shield_wisdom0</t>
+  </si>
+  <si>
+    <t>shieldresist0</t>
+  </si>
+  <si>
+    <t>thunder_ele_shield0</t>
+  </si>
+  <si>
+    <t>water_ele_shield0</t>
+  </si>
+  <si>
+    <t>nature_ele_shield1</t>
+  </si>
+  <si>
+    <t>fire_ele_shield2</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>uniquestafffire0</t>
+  </si>
+  <si>
+    <t>uniquestafflifesteal0</t>
+  </si>
+  <si>
+    <t>uniquestaffnature0</t>
+  </si>
+  <si>
+    <t>uniquestaffthunder0</t>
+  </si>
+  <si>
+    <t>uniquestaffwater0</t>
+  </si>
+  <si>
+    <t>water_ele_staff0</t>
+  </si>
+  <si>
+    <t>1.1 int</t>
+  </si>
+  <si>
+    <t>fire_ele_staff1</t>
+  </si>
+  <si>
+    <t>nature_ele_staff2</t>
+  </si>
+  <si>
+    <t>thunder_ele_staff3</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>swordphysical0</t>
+  </si>
+  <si>
+    <t>very_high_critical_damage_percent</t>
+  </si>
+  <si>
+    <t>swordwater0</t>
+  </si>
+  <si>
+    <t>thunder_ele_saber0</t>
+  </si>
+  <si>
+    <t>water_ele_saber0</t>
+  </si>
+  <si>
+    <t>fire_ele_saber0</t>
+  </si>
+  <si>
+    <t>nature_ele_saber0</t>
+  </si>
+  <si>
+    <t>swordnature0</t>
+  </si>
+  <si>
+    <t>0.75 int, 0.75 wis</t>
+  </si>
+  <si>
+    <t>high_critical_hit_flat</t>
+  </si>
+  <si>
+    <t>0.25 sta, 0.75 int</t>
+  </si>
+  <si>
+    <t>Lore</t>
+  </si>
+  <si>
+    <t>Goh, Ano</t>
+  </si>
+  <si>
+    <t>Rhyme</t>
+  </si>
+  <si>
+    <t>Dos, Ita</t>
+  </si>
+  <si>
+    <t>Wor</t>
+  </si>
+  <si>
+    <t>bonus_normal_item_drops</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Ano, Ber</t>
+  </si>
+  <si>
+    <t>Ancient's Pledge</t>
+  </si>
+  <si>
+    <t>Rah, Mos, Ita</t>
+  </si>
+  <si>
+    <t>Enigma</t>
+  </si>
+  <si>
+    <t>Rah, Ita, Ber</t>
+  </si>
+  <si>
+    <t>Melody</t>
+  </si>
+  <si>
+    <t>Chains of Honor</t>
+  </si>
+  <si>
+    <t>Ber, Cen, Mos</t>
+  </si>
+  <si>
+    <t>Mos, Xah, Goh, Ita</t>
+  </si>
+  <si>
+    <t>Fortitude</t>
+  </si>
+  <si>
+    <t>Cen, Goh, Ita, Mos</t>
+  </si>
+  <si>
+    <t>Spirit</t>
+  </si>
+  <si>
+    <t>Voh, Xah, Ita, Mos</t>
+  </si>
+  <si>
+    <t>Grief</t>
+  </si>
+  <si>
+    <t>Voh, Dos, Ita, Xah, Goh</t>
+  </si>
+  <si>
+    <t>Berserker's Arsenal</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>Cathan's Trap</t>
+  </si>
+  <si>
+    <t>cloth helm + chest, ring, neck</t>
+  </si>
+  <si>
+    <t>Vidala's Rig</t>
+  </si>
+  <si>
+    <t>Immortal King</t>
+  </si>
+  <si>
+    <t>plate, charm</t>
+  </si>
+  <si>
+    <t>leather</t>
+  </si>
+  <si>
+    <t>Tal Rasha's Wrappings</t>
+  </si>
+  <si>
+    <t>cloth, neck</t>
+  </si>
+  <si>
+    <t>Mavina's Battle Hym</t>
+  </si>
+  <si>
+    <t>Sigon's Complete Steel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1650,6 +2514,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1659,7 +2529,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1667,13 +2537,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1987,48 +2868,1088 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F23BAE-2697-46D9-ABAA-77D19EDDCF45}">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2827054-AB03-4689-BF9E-03CFFEF2F17F}">
+  <sheetPr>
+    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
+  </sheetPr>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="6" max="9" width="20.7109375" customWidth="1"/>
+    <col min="18" max="20" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>500</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>501</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>6666</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>527</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>490</v>
+      </c>
+      <c r="K2" t="s">
+        <v>504</v>
+      </c>
+      <c r="L2" t="s">
+        <v>505</v>
+      </c>
+      <c r="M2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>6666</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>534</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>491</v>
+      </c>
+      <c r="K3" t="s">
+        <v>510</v>
+      </c>
+      <c r="L3" t="s">
+        <v>507</v>
+      </c>
+      <c r="M3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>6666</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>535</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>492</v>
+      </c>
+      <c r="K4" t="s">
+        <v>509</v>
+      </c>
+      <c r="L4" t="s">
+        <v>515</v>
+      </c>
+      <c r="M4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>6666</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>536</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>493</v>
+      </c>
+      <c r="K5" t="s">
+        <v>511</v>
+      </c>
+      <c r="L5" t="s">
+        <v>512</v>
+      </c>
+      <c r="M5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>6666</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>538</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>494</v>
+      </c>
+      <c r="K6" t="s">
+        <v>513</v>
+      </c>
+      <c r="L6" t="s">
+        <v>514</v>
+      </c>
+      <c r="M6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>532</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>6666</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K7" t="s">
+        <v>511</v>
+      </c>
+      <c r="L7" t="s">
+        <v>514</v>
+      </c>
+      <c r="M7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>533</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>75</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>537</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>496</v>
+      </c>
+      <c r="K8" t="s">
+        <v>518</v>
+      </c>
+      <c r="L8" t="s">
+        <v>519</v>
+      </c>
+      <c r="M8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>6666</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>543</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>497</v>
+      </c>
+      <c r="K9" t="s">
+        <v>521</v>
+      </c>
+      <c r="L9" t="s">
+        <v>512</v>
+      </c>
+      <c r="M9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>6666</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>544</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>498</v>
+      </c>
+      <c r="K10" t="s">
+        <v>505</v>
+      </c>
+      <c r="L10" t="s">
+        <v>523</v>
+      </c>
+      <c r="M10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>542</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>6666</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>545</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>499</v>
+      </c>
+      <c r="K11" t="s">
+        <v>524</v>
+      </c>
+      <c r="L11" t="s">
+        <v>516</v>
+      </c>
+      <c r="M11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>546</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>549</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>396</v>
+      </c>
+      <c r="J12" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>547</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>75</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>554</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>548</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>75</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>555</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>6666</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>562</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>6666</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>563</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>559</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>6666</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>564</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>560</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>6666</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>565</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>561</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>6666</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>566</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>567</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>6666</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>573</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>568</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>6666</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>574</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>569</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>6666</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>575</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>570</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>6666</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>576</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>571</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>6666</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>577</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>6666</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>785</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>6666</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>786</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>787</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>6666</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>788</v>
+      </c>
+      <c r="G27" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>791</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>6666</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>792</v>
+      </c>
+      <c r="G28" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>793</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>6666</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>794</v>
+      </c>
+      <c r="G29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>795</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>75</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>796</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>797</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>6666</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>799</v>
+      </c>
+      <c r="G31" t="s">
+        <v>363</v>
+      </c>
+      <c r="H31" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>798</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>6666</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>800</v>
+      </c>
+      <c r="G32" t="s">
+        <v>357</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>801</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>6666</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>802</v>
+      </c>
+      <c r="G33" t="s">
+        <v>412</v>
+      </c>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>803</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>6666</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>804</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>805</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>6666</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>806</v>
+      </c>
+      <c r="G35" t="s">
+        <v>409</v>
+      </c>
+      <c r="H35" t="s">
+        <v>478</v>
+      </c>
+      <c r="I35" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -2037,19 +3958,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2827054-AB03-4689-BF9E-03CFFEF2F17F}">
-  <dimension ref="A1:T11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F23BAE-2697-46D9-ABAA-77D19EDDCF45}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="18" max="20" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="8" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -2063,243 +3988,4319 @@
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>582</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>582</v>
+      </c>
+      <c r="I3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>591</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>591</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>591</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>10000</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>597</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>600</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>601</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>10000</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>582</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>604</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>10000</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>582</v>
+      </c>
+      <c r="I10" t="s">
+        <v>343</v>
+      </c>
+      <c r="J10" t="s">
+        <v>365</v>
+      </c>
+      <c r="K10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>614</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>10000</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>597</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>615</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>591</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>581</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>10000</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>582</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>583</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>10000</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>582</v>
+      </c>
+      <c r="I14" t="s">
+        <v>343</v>
+      </c>
+      <c r="J14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>609</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>10000</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>591</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>611</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>10000</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>612</v>
+      </c>
+      <c r="I16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>579</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>10000</v>
+      </c>
+      <c r="E17">
         <v>50</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q2" t="s">
-        <v>495</v>
-      </c>
-      <c r="R2" t="s">
-        <v>509</v>
-      </c>
-      <c r="S2" t="s">
-        <v>510</v>
-      </c>
-      <c r="T2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q3" t="s">
-        <v>496</v>
-      </c>
-      <c r="R3" t="s">
-        <v>515</v>
-      </c>
-      <c r="S3" t="s">
-        <v>512</v>
-      </c>
-      <c r="T3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q4" t="s">
-        <v>497</v>
-      </c>
-      <c r="R4" t="s">
-        <v>514</v>
-      </c>
-      <c r="S4" t="s">
-        <v>520</v>
-      </c>
-      <c r="T4" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q5" t="s">
-        <v>498</v>
-      </c>
-      <c r="R5" t="s">
-        <v>516</v>
-      </c>
-      <c r="S5" t="s">
-        <v>517</v>
-      </c>
-      <c r="T5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q6" t="s">
-        <v>499</v>
-      </c>
-      <c r="R6" t="s">
-        <v>518</v>
-      </c>
-      <c r="S6" t="s">
-        <v>519</v>
-      </c>
-      <c r="T6" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q7" t="s">
-        <v>500</v>
-      </c>
-      <c r="R7" t="s">
-        <v>516</v>
-      </c>
-      <c r="S7" t="s">
-        <v>519</v>
-      </c>
-      <c r="T7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q8" t="s">
-        <v>501</v>
-      </c>
-      <c r="R8" t="s">
-        <v>523</v>
-      </c>
-      <c r="S8" t="s">
-        <v>524</v>
-      </c>
-      <c r="T8" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q9" t="s">
-        <v>502</v>
-      </c>
-      <c r="R9" t="s">
-        <v>526</v>
-      </c>
-      <c r="S9" t="s">
-        <v>517</v>
-      </c>
-      <c r="T9" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q10" t="s">
-        <v>503</v>
-      </c>
-      <c r="R10" t="s">
-        <v>510</v>
-      </c>
-      <c r="S10" t="s">
-        <v>528</v>
-      </c>
-      <c r="T10" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q11" t="s">
-        <v>504</v>
-      </c>
-      <c r="R11" t="s">
-        <v>529</v>
-      </c>
-      <c r="S11" t="s">
-        <v>521</v>
-      </c>
-      <c r="T11" t="s">
-        <v>530</v>
+      <c r="F17">
+        <v>99</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>580</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>584</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>99</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>582</v>
+      </c>
+      <c r="I18" t="s">
+        <v>349</v>
+      </c>
+      <c r="J18" t="s">
+        <v>350</v>
+      </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>585</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>99</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>582</v>
+      </c>
+      <c r="I19" t="s">
+        <v>351</v>
+      </c>
+      <c r="J19" t="s">
+        <v>352</v>
+      </c>
+      <c r="K19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>586</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>99</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>582</v>
+      </c>
+      <c r="I20" t="s">
+        <v>353</v>
+      </c>
+      <c r="J20" t="s">
+        <v>354</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>587</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>99</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>582</v>
+      </c>
+      <c r="I21" t="s">
+        <v>355</v>
+      </c>
+      <c r="J21" t="s">
+        <v>356</v>
+      </c>
+      <c r="K21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>590</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>110000</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>99</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>591</v>
+      </c>
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>592</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2500</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>99</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>582</v>
+      </c>
+      <c r="I23" t="s">
+        <v>359</v>
+      </c>
+      <c r="J23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>595</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>10000</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <v>99</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>582</v>
+      </c>
+      <c r="I24" t="s">
+        <v>360</v>
+      </c>
+      <c r="J24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>250</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>99</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>591</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" t="s">
+        <v>361</v>
+      </c>
+      <c r="L25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>602</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>10000</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>99</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>603</v>
+      </c>
+      <c r="I26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>605</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>10000</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>99</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>606</v>
+      </c>
+      <c r="I27" t="s">
+        <v>343</v>
+      </c>
+      <c r="J27" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>607</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>50</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="F28">
+        <v>99</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>608</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>610</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>250</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <v>99</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>582</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>346</v>
+      </c>
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>616</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>200555</v>
+      </c>
+      <c r="E30">
+        <v>50</v>
+      </c>
+      <c r="F30">
+        <v>99</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>619</v>
+      </c>
+      <c r="I30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>200555</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>807</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>10000</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>808</v>
+      </c>
+      <c r="I32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>809</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>10000</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33" t="s">
+        <v>810</v>
+      </c>
+      <c r="I33" t="s">
+        <v>367</v>
+      </c>
+      <c r="J33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>811</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>10000</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>814</v>
+      </c>
+      <c r="I34" t="s">
+        <v>363</v>
+      </c>
+      <c r="J34" t="s">
+        <v>373</v>
+      </c>
+      <c r="K34" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>812</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>10000</v>
+      </c>
+      <c r="E35">
+        <v>50</v>
+      </c>
+      <c r="F35">
+        <v>99</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>813</v>
+      </c>
+      <c r="I35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>360</v>
+      </c>
+      <c r="K35" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>815</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>10000</v>
+      </c>
+      <c r="E36">
+        <v>50</v>
+      </c>
+      <c r="F36">
+        <v>99</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>816</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>817</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>10000</v>
+      </c>
+      <c r="E37">
+        <v>50</v>
+      </c>
+      <c r="F37">
+        <v>99</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37" t="s">
+        <v>814</v>
+      </c>
+      <c r="I37" t="s">
+        <v>363</v>
+      </c>
+      <c r="J37" t="s">
+        <v>408</v>
+      </c>
+      <c r="K37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>818</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>10000</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <v>60</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38" t="s">
+        <v>582</v>
+      </c>
+      <c r="I38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K38" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L31">
+    <sortCondition ref="E2:E31"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D5A6A9-7544-4DB9-8492-438C1B402B93}">
-  <dimension ref="A1:J1"/>
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="5" max="13" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="N1" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>10000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>621</v>
+      </c>
+      <c r="H2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>397</v>
+      </c>
+      <c r="K2" t="s">
+        <v>398</v>
+      </c>
+      <c r="M2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>10000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>392</v>
+      </c>
+      <c r="G3" t="s">
+        <v>402</v>
+      </c>
+      <c r="H3" t="s">
+        <v>399</v>
+      </c>
+      <c r="I3" t="s">
+        <v>400</v>
+      </c>
+      <c r="J3" t="s">
+        <v>401</v>
+      </c>
+      <c r="M3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>629</v>
+      </c>
+      <c r="B4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>10000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>627</v>
+      </c>
+      <c r="H4" t="s">
+        <v>396</v>
+      </c>
+      <c r="I4" t="s">
+        <v>435</v>
+      </c>
+      <c r="J4" t="s">
+        <v>349</v>
+      </c>
+      <c r="M4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>10000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>627</v>
+      </c>
+      <c r="H5" t="s">
+        <v>373</v>
+      </c>
+      <c r="I5" t="s">
+        <v>367</v>
+      </c>
+      <c r="J5" t="s">
+        <v>405</v>
+      </c>
+      <c r="M5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>630</v>
+      </c>
+      <c r="B6" t="s">
+        <v>632</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>10000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>635</v>
+      </c>
+      <c r="H6" t="s">
+        <v>373</v>
+      </c>
+      <c r="I6" t="s">
+        <v>361</v>
+      </c>
+      <c r="J6" t="s">
+        <v>405</v>
+      </c>
+      <c r="M6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B7" t="s">
+        <v>633</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>10000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>621</v>
+      </c>
+      <c r="H7" t="s">
+        <v>373</v>
+      </c>
+      <c r="I7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J7" t="s">
+        <v>405</v>
+      </c>
+      <c r="M7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>630</v>
+      </c>
+      <c r="B8" t="s">
+        <v>634</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>10000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>638</v>
+      </c>
+      <c r="H8" t="s">
+        <v>373</v>
+      </c>
+      <c r="I8" t="s">
+        <v>366</v>
+      </c>
+      <c r="J8" t="s">
+        <v>405</v>
+      </c>
+      <c r="M8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B9" t="s">
+        <v>640</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>10000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I9" t="s">
+        <v>387</v>
+      </c>
+      <c r="J9" t="s">
+        <v>406</v>
+      </c>
+      <c r="M9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>639</v>
+      </c>
+      <c r="B10" t="s">
+        <v>641</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>10000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>345</v>
+      </c>
+      <c r="H10" t="s">
+        <v>389</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>647</v>
+      </c>
+      <c r="K10" t="s">
+        <v>411</v>
+      </c>
+      <c r="M10" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>639</v>
+      </c>
+      <c r="B11" t="s">
+        <v>642</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>10000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>344</v>
+      </c>
+      <c r="H11" t="s">
+        <v>369</v>
+      </c>
+      <c r="M11" t="s">
+        <v>649</v>
+      </c>
+      <c r="N11" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>639</v>
+      </c>
+      <c r="B12" t="s">
+        <v>643</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>10000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I12" t="s">
+        <v>775</v>
+      </c>
+      <c r="J12" t="s">
+        <v>372</v>
+      </c>
+      <c r="M12" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>639</v>
+      </c>
+      <c r="B13" t="s">
+        <v>644</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>10000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>345</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>412</v>
+      </c>
+      <c r="J13" t="s">
+        <v>413</v>
+      </c>
+      <c r="M13" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>639</v>
+      </c>
+      <c r="B14" t="s">
+        <v>645</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>10000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>414</v>
+      </c>
+      <c r="G14" t="s">
+        <v>415</v>
+      </c>
+      <c r="H14" t="s">
+        <v>355</v>
+      </c>
+      <c r="I14" t="s">
+        <v>349</v>
+      </c>
+      <c r="M14" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>654</v>
+      </c>
+      <c r="B15" t="s">
+        <v>655</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>10000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>345</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" t="s">
+        <v>351</v>
+      </c>
+      <c r="J15" t="s">
+        <v>389</v>
+      </c>
+      <c r="M15" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>654</v>
+      </c>
+      <c r="B16" t="s">
+        <v>656</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>10000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>353</v>
+      </c>
+      <c r="M16" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>654</v>
+      </c>
+      <c r="B17" t="s">
+        <v>657</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>10000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>391</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s">
+        <v>355</v>
+      </c>
+      <c r="M17" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>654</v>
+      </c>
+      <c r="B18" t="s">
+        <v>658</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>10000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>447</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>662</v>
+      </c>
+      <c r="B19" t="s">
+        <v>663</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>421</v>
+      </c>
+      <c r="I19" t="s">
+        <v>422</v>
+      </c>
+      <c r="J19" t="s">
+        <v>423</v>
+      </c>
+      <c r="K19" t="s">
+        <v>424</v>
+      </c>
+      <c r="M19" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>662</v>
+      </c>
+      <c r="B20" t="s">
+        <v>664</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>419</v>
+      </c>
+      <c r="I20" t="s">
+        <v>422</v>
+      </c>
+      <c r="J20" t="s">
+        <v>423</v>
+      </c>
+      <c r="K20" t="s">
+        <v>424</v>
+      </c>
+      <c r="M20" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>662</v>
+      </c>
+      <c r="B21" t="s">
+        <v>665</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>420</v>
+      </c>
+      <c r="I21" t="s">
+        <v>422</v>
+      </c>
+      <c r="J21" t="s">
+        <v>423</v>
+      </c>
+      <c r="K21" t="s">
+        <v>424</v>
+      </c>
+      <c r="M21" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>662</v>
+      </c>
+      <c r="B22" t="s">
+        <v>666</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>418</v>
+      </c>
+      <c r="I22" t="s">
+        <v>422</v>
+      </c>
+      <c r="J22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K22" t="s">
+        <v>424</v>
+      </c>
+      <c r="M22" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>668</v>
+      </c>
+      <c r="B23" t="s">
+        <v>669</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>10000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>425</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" t="s">
+        <v>426</v>
+      </c>
+      <c r="M23" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>671</v>
+      </c>
+      <c r="B24" t="s">
+        <v>672</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>10000</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" t="s">
+        <v>433</v>
+      </c>
+      <c r="J24" t="s">
+        <v>426</v>
+      </c>
+      <c r="M24" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>671</v>
+      </c>
+      <c r="B25" t="s">
+        <v>673</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>10000</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" t="s">
+        <v>670</v>
+      </c>
+      <c r="N25" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>675</v>
+      </c>
+      <c r="B26" t="s">
+        <v>676</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
+        <v>404</v>
+      </c>
+      <c r="H26" t="s">
+        <v>393</v>
+      </c>
+      <c r="I26" t="s">
+        <v>682</v>
+      </c>
+      <c r="J26" t="s">
+        <v>352</v>
+      </c>
+      <c r="M26" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>675</v>
+      </c>
+      <c r="B27" t="s">
+        <v>677</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
+        <v>403</v>
+      </c>
+      <c r="H27" t="s">
+        <v>393</v>
+      </c>
+      <c r="I27" t="s">
+        <v>682</v>
+      </c>
+      <c r="J27" t="s">
+        <v>354</v>
+      </c>
+      <c r="M27" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>675</v>
+      </c>
+      <c r="B28" t="s">
+        <v>678</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
+        <v>402</v>
+      </c>
+      <c r="H28" t="s">
+        <v>393</v>
+      </c>
+      <c r="I28" t="s">
+        <v>682</v>
+      </c>
+      <c r="J28" t="s">
+        <v>356</v>
+      </c>
+      <c r="M28" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>675</v>
+      </c>
+      <c r="B29" t="s">
+        <v>679</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
+        <v>392</v>
+      </c>
+      <c r="H29" t="s">
+        <v>393</v>
+      </c>
+      <c r="I29" t="s">
+        <v>682</v>
+      </c>
+      <c r="J29" t="s">
+        <v>350</v>
+      </c>
+      <c r="M29" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>675</v>
+      </c>
+      <c r="B30" t="s">
+        <v>680</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>10000</v>
+      </c>
+      <c r="F30" t="s">
+        <v>684</v>
+      </c>
+      <c r="H30" t="s">
+        <v>395</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>435</v>
+      </c>
+      <c r="M30" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>675</v>
+      </c>
+      <c r="B31" t="s">
+        <v>681</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>10000</v>
+      </c>
+      <c r="F31" t="s">
+        <v>621</v>
+      </c>
+      <c r="H31" t="s">
+        <v>362</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" t="s">
+        <v>396</v>
+      </c>
+      <c r="M31" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>687</v>
+      </c>
+      <c r="B32" t="s">
+        <v>688</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>10000</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>428</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>363</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>427</v>
+      </c>
+      <c r="M32" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>689</v>
+      </c>
+      <c r="B33" t="s">
+        <v>690</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>10000</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>368</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>369</v>
+      </c>
+      <c r="M33" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>689</v>
+      </c>
+      <c r="B34" t="s">
+        <v>691</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>10000</v>
+      </c>
+      <c r="F34" t="s">
+        <v>345</v>
+      </c>
+      <c r="H34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" t="s">
+        <v>489</v>
+      </c>
+      <c r="M34" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>689</v>
+      </c>
+      <c r="B35" t="s">
+        <v>693</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>10000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>344</v>
+      </c>
+      <c r="H35" t="s">
+        <v>390</v>
+      </c>
+      <c r="M35" t="s">
+        <v>694</v>
+      </c>
+      <c r="N35" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>689</v>
+      </c>
+      <c r="B36" t="s">
+        <v>695</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>10000</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" t="s">
+        <v>362</v>
+      </c>
+      <c r="I36" t="s">
+        <v>370</v>
+      </c>
+      <c r="J36" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>689</v>
+      </c>
+      <c r="B37" t="s">
+        <v>697</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>10000</v>
+      </c>
+      <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" t="s">
+        <v>386</v>
+      </c>
+      <c r="L37" t="s">
+        <v>385</v>
+      </c>
+      <c r="M37" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>689</v>
+      </c>
+      <c r="B38" t="s">
+        <v>700</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>50</v>
+      </c>
+      <c r="F38" t="s">
+        <v>379</v>
+      </c>
+      <c r="G38" t="s">
+        <v>380</v>
+      </c>
+      <c r="H38" t="s">
+        <v>381</v>
+      </c>
+      <c r="I38" t="s">
+        <v>382</v>
+      </c>
+      <c r="J38" t="s">
+        <v>383</v>
+      </c>
+      <c r="K38" t="s">
+        <v>384</v>
+      </c>
+      <c r="M38" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>689</v>
+      </c>
+      <c r="B39" t="s">
+        <v>702</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>250</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>368</v>
+      </c>
+      <c r="I39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" t="s">
+        <v>36</v>
+      </c>
+      <c r="M39" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>689</v>
+      </c>
+      <c r="B40" t="s">
+        <v>704</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>250</v>
+      </c>
+      <c r="F40" t="s">
+        <v>370</v>
+      </c>
+      <c r="H40" t="s">
+        <v>348</v>
+      </c>
+      <c r="I40" t="s">
+        <v>375</v>
+      </c>
+      <c r="J40" t="s">
+        <v>376</v>
+      </c>
+      <c r="M40" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>689</v>
+      </c>
+      <c r="B41" t="s">
+        <v>706</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>250</v>
+      </c>
+      <c r="F41" t="s">
+        <v>378</v>
+      </c>
+      <c r="H41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" t="s">
+        <v>377</v>
+      </c>
+      <c r="J41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>689</v>
+      </c>
+      <c r="B42" t="s">
+        <v>708</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>10000</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" t="s">
+        <v>391</v>
+      </c>
+      <c r="I42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>689</v>
+      </c>
+      <c r="B43" t="s">
+        <v>710</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>10000</v>
+      </c>
+      <c r="F43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" t="s">
+        <v>367</v>
+      </c>
+      <c r="I43" t="s">
+        <v>413</v>
+      </c>
+      <c r="J43" t="s">
+        <v>711</v>
+      </c>
+      <c r="K43" t="s">
+        <v>712</v>
+      </c>
+      <c r="M43" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>714</v>
+      </c>
+      <c r="B44" t="s">
+        <v>715</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>10000</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s">
+        <v>434</v>
+      </c>
+      <c r="I44" t="s">
+        <v>362</v>
+      </c>
+      <c r="J44" t="s">
+        <v>435</v>
+      </c>
+      <c r="K44" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>714</v>
+      </c>
+      <c r="B45" t="s">
+        <v>716</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>10000</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s">
+        <v>719</v>
+      </c>
+      <c r="I45" t="s">
+        <v>408</v>
+      </c>
+      <c r="J45" t="s">
+        <v>711</v>
+      </c>
+      <c r="M45" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>714</v>
+      </c>
+      <c r="B46" t="s">
+        <v>717</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>10000</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s">
+        <v>721</v>
+      </c>
+      <c r="I46" t="s">
+        <v>367</v>
+      </c>
+      <c r="J46" t="s">
+        <v>435</v>
+      </c>
+      <c r="M46" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>714</v>
+      </c>
+      <c r="B47" t="s">
+        <v>718</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>10000</v>
+      </c>
+      <c r="F47" t="s">
+        <v>412</v>
+      </c>
+      <c r="H47" t="s">
+        <v>432</v>
+      </c>
+      <c r="I47" t="s">
+        <v>433</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1</v>
+      </c>
+      <c r="M47" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>723</v>
+      </c>
+      <c r="B48" t="s">
+        <v>724</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>10000</v>
+      </c>
+      <c r="F48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>39</v>
+      </c>
+      <c r="J48" t="s">
+        <v>436</v>
+      </c>
+      <c r="K48" t="s">
+        <v>440</v>
+      </c>
+      <c r="M48" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>723</v>
+      </c>
+      <c r="B49" t="s">
+        <v>725</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>10000</v>
+      </c>
+      <c r="F49" t="s">
+        <v>412</v>
+      </c>
+      <c r="H49" t="s">
+        <v>442</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>359</v>
+      </c>
+      <c r="K49" t="s">
+        <v>441</v>
+      </c>
+      <c r="M49" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>723</v>
+      </c>
+      <c r="B50" t="s">
+        <v>726</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>10000</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K50" t="s">
+        <v>443</v>
+      </c>
+      <c r="L50" t="s">
+        <v>444</v>
+      </c>
+      <c r="M50" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>723</v>
+      </c>
+      <c r="B51" t="s">
+        <v>727</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>10000</v>
+      </c>
+      <c r="F51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s">
+        <v>446</v>
+      </c>
+      <c r="I51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" t="s">
+        <v>359</v>
+      </c>
+      <c r="K51" t="s">
+        <v>445</v>
+      </c>
+      <c r="M51" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>728</v>
+      </c>
+      <c r="B52" t="s">
+        <v>729</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>10000</v>
+      </c>
+      <c r="F52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" t="s">
+        <v>362</v>
+      </c>
+      <c r="I52" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" t="s">
+        <v>2</v>
+      </c>
+      <c r="K52" t="s">
+        <v>443</v>
+      </c>
+      <c r="M52" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>728</v>
+      </c>
+      <c r="B53" t="s">
+        <v>730</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>10000</v>
+      </c>
+      <c r="F53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s">
+        <v>711</v>
+      </c>
+      <c r="I53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>728</v>
+      </c>
+      <c r="B54" t="s">
+        <v>731</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>10000</v>
+      </c>
+      <c r="F54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" t="s">
+        <v>28</v>
+      </c>
+      <c r="M54" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>728</v>
+      </c>
+      <c r="B55" t="s">
+        <v>732</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>10000</v>
+      </c>
+      <c r="F55" t="s">
+        <v>345</v>
+      </c>
+      <c r="H55" t="s">
+        <v>450</v>
+      </c>
+      <c r="I55" t="s">
+        <v>451</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>734</v>
+      </c>
+      <c r="B56" t="s">
+        <v>735</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>10000</v>
+      </c>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s">
+        <v>371</v>
+      </c>
+      <c r="I56" t="s">
+        <v>389</v>
+      </c>
+      <c r="J56" t="s">
+        <v>388</v>
+      </c>
+      <c r="K56" t="s">
+        <v>441</v>
+      </c>
+      <c r="M56" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>734</v>
+      </c>
+      <c r="B57" t="s">
+        <v>736</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>10000</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" t="s">
+        <v>387</v>
+      </c>
+      <c r="J57" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>734</v>
+      </c>
+      <c r="B58" t="s">
+        <v>737</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>10000</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" t="s">
+        <v>454</v>
+      </c>
+      <c r="I58" t="s">
+        <v>386</v>
+      </c>
+      <c r="J58" t="s">
+        <v>37</v>
+      </c>
+      <c r="M58" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>734</v>
+      </c>
+      <c r="B59" t="s">
+        <v>738</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>10000</v>
+      </c>
+      <c r="F59" t="s">
+        <v>39</v>
+      </c>
+      <c r="H59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s">
+        <v>453</v>
+      </c>
+      <c r="J59" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59" t="s">
+        <v>452</v>
+      </c>
+      <c r="M59" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>742</v>
+      </c>
+      <c r="B60" t="s">
+        <v>743</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>10000</v>
+      </c>
+      <c r="F60" t="s">
+        <v>344</v>
+      </c>
+      <c r="H60" t="s">
+        <v>394</v>
+      </c>
+      <c r="I60" t="s">
+        <v>461</v>
+      </c>
+      <c r="J60" t="s">
+        <v>17</v>
+      </c>
+      <c r="M60" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>742</v>
+      </c>
+      <c r="B61" t="s">
+        <v>745</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>50</v>
+      </c>
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>363</v>
+      </c>
+      <c r="M61" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>742</v>
+      </c>
+      <c r="B62" t="s">
+        <v>746</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>10000</v>
+      </c>
+      <c r="F62" t="s">
+        <v>344</v>
+      </c>
+      <c r="H62" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s">
+        <v>462</v>
+      </c>
+      <c r="J62" t="s">
+        <v>406</v>
+      </c>
+      <c r="M62" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>742</v>
+      </c>
+      <c r="B63" t="s">
+        <v>747</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>10000</v>
+      </c>
+      <c r="F63" t="s">
+        <v>463</v>
+      </c>
+      <c r="G63" t="s">
+        <v>464</v>
+      </c>
+      <c r="H63" t="s">
+        <v>467</v>
+      </c>
+      <c r="I63" t="s">
+        <v>468</v>
+      </c>
+      <c r="M63" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>742</v>
+      </c>
+      <c r="B64" t="s">
+        <v>748</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>50</v>
+      </c>
+      <c r="F64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" t="s">
+        <v>749</v>
+      </c>
+      <c r="J64" t="s">
+        <v>448</v>
+      </c>
+      <c r="M64" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>742</v>
+      </c>
+      <c r="B65" t="s">
+        <v>750</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>50</v>
+      </c>
+      <c r="F65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
+        <v>749</v>
+      </c>
+      <c r="J65" t="s">
+        <v>446</v>
+      </c>
+      <c r="M65" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>742</v>
+      </c>
+      <c r="B66" t="s">
+        <v>751</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>50</v>
+      </c>
+      <c r="F66" t="s">
+        <v>345</v>
+      </c>
+      <c r="H66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
+        <v>749</v>
+      </c>
+      <c r="J66" t="s">
+        <v>449</v>
+      </c>
+      <c r="M66" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>742</v>
+      </c>
+      <c r="B67" t="s">
+        <v>752</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>50</v>
+      </c>
+      <c r="F67" t="s">
+        <v>39</v>
+      </c>
+      <c r="H67" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" t="s">
+        <v>749</v>
+      </c>
+      <c r="J67" t="s">
+        <v>447</v>
+      </c>
+      <c r="M67" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>742</v>
+      </c>
+      <c r="B68" t="s">
+        <v>753</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>50</v>
+      </c>
+      <c r="F68" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" t="s">
+        <v>456</v>
+      </c>
+      <c r="I68" t="s">
+        <v>457</v>
+      </c>
+      <c r="J68" t="s">
+        <v>458</v>
+      </c>
+      <c r="M68" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>742</v>
+      </c>
+      <c r="B69" t="s">
+        <v>754</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>2500</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+      <c r="H69" t="s">
+        <v>4</v>
+      </c>
+      <c r="I69" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" t="s">
+        <v>749</v>
+      </c>
+      <c r="M69" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>755</v>
+      </c>
+      <c r="B70" t="s">
+        <v>756</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>10000</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" t="s">
+        <v>36</v>
+      </c>
+      <c r="I70" t="s">
+        <v>5</v>
+      </c>
+      <c r="M70" t="s">
+        <v>670</v>
+      </c>
+      <c r="N70" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>755</v>
+      </c>
+      <c r="B71" t="s">
+        <v>757</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>10000</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" t="s">
+        <v>346</v>
+      </c>
+      <c r="J71" t="s">
+        <v>371</v>
+      </c>
+      <c r="M71" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>755</v>
+      </c>
+      <c r="B72" t="s">
+        <v>758</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>250</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>474</v>
+      </c>
+      <c r="H72" t="s">
+        <v>35</v>
+      </c>
+      <c r="I72" t="s">
+        <v>18</v>
+      </c>
+      <c r="M72" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>755</v>
+      </c>
+      <c r="B73" t="s">
+        <v>759</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>250</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>472</v>
+      </c>
+      <c r="H73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I73" t="s">
+        <v>711</v>
+      </c>
+      <c r="M73" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>755</v>
+      </c>
+      <c r="B74" t="s">
+        <v>760</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>250</v>
+      </c>
+      <c r="F74" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>473</v>
+      </c>
+      <c r="H74" t="s">
+        <v>345</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1</v>
+      </c>
+      <c r="M74" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>755</v>
+      </c>
+      <c r="B75" t="s">
+        <v>761</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>250</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>471</v>
+      </c>
+      <c r="H75" t="s">
+        <v>39</v>
+      </c>
+      <c r="I75" t="s">
+        <v>28</v>
+      </c>
+      <c r="M75" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>762</v>
+      </c>
+      <c r="B76" t="s">
+        <v>763</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>10000</v>
+      </c>
+      <c r="F76" t="s">
+        <v>627</v>
+      </c>
+      <c r="H76" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" t="s">
+        <v>349</v>
+      </c>
+      <c r="J76" t="s">
+        <v>485</v>
+      </c>
+      <c r="K76" t="s">
+        <v>484</v>
+      </c>
+      <c r="M76" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>762</v>
+      </c>
+      <c r="B77" t="s">
+        <v>764</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>10000</v>
+      </c>
+      <c r="F77" t="s">
+        <v>684</v>
+      </c>
+      <c r="H77" t="s">
+        <v>357</v>
+      </c>
+      <c r="I77" t="s">
+        <v>38</v>
+      </c>
+      <c r="J77" t="s">
+        <v>485</v>
+      </c>
+      <c r="M77" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>762</v>
+      </c>
+      <c r="B78" t="s">
+        <v>765</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>10000</v>
+      </c>
+      <c r="F78" t="s">
+        <v>635</v>
+      </c>
+      <c r="H78" t="s">
+        <v>351</v>
+      </c>
+      <c r="I78" t="s">
+        <v>485</v>
+      </c>
+      <c r="J78" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78" t="s">
+        <v>486</v>
+      </c>
+      <c r="M78" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>762</v>
+      </c>
+      <c r="B79" t="s">
+        <v>766</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>10000</v>
+      </c>
+      <c r="F79" t="s">
+        <v>621</v>
+      </c>
+      <c r="H79" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" t="s">
+        <v>448</v>
+      </c>
+      <c r="J79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K79" t="s">
+        <v>487</v>
+      </c>
+      <c r="M79" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>762</v>
+      </c>
+      <c r="B80" t="s">
+        <v>767</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>10000</v>
+      </c>
+      <c r="F80" t="s">
+        <v>636</v>
+      </c>
+      <c r="H80" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80" t="s">
+        <v>10</v>
+      </c>
+      <c r="J80" t="s">
+        <v>446</v>
+      </c>
+      <c r="K80" t="s">
+        <v>488</v>
+      </c>
+      <c r="M80" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>762</v>
+      </c>
+      <c r="B81" t="s">
+        <v>768</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>50</v>
+      </c>
+      <c r="F81" t="s">
+        <v>636</v>
+      </c>
+      <c r="H81" t="s">
+        <v>408</v>
+      </c>
+      <c r="I81" t="s">
+        <v>477</v>
+      </c>
+      <c r="J81" t="s">
+        <v>483</v>
+      </c>
+      <c r="M81" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>762</v>
+      </c>
+      <c r="B82" t="s">
+        <v>770</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>50</v>
+      </c>
+      <c r="F82" t="s">
+        <v>627</v>
+      </c>
+      <c r="H82" t="s">
+        <v>407</v>
+      </c>
+      <c r="I82" t="s">
+        <v>475</v>
+      </c>
+      <c r="J82" t="s">
+        <v>483</v>
+      </c>
+      <c r="M82" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>762</v>
+      </c>
+      <c r="B83" t="s">
+        <v>771</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>50</v>
+      </c>
+      <c r="F83" t="s">
+        <v>635</v>
+      </c>
+      <c r="H83" t="s">
+        <v>409</v>
+      </c>
+      <c r="I83" t="s">
+        <v>478</v>
+      </c>
+      <c r="J83" t="s">
+        <v>483</v>
+      </c>
+      <c r="M83" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>762</v>
+      </c>
+      <c r="B84" t="s">
+        <v>772</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84">
+        <v>50</v>
+      </c>
+      <c r="F84" t="s">
+        <v>621</v>
+      </c>
+      <c r="H84" t="s">
+        <v>410</v>
+      </c>
+      <c r="I84" t="s">
+        <v>476</v>
+      </c>
+      <c r="J84" t="s">
+        <v>483</v>
+      </c>
+      <c r="M84" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>773</v>
+      </c>
+      <c r="B85" t="s">
+        <v>774</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>10000</v>
+      </c>
+      <c r="F85" t="s">
+        <v>684</v>
+      </c>
+      <c r="H85" t="s">
+        <v>394</v>
+      </c>
+      <c r="I85" t="s">
+        <v>775</v>
+      </c>
+      <c r="M85" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>773</v>
+      </c>
+      <c r="B86" t="s">
+        <v>776</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>10000</v>
+      </c>
+      <c r="F86" t="s">
+        <v>636</v>
+      </c>
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" t="s">
+        <v>489</v>
+      </c>
+      <c r="J86" t="s">
+        <v>485</v>
+      </c>
+      <c r="M86" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>773</v>
+      </c>
+      <c r="B87" t="s">
+        <v>777</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87">
+        <v>50</v>
+      </c>
+      <c r="F87" t="s">
+        <v>403</v>
+      </c>
+      <c r="H87" t="s">
+        <v>783</v>
+      </c>
+      <c r="I87" t="s">
+        <v>435</v>
+      </c>
+      <c r="J87" t="s">
+        <v>476</v>
+      </c>
+      <c r="M87" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>773</v>
+      </c>
+      <c r="B88" t="s">
+        <v>778</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <v>50</v>
+      </c>
+      <c r="F88" t="s">
+        <v>402</v>
+      </c>
+      <c r="H88" t="s">
+        <v>783</v>
+      </c>
+      <c r="I88" t="s">
+        <v>435</v>
+      </c>
+      <c r="J88" t="s">
+        <v>477</v>
+      </c>
+      <c r="M88" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>773</v>
+      </c>
+      <c r="B89" t="s">
+        <v>779</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>50</v>
+      </c>
+      <c r="F89" t="s">
+        <v>392</v>
+      </c>
+      <c r="H89" t="s">
+        <v>783</v>
+      </c>
+      <c r="I89" t="s">
+        <v>435</v>
+      </c>
+      <c r="J89" t="s">
+        <v>475</v>
+      </c>
+      <c r="M89" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>773</v>
+      </c>
+      <c r="B90" t="s">
+        <v>780</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>50</v>
+      </c>
+      <c r="F90" t="s">
+        <v>404</v>
+      </c>
+      <c r="H90" t="s">
+        <v>783</v>
+      </c>
+      <c r="I90" t="s">
+        <v>435</v>
+      </c>
+      <c r="J90" t="s">
+        <v>478</v>
+      </c>
+      <c r="M90" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C91" s="2">
+        <v>2</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1</v>
+      </c>
+      <c r="E91" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="N91" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412161D7-ED46-4974-A544-8014624315A0}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2309,22 +8310,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D1" t="s">
         <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2335,10 +8336,10 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2346,7 +8347,7 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2355,12 +8356,12 @@
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -2372,12 +8373,12 @@
         <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -2386,38 +8387,38 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F5" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B6" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C6" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2428,24 +8429,24 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D8" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2467,27 +8468,27 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B12" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2495,13 +8496,13 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C13" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D13" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2509,83 +8510,83 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C14" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D14" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B15" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C15" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D15" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B16" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C16" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D16" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B17" t="s">
+        <v>432</v>
+      </c>
+      <c r="C17" t="s">
         <v>437</v>
       </c>
-      <c r="C17" t="s">
-        <v>442</v>
-      </c>
       <c r="D17" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B18" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C18" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D18" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B19" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C19" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D19" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2593,55 +8594,55 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C20" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D20" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C21" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D21" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D22" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B23" t="s">
+        <v>433</v>
+      </c>
+      <c r="C23" t="s">
         <v>438</v>
       </c>
-      <c r="C23" t="s">
-        <v>443</v>
-      </c>
       <c r="D23" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2649,27 +8650,27 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C24" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D24" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B25" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C25" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D25" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2677,27 +8678,27 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C26" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D26" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B27" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2705,27 +8706,27 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C28" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D28" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B29" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C29" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D29" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2733,13 +8734,13 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C30" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D30" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2747,41 +8748,41 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C31" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D31" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B32" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C32" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D32" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B33" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C33" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D33" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2789,13 +8790,13 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C34" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D34" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2803,13 +8804,13 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C35" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D35" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2817,13 +8818,13 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C36" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D36" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2831,55 +8832,55 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C37" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D37" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B38" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C38" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D38" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D39" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C40" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D40" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2887,69 +8888,69 @@
         <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C41" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D41" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B42" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C42" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D42" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B43" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C43" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D43" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B44" t="s">
         <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D44" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B45" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C45" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D45" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2957,13 +8958,13 @@
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C46" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D46" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2976,1432 +8977,1435 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98E29CE-F36E-4B51-928B-B3DEFF7B094E}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:A284"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D1B4D5-31C9-4AD0-8915-B7F5FDD450A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD95652B-4664-446C-8800-215F52BADE0A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2745" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{D4271B40-E291-4F7D-B212-DFF8B5827327}"/>
+    <workbookView xWindow="38280" yWindow="2745" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D4271B40-E291-4F7D-B212-DFF8B5827327}"/>
   </bookViews>
   <sheets>
     <sheet name="Runewords" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="882">
   <si>
     <t>armor_percent</t>
   </si>
@@ -2656,9 +2656,6 @@
     <t>low_attack_thunder_damage_flat, low_attack_water_damage_flat, low_attack_fire_damage_flat, low_attack_nature_damage_flat</t>
   </si>
   <si>
-    <t>plus_storm_skills_lvls_flat</t>
-  </si>
-  <si>
     <t>cloth, neck, charm</t>
   </si>
   <si>
@@ -2666,6 +2663,24 @@
   </si>
   <si>
     <t>leather, torch, bracelet</t>
+  </si>
+  <si>
+    <t>Knight's Pledge</t>
+  </si>
+  <si>
+    <t>increase_healing_flat</t>
+  </si>
+  <si>
+    <t>Lord's Retribution</t>
+  </si>
+  <si>
+    <t>all armor, ring, neck</t>
+  </si>
+  <si>
+    <t>MOD VI</t>
+  </si>
+  <si>
+    <t>arcane_devotion_trait_flat</t>
   </si>
 </sst>
 </file>
@@ -4197,10 +4212,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4246,6 +4261,9 @@
       <c r="L1" s="1" t="s">
         <v>599</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -5248,7 +5266,7 @@
         <v>6</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>3</v>
@@ -5263,7 +5281,7 @@
         <v>441</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>873</v>
+        <v>443</v>
       </c>
       <c r="N30" s="6"/>
     </row>
@@ -5290,7 +5308,7 @@
         <v>6</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>363</v>
@@ -5332,7 +5350,7 @@
         <v>6</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>871</v>
@@ -5563,18 +5581,76 @@
       <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="A39" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E39" s="8">
+        <v>10</v>
+      </c>
+      <c r="F39" s="8">
+        <v>40</v>
+      </c>
+      <c r="G39" s="4">
+        <v>3</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>877</v>
+      </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>4</v>
+      </c>
+      <c r="D40" s="4">
+        <v>50</v>
+      </c>
+      <c r="E40" s="9">
+        <v>45</v>
+      </c>
+      <c r="F40" s="9">
+        <v>99</v>
+      </c>
+      <c r="G40" s="4">
+        <v>6</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>853</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L39">
@@ -5594,8 +5670,8 @@
   </sheetPr>
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6720,7 +6796,7 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="4" t="s">
-        <v>5</v>
+        <v>881</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>18</v>
@@ -9948,7 +10024,7 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -10632,7 +10708,7 @@
   <dimension ref="A1:A284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD95652B-4664-446C-8800-215F52BADE0A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74CCE2F-8E55-4FD0-BF06-4B512AE9CAB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2745" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D4271B40-E291-4F7D-B212-DFF8B5827327}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="907">
   <si>
     <t>armor_percent</t>
   </si>
@@ -2681,13 +2681,88 @@
   </si>
   <si>
     <t>arcane_devotion_trait_flat</t>
+  </si>
+  <si>
+    <t>the_covenant</t>
+  </si>
+  <si>
+    <t>blood_mage_trait_flat</t>
+  </si>
+  <si>
+    <t>much_less_elemental_resist_flat</t>
+  </si>
+  <si>
+    <t>0.5 wis</t>
+  </si>
+  <si>
+    <t>0.25 vit, 0.25 str, 0.25 dex</t>
+  </si>
+  <si>
+    <t>harmony_trait_flat</t>
+  </si>
+  <si>
+    <t>1.0 vit, 1.0 int</t>
+  </si>
+  <si>
+    <t>skin_of_the_vipermagi</t>
+  </si>
+  <si>
+    <t>high_armor_percent</t>
+  </si>
+  <si>
+    <t>1.0 str, 0.75 sta</t>
+  </si>
+  <si>
+    <t>manald_heal</t>
+  </si>
+  <si>
+    <t>shaftstop</t>
+  </si>
+  <si>
+    <t>nightwings_veil</t>
+  </si>
+  <si>
+    <t>geofris_sanctuary</t>
+  </si>
+  <si>
+    <t>solaris_lorica</t>
+  </si>
+  <si>
+    <t>karui_ward</t>
+  </si>
+  <si>
+    <t>andvarius</t>
+  </si>
+  <si>
+    <t>low_health_regen_flat</t>
+  </si>
+  <si>
+    <t>low_mana_regen_flat</t>
+  </si>
+  <si>
+    <t>low_health_flat</t>
+  </si>
+  <si>
+    <t>stone_of_jordan</t>
+  </si>
+  <si>
+    <t>mana_percent</t>
+  </si>
+  <si>
+    <t>biscos_collar</t>
+  </si>
+  <si>
+    <t>low_spell_damage_flat</t>
+  </si>
+  <si>
+    <t>less_health_percent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2722,6 +2797,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2752,7 +2834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2767,6 +2849,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4214,8 +4297,8 @@
   </sheetPr>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5668,10 +5751,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5893,7 +5976,9 @@
       <c r="J6" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="14" t="s">
+        <v>483</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="4" t="s">
         <v>685</v>
@@ -6200,7 +6285,9 @@
       <c r="J15" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="K15" s="3"/>
+      <c r="K15" s="14" t="s">
+        <v>483</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="4" t="s">
         <v>637</v>
@@ -9978,34 +10065,374 @@
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
+      <c r="A126" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C126" s="6">
+        <v>4</v>
+      </c>
+      <c r="D126" s="6">
+        <v>3</v>
+      </c>
+      <c r="E126" s="6">
+        <v>250</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="M126" s="4" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
+      <c r="A127" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="C127" s="6">
+        <v>4</v>
+      </c>
+      <c r="D127" s="6">
+        <v>4</v>
+      </c>
+      <c r="E127" s="6">
+        <v>50</v>
+      </c>
+      <c r="F127" t="s">
+        <v>369</v>
+      </c>
+      <c r="H127" t="s">
+        <v>34</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="M127" s="4" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
+      <c r="A128" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="C128" s="6">
+        <v>1</v>
+      </c>
+      <c r="D128" s="6">
+        <v>1</v>
+      </c>
+      <c r="E128" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F128" t="s">
+        <v>358</v>
+      </c>
+      <c r="H128" t="s">
+        <v>371</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M128" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="C129" s="6">
+        <v>2</v>
+      </c>
+      <c r="D129" s="6">
+        <v>4</v>
+      </c>
+      <c r="E129" s="6">
+        <v>50</v>
+      </c>
+      <c r="F129" t="s">
+        <v>34</v>
+      </c>
+      <c r="H129" t="s">
+        <v>34</v>
+      </c>
+      <c r="M129" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="C130" s="6">
+        <v>2</v>
+      </c>
+      <c r="D130" s="6">
+        <v>1</v>
+      </c>
+      <c r="E130" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F130" t="s">
+        <v>22</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="I130" t="s">
+        <v>2</v>
+      </c>
+      <c r="J130" t="s">
+        <v>389</v>
+      </c>
+      <c r="M130" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="C131" s="6">
+        <v>3</v>
+      </c>
+      <c r="D131" s="6">
+        <v>3</v>
+      </c>
+      <c r="E131" s="6">
+        <v>250</v>
+      </c>
+      <c r="F131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
+        <v>5</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K131" t="s">
+        <v>6</v>
+      </c>
+      <c r="M131" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="C132" s="6">
+        <v>4</v>
+      </c>
+      <c r="D132" s="6">
+        <v>3</v>
+      </c>
+      <c r="E132" s="6">
+        <v>250</v>
+      </c>
+      <c r="F132" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>5</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="M132" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="C133" s="6">
+        <v>2</v>
+      </c>
+      <c r="D133" s="6">
+        <v>1</v>
+      </c>
+      <c r="E133" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F133" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="M133" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="C134" s="6">
+        <v>1</v>
+      </c>
+      <c r="D134" s="6">
+        <v>1</v>
+      </c>
+      <c r="E134" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F134" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" t="s">
+        <v>2</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M134" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="C135" s="6">
+        <v>1</v>
+      </c>
+      <c r="D135" s="6">
+        <v>1</v>
+      </c>
+      <c r="E135" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F135" t="s">
+        <v>899</v>
+      </c>
+      <c r="H135" t="s">
+        <v>13</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="M135" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="C136" s="6">
+        <v>2</v>
+      </c>
+      <c r="D136" s="6">
+        <v>4</v>
+      </c>
+      <c r="E136" s="6">
+        <v>50</v>
+      </c>
+      <c r="F136" t="s">
+        <v>903</v>
+      </c>
+      <c r="H136" t="s">
+        <v>445</v>
+      </c>
+      <c r="I136" t="s">
+        <v>440</v>
+      </c>
+      <c r="J136" t="s">
+        <v>443</v>
+      </c>
+      <c r="K136" t="s">
+        <v>441</v>
+      </c>
+      <c r="L136" t="s">
+        <v>427</v>
+      </c>
+      <c r="M136" t="s">
+        <v>853</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N125">
@@ -10024,8 +10451,8 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10707,7 +11134,7 @@
   </sheetPr>
   <dimension ref="A1:A284"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74CCE2F-8E55-4FD0-BF06-4B512AE9CAB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A564E59-5CFD-497D-BFEA-3D219BF2899E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2745" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D4271B40-E291-4F7D-B212-DFF8B5827327}"/>
   </bookViews>
@@ -5753,8 +5753,8 @@
   </sheetPr>
   <dimension ref="A1:N136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A564E59-5CFD-497D-BFEA-3D219BF2899E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FA4B78-950D-4781-853D-C2A68352655D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2745" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D4271B40-E291-4F7D-B212-DFF8B5827327}"/>
+    <workbookView xWindow="4125" yWindow="2355" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{D4271B40-E291-4F7D-B212-DFF8B5827327}"/>
   </bookViews>
   <sheets>
     <sheet name="Runewords" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="920">
   <si>
     <t>armor_percent</t>
   </si>
@@ -2756,13 +2756,52 @@
   </si>
   <si>
     <t>less_health_percent</t>
+  </si>
+  <si>
+    <t>high_critical_hit_percent</t>
+  </si>
+  <si>
+    <t>starforge</t>
+  </si>
+  <si>
+    <t>cospris_malice</t>
+  </si>
+  <si>
+    <t>queen_of_the_forest</t>
+  </si>
+  <si>
+    <t>headhunter</t>
+  </si>
+  <si>
+    <t>very_high_health_flat</t>
+  </si>
+  <si>
+    <t>high_all_attributes_flat</t>
+  </si>
+  <si>
+    <t>wurms_molt</t>
+  </si>
+  <si>
+    <t>1.0 str, 1.0 dex</t>
+  </si>
+  <si>
+    <t>1.0 dex, 1.0 int</t>
+  </si>
+  <si>
+    <t>high_dodge_percent</t>
+  </si>
+  <si>
+    <t>bow_damage_percent</t>
+  </si>
+  <si>
+    <t>1.1 dex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2797,13 +2836,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2834,7 +2866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2845,11 +2877,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3181,31 +3210,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -5751,10 +5780,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5765,43 +5794,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="11" t="s">
         <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -5809,34 +5838,37 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
         <v>10000</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="M2" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
         <v>622</v>
       </c>
     </row>
@@ -5866,7 +5898,7 @@
       <c r="I3" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>395</v>
       </c>
       <c r="K3" s="3"/>
@@ -5876,37 +5908,39 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="8">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>10000</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="M4" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
         <v>622</v>
       </c>
     </row>
@@ -5976,7 +6010,7 @@
       <c r="J6" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="8" t="s">
         <v>483</v>
       </c>
       <c r="L6" s="3"/>
@@ -5985,37 +6019,39 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="8">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
         <v>10000</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M7" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="s">
         <v>624</v>
       </c>
     </row>
@@ -6127,130 +6163,142 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="8">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
         <v>10000</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="M11" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
         <v>10000</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="M12" t="s">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="8">
         <v>3</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
         <v>10000</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="M13" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="8">
         <v>3</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
         <v>10000</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="M14" t="s">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
         <v>637</v>
       </c>
     </row>
@@ -6285,7 +6333,7 @@
       <c r="J15" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="8" t="s">
         <v>483</v>
       </c>
       <c r="L15" s="3"/>
@@ -6294,159 +6342,175 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
         <v>10000</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="M16" t="s">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="8">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
         <v>10000</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="M17" t="s">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="8">
         <v>3</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
         <v>10000</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="M18" t="s">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="8">
         <v>3</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
         <v>10000</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="M19" t="s">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="8">
         <v>4</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
         <v>10000</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="M20" t="s">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3" t="s">
         <v>649</v>
       </c>
       <c r="N20" t="s">
@@ -6454,308 +6518,329 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="8">
         <v>4</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
         <v>10000</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="M21" t="s">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="8">
         <v>4</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
         <v>10000</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="H22" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="M22" t="s">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="8">
         <v>4</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
         <v>10000</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H23" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="M23" t="s">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="8">
         <v>4</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
         <v>10000</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="M24" t="s">
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="8">
         <v>4</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
         <v>10000</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H25" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M25" t="s">
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="8">
         <v>2</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
         <v>50</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="M26" t="s">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="8">
         <v>2</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
         <v>50</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H27" t="s">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="M27" t="s">
+      <c r="L27" s="3"/>
+      <c r="M27" s="3" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="8">
         <v>2</v>
       </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
         <v>50</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="M28" t="s">
+      <c r="L28" s="3"/>
+      <c r="M28" s="3" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="8">
         <v>2</v>
       </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
         <v>50</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" t="s">
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="M29" t="s">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3" t="s">
         <v>667</v>
       </c>
     </row>
@@ -6828,37 +6913,39 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="8">
         <v>3</v>
       </c>
-      <c r="D32" s="6">
-        <v>1</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
         <v>10000</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H32" t="s">
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="M32" t="s">
+      <c r="L32" s="3"/>
+      <c r="M32" s="3" t="s">
         <v>670</v>
       </c>
     </row>
@@ -6866,74 +6953,76 @@
       <c r="A33" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>822</v>
+      <c r="B33" s="8" t="s">
+        <v>882</v>
       </c>
       <c r="C33" s="8">
-        <v>5</v>
-      </c>
-      <c r="D33" s="9">
         <v>4</v>
       </c>
-      <c r="E33" s="4">
-        <v>50</v>
+      <c r="D33" s="8">
+        <v>3</v>
+      </c>
+      <c r="E33" s="8">
+        <v>250</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="4" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>18</v>
+        <v>749</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="L33" s="3"/>
       <c r="M33" s="4" t="s">
-        <v>852</v>
+        <v>713</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1</v>
+        <v>822</v>
+      </c>
+      <c r="C34" s="8">
+        <v>5</v>
+      </c>
+      <c r="D34" s="9">
+        <v>4</v>
       </c>
       <c r="E34" s="4">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="4" t="s">
-        <v>28</v>
+        <v>881</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+        <v>470</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="M34" s="4" t="s">
-        <v>670</v>
+        <v>852</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -6941,7 +7030,7 @@
         <v>671</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C35" s="3">
         <v>2</v>
@@ -6957,13 +7046,13 @@
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="4" t="s">
-        <v>711</v>
+        <v>28</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -6976,7 +7065,7 @@
         <v>671</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C36" s="3">
         <v>2</v>
@@ -6992,13 +7081,13 @@
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="4" t="s">
-        <v>18</v>
+        <v>711</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -7007,34 +7096,37 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="B37" t="s">
-        <v>673</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
+      <c r="B37" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4">
         <v>10000</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H37" t="s">
-        <v>36</v>
-      </c>
-      <c r="I37" t="s">
-        <v>2</v>
-      </c>
-      <c r="J37" t="s">
-        <v>13</v>
-      </c>
-      <c r="M37" t="s">
+      <c r="G37" s="3"/>
+      <c r="H37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="4" t="s">
         <v>670</v>
       </c>
       <c r="N37" t="s">
@@ -7042,301 +7134,320 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C39" s="8">
         <v>5</v>
       </c>
-      <c r="D38" s="6">
-        <v>1</v>
-      </c>
-      <c r="E38">
+      <c r="D39" s="8">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
         <v>10000</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H38" t="s">
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I39" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J39" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="M38" t="s">
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="C39" s="8">
-        <v>1</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4">
+      <c r="C40" s="8">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
         <v>10000</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="4" t="s">
+      <c r="G40" s="3"/>
+      <c r="H40" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K40" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="4" t="s">
+      <c r="L40" s="3"/>
+      <c r="M40" s="4" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="C40">
+      <c r="C41" s="3">
         <v>2</v>
       </c>
-      <c r="D40">
+      <c r="D41" s="3">
         <v>4</v>
       </c>
-      <c r="E40">
+      <c r="E41" s="3">
         <v>50</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F41" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="H40" t="s">
+      <c r="G41" s="3"/>
+      <c r="H41" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I41" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J41" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="M40" t="s">
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="C41">
+      <c r="C42" s="3">
         <v>2</v>
       </c>
-      <c r="D41">
+      <c r="D42" s="3">
         <v>4</v>
       </c>
-      <c r="E41">
+      <c r="E42" s="3">
         <v>50</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F42" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="H41" t="s">
+      <c r="G42" s="3"/>
+      <c r="H42" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I42" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J42" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="M41" t="s">
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="C42">
+      <c r="C43" s="3">
         <v>2</v>
       </c>
-      <c r="D42">
+      <c r="D43" s="3">
         <v>4</v>
       </c>
-      <c r="E42">
+      <c r="E43" s="3">
         <v>50</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F43" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="H42" t="s">
+      <c r="G43" s="3"/>
+      <c r="H43" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I43" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J43" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="M42" t="s">
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="C43">
+      <c r="C44" s="3">
         <v>2</v>
       </c>
-      <c r="D43">
+      <c r="D44" s="3">
         <v>4</v>
       </c>
-      <c r="E43">
+      <c r="E44" s="3">
         <v>50</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="H43" t="s">
+      <c r="G44" s="3"/>
+      <c r="H44" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I44" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J44" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="M43" t="s">
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C45" s="8">
         <v>2</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
         <v>10000</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="H44" t="s">
+      <c r="G45" s="3"/>
+      <c r="H45" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J45" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="M44" t="s">
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C46" s="8">
         <v>3</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
         <v>10000</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="H45" t="s">
+      <c r="G46" s="3"/>
+      <c r="H46" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J46" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="M45" t="s">
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3" t="s">
         <v>686</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="C46" s="8">
-        <v>4</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1</v>
-      </c>
-      <c r="E46" s="4">
-        <v>10000</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L46" s="3"/>
-      <c r="M46" s="4" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -7344,10 +7455,10 @@
         <v>675</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C47" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -7356,35 +7467,35 @@
         <v>10000</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>621</v>
+        <v>402</v>
       </c>
       <c r="G47" s="3"/>
-      <c r="H47" s="3" t="s">
-        <v>354</v>
+      <c r="H47" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>410</v>
+        <v>366</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>476</v>
+        <v>355</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>443</v>
+        <v>28</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="4" t="s">
-        <v>854</v>
+        <v>661</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>830</v>
+        <v>675</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="C48" s="6">
-        <v>1</v>
+        <v>829</v>
+      </c>
+      <c r="C48" s="8">
+        <v>5</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -7392,23 +7503,25 @@
       <c r="E48" s="4">
         <v>10000</v>
       </c>
-      <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" t="s">
-        <v>28</v>
-      </c>
-      <c r="J48" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" t="s">
-        <v>17</v>
-      </c>
-      <c r="M48" t="s">
-        <v>637</v>
+      <c r="F48" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="4" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -7416,10 +7529,10 @@
         <v>830</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C49" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -7432,15 +7545,17 @@
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>363</v>
+        <v>28</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="K49" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3" t="s">
         <v>637</v>
@@ -7451,10 +7566,10 @@
         <v>830</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C50" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -7463,35 +7578,33 @@
         <v>10000</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G50" s="3"/>
-      <c r="H50" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>440</v>
-      </c>
+      <c r="H50" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3" t="s">
-        <v>857</v>
+        <v>637</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>687</v>
+        <v>830</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C51" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -7503,86 +7616,87 @@
         <v>30</v>
       </c>
       <c r="G51" s="3"/>
-      <c r="H51" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K51" s="3"/>
+      <c r="H51" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>440</v>
+      </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3" t="s">
-        <v>637</v>
+        <v>857</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="B52" t="s">
-        <v>688</v>
-      </c>
-      <c r="C52" s="6">
-        <v>4</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
+      <c r="B52" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C52" s="8">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4">
         <v>10000</v>
       </c>
-      <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>428</v>
-      </c>
-      <c r="H52" t="s">
-        <v>2</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="F52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="J52" t="s">
-        <v>1</v>
-      </c>
-      <c r="K52" t="s">
-        <v>427</v>
-      </c>
-      <c r="M52" t="s">
+      <c r="J52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>837</v>
+        <v>687</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>889</v>
       </c>
       <c r="C53" s="8">
-        <v>1</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4">
+        <v>2</v>
+      </c>
+      <c r="D53" s="8">
+        <v>1</v>
+      </c>
+      <c r="E53" s="8">
         <v>10000</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="3"/>
-      <c r="H53" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J53" s="3"/>
+      <c r="H53" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>368</v>
+      </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3" t="s">
@@ -7590,36 +7704,38 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>838</v>
+      <c r="A54" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>688</v>
       </c>
       <c r="C54" s="8">
-        <v>1</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1</v>
-      </c>
-      <c r="E54" s="4">
+        <v>4</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3">
         <v>10000</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>428</v>
+      </c>
       <c r="H54" s="3" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>711</v>
+        <v>363</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>418</v>
+        <v>1</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3" t="s">
@@ -7631,10 +7747,10 @@
         <v>835</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C55" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -7643,24 +7759,20 @@
         <v>10000</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3" t="s">
-        <v>27</v>
+        <v>856</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>853</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3" t="s">
-        <v>855</v>
+        <v>637</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -7668,10 +7780,10 @@
         <v>835</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C56" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -7680,1212 +7792,1254 @@
         <v>10000</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>428</v>
+        <v>15</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3" t="s">
-        <v>432</v>
+        <v>28</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>26</v>
+        <v>711</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="K56" s="3"/>
+        <v>418</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>420</v>
+      </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C57" s="8">
+        <v>2</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="C58" s="8">
+        <v>3</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="C57" s="11">
-        <v>1</v>
-      </c>
-      <c r="D57" s="11">
+      <c r="C59" s="9">
+        <v>1</v>
+      </c>
+      <c r="D59" s="9">
         <v>3</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E59" s="9">
         <v>250</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F59" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11" t="s">
+      <c r="G59" s="9"/>
+      <c r="H59" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I59" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J57" s="11" t="s">
+      <c r="J59" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K57" s="11"/>
-      <c r="M57" t="s">
+      <c r="K59" s="9"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="C58" s="11">
-        <v>1</v>
-      </c>
-      <c r="D58" s="11">
+      <c r="C60" s="9">
+        <v>1</v>
+      </c>
+      <c r="D60" s="9">
         <v>3</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E60" s="9">
         <v>250</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F60" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11" t="s">
+      <c r="G60" s="9"/>
+      <c r="H60" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I58" s="11" t="s">
+      <c r="I60" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="J60" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K58" s="11" t="s">
+      <c r="K60" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M58" t="s">
+      <c r="L60" s="3"/>
+      <c r="M60" s="3" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="C61" s="8">
+        <v>1</v>
+      </c>
+      <c r="D61" s="8">
+        <v>1</v>
+      </c>
+      <c r="E61" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C62" s="8">
         <v>2</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
         <v>10000</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F62" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="H59" t="s">
+      <c r="G62" s="3"/>
+      <c r="H62" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J62" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K62" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="M59" t="s">
+      <c r="L62" s="3"/>
+      <c r="M62" s="3" t="s">
         <v>692</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>689</v>
-      </c>
-      <c r="B60" t="s">
-        <v>697</v>
-      </c>
-      <c r="C60" s="11">
-        <v>2</v>
-      </c>
-      <c r="D60" s="11">
-        <v>1</v>
-      </c>
-      <c r="E60" s="11">
-        <v>10000</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="L60" t="s">
-        <v>385</v>
-      </c>
-      <c r="M60" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>689</v>
-      </c>
-      <c r="B61" t="s">
-        <v>704</v>
-      </c>
-      <c r="C61" s="11">
-        <v>2</v>
-      </c>
-      <c r="D61" s="11">
-        <v>3</v>
-      </c>
-      <c r="E61" s="11">
-        <v>250</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="J61" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="K61" s="11"/>
-      <c r="M61" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>689</v>
-      </c>
-      <c r="B62" t="s">
-        <v>693</v>
-      </c>
-      <c r="C62" s="11">
-        <v>3</v>
-      </c>
-      <c r="D62" s="11">
-        <v>1</v>
-      </c>
-      <c r="E62" s="11">
-        <v>10000</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="M62" t="s">
-        <v>694</v>
       </c>
       <c r="N62" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C63" s="9">
+        <v>2</v>
+      </c>
+      <c r="D63" s="9">
+        <v>1</v>
+      </c>
+      <c r="E63" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C64" s="9">
+        <v>2</v>
+      </c>
+      <c r="D64" s="9">
+        <v>3</v>
+      </c>
+      <c r="E64" s="9">
+        <v>250</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="K64" s="9"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="C65" s="8">
+        <v>2</v>
+      </c>
+      <c r="D65" s="8">
+        <v>4</v>
+      </c>
+      <c r="E65" s="8">
+        <v>50</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C66" s="9">
+        <v>3</v>
+      </c>
+      <c r="D66" s="9">
+        <v>1</v>
+      </c>
+      <c r="E66" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C67" s="9">
         <v>3</v>
       </c>
-      <c r="D63" s="11">
-        <v>1</v>
-      </c>
-      <c r="E63" s="11">
+      <c r="D67" s="9">
+        <v>1</v>
+      </c>
+      <c r="E67" s="9">
         <v>10000</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F67" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11" t="s">
+      <c r="G67" s="9"/>
+      <c r="H67" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="I63" s="11" t="s">
+      <c r="I67" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="J63" s="11" t="s">
+      <c r="J67" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="K63" s="11" t="s">
+      <c r="K67" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="M63" t="s">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B68" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C68" s="9">
         <v>4</v>
       </c>
-      <c r="D64" s="11">
-        <v>1</v>
-      </c>
-      <c r="E64" s="11">
+      <c r="D68" s="9">
+        <v>1</v>
+      </c>
+      <c r="E68" s="9">
         <v>10000</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="F68" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11" t="s">
+      <c r="G68" s="9"/>
+      <c r="H68" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="I64" s="11" t="s">
+      <c r="I68" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J64" s="11" t="s">
+      <c r="J68" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K64" s="11"/>
-      <c r="M64" t="s">
+      <c r="K68" s="9"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B69" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C69" s="8">
         <v>5</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3">
         <v>10000</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F69" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H65" t="s">
+      <c r="G69" s="3"/>
+      <c r="H69" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I69" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J69" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="M65" t="s">
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B70" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C70" s="9">
         <v>5</v>
       </c>
-      <c r="D66" s="11">
-        <v>1</v>
-      </c>
-      <c r="E66" s="11">
+      <c r="D70" s="9">
+        <v>1</v>
+      </c>
+      <c r="E70" s="9">
         <v>10000</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F70" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11" t="s">
+      <c r="G70" s="9"/>
+      <c r="H70" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I70" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="J66" s="11" t="s">
+      <c r="J70" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K66" s="11"/>
-      <c r="M66" t="s">
+      <c r="K70" s="9"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B71" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C71" s="9">
         <v>5</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D71" s="9">
         <v>4</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E71" s="9">
         <v>50</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F71" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="G67" s="11" t="s">
+      <c r="G71" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="H67" s="11" t="s">
+      <c r="H71" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="I67" s="11" t="s">
+      <c r="I71" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="J67" s="11" t="s">
+      <c r="J71" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="K67" s="11" t="s">
+      <c r="K71" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="M67" t="s">
+      <c r="L71" s="3"/>
+      <c r="M71" s="3" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B72" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="C68" s="11">
-        <v>1</v>
-      </c>
-      <c r="D68" s="11">
-        <v>1</v>
-      </c>
-      <c r="E68" s="11">
+      <c r="C72" s="9">
+        <v>1</v>
+      </c>
+      <c r="D72" s="9">
+        <v>1</v>
+      </c>
+      <c r="E72" s="9">
         <v>10000</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F72" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11" t="s">
+      <c r="G72" s="9"/>
+      <c r="H72" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="I68" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="M68" t="s">
+      <c r="I72" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B73" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C73" s="9">
         <v>2</v>
       </c>
-      <c r="D69" s="11">
-        <v>1</v>
-      </c>
-      <c r="E69" s="11">
+      <c r="D73" s="9">
+        <v>1</v>
+      </c>
+      <c r="E73" s="9">
         <v>10000</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="F73" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11" t="s">
+      <c r="G73" s="9"/>
+      <c r="H73" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="I69" s="11" t="s">
+      <c r="I73" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="J69" s="11" t="s">
+      <c r="J73" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K69" s="11"/>
-      <c r="M69" t="s">
+      <c r="K73" s="9"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B74" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C74" s="9">
         <v>2</v>
       </c>
-      <c r="D70" s="11">
-        <v>1</v>
-      </c>
-      <c r="E70" s="11">
+      <c r="D74" s="9">
+        <v>1</v>
+      </c>
+      <c r="E74" s="9">
         <v>10000</v>
       </c>
-      <c r="F70" s="11" t="s">
+      <c r="F74" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11" t="s">
+      <c r="G74" s="9"/>
+      <c r="H74" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I74" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="J70" s="11" t="s">
+      <c r="J74" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="K70" s="11"/>
-      <c r="M70" t="s">
+      <c r="K74" s="9"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B75" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C75" s="9">
         <v>3</v>
       </c>
-      <c r="D71" s="11">
-        <v>1</v>
-      </c>
-      <c r="E71" s="11">
+      <c r="D75" s="9">
+        <v>1</v>
+      </c>
+      <c r="E75" s="9">
         <v>10000</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F75" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11" t="s">
+      <c r="G75" s="9"/>
+      <c r="H75" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="I71" s="11" t="s">
+      <c r="I75" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="J71" s="11" t="s">
+      <c r="J75" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="K71" s="11"/>
-      <c r="M71" t="s">
+      <c r="K75" s="9"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B76" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="C76" s="8">
+        <v>1</v>
+      </c>
+      <c r="D76" s="8">
+        <v>1</v>
+      </c>
+      <c r="E76" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C77" s="9">
         <v>2</v>
       </c>
-      <c r="D72" s="11">
-        <v>1</v>
-      </c>
-      <c r="E72" s="11">
+      <c r="D77" s="9">
+        <v>1</v>
+      </c>
+      <c r="E77" s="9">
         <v>10000</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F77" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11" t="s">
+      <c r="G77" s="9"/>
+      <c r="H77" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I72" s="11" t="s">
+      <c r="I77" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J72" s="11" t="s">
+      <c r="J77" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="K72" s="11"/>
-      <c r="M72" t="s">
+      <c r="K77" s="9"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B78" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C78" s="9">
         <v>2</v>
       </c>
-      <c r="D73" s="11">
-        <v>1</v>
-      </c>
-      <c r="E73" s="11">
+      <c r="D78" s="9">
+        <v>1</v>
+      </c>
+      <c r="E78" s="9">
         <v>10000</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="F78" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11" t="s">
+      <c r="G78" s="9"/>
+      <c r="H78" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="I73" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J73" s="11" t="s">
+      <c r="I78" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J78" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="K73" s="11"/>
-      <c r="M73" t="s">
+      <c r="K78" s="9"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B79" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C79" s="9">
         <v>2</v>
       </c>
-      <c r="D74" s="11">
-        <v>1</v>
-      </c>
-      <c r="E74" s="11">
+      <c r="D79" s="9">
+        <v>1</v>
+      </c>
+      <c r="E79" s="9">
         <v>10000</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="F79" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11" t="s">
+      <c r="G79" s="9"/>
+      <c r="H79" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I74" s="11" t="s">
+      <c r="I79" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J74" s="11" t="s">
+      <c r="J79" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="K74" s="11"/>
-      <c r="M74" t="s">
+      <c r="K79" s="9"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B80" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C80" s="9">
         <v>2</v>
       </c>
-      <c r="D75" s="11">
-        <v>1</v>
-      </c>
-      <c r="E75" s="11">
+      <c r="D80" s="9">
+        <v>1</v>
+      </c>
+      <c r="E80" s="9">
         <v>10000</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="F80" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11" t="s">
+      <c r="G80" s="9"/>
+      <c r="H80" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="I75" s="11" t="s">
+      <c r="I80" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J75" s="11" t="s">
+      <c r="J80" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="K75" s="11"/>
-      <c r="M75" t="s">
+      <c r="K80" s="9"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="C81" s="8">
+        <v>2</v>
+      </c>
+      <c r="D81" s="8">
+        <v>1</v>
+      </c>
+      <c r="E81" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="C82" s="8">
+        <v>3</v>
+      </c>
+      <c r="D82" s="8">
+        <v>3</v>
+      </c>
+      <c r="E82" s="8">
+        <v>250</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B83" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C83" s="9">
         <v>2</v>
       </c>
-      <c r="D76" s="11">
-        <v>1</v>
-      </c>
-      <c r="E76" s="11">
+      <c r="D83" s="9">
+        <v>1</v>
+      </c>
+      <c r="E83" s="9">
         <v>10000</v>
       </c>
-      <c r="F76" s="11" t="s">
+      <c r="F83" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11" t="s">
+      <c r="G83" s="9"/>
+      <c r="H83" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="I76" s="11" t="s">
+      <c r="I83" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J76" s="11" t="s">
+      <c r="J83" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K76" s="11"/>
-      <c r="M76" t="s">
+      <c r="K83" s="9"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B84" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C84" s="9">
         <v>3</v>
       </c>
-      <c r="D77" s="11">
-        <v>1</v>
-      </c>
-      <c r="E77" s="11">
+      <c r="D84" s="9">
+        <v>1</v>
+      </c>
+      <c r="E84" s="9">
         <v>10000</v>
       </c>
-      <c r="F77" s="11" t="s">
+      <c r="F84" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11" t="s">
+      <c r="G84" s="9"/>
+      <c r="H84" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I77" s="11" t="s">
+      <c r="I84" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J77" s="11" t="s">
+      <c r="J84" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K77" s="11"/>
-      <c r="M77" t="s">
+      <c r="K84" s="9"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B85" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C85" s="9">
         <v>4</v>
       </c>
-      <c r="D78" s="11">
-        <v>1</v>
-      </c>
-      <c r="E78" s="11">
+      <c r="D85" s="9">
+        <v>1</v>
+      </c>
+      <c r="E85" s="9">
         <v>10000</v>
       </c>
-      <c r="F78" s="11" t="s">
+      <c r="F85" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11" t="s">
+      <c r="G85" s="9"/>
+      <c r="H85" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="I78" s="11" t="s">
+      <c r="I85" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J78" s="11" t="s">
+      <c r="J85" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K78" s="11" t="s">
+      <c r="K85" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="M78" t="s">
+      <c r="L85" s="3"/>
+      <c r="M85" s="3" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B86" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C86" s="9">
         <v>4</v>
       </c>
-      <c r="D79" s="11">
-        <v>1</v>
-      </c>
-      <c r="E79" s="11">
+      <c r="D86" s="9">
+        <v>1</v>
+      </c>
+      <c r="E86" s="9">
         <v>10000</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="F86" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11" t="s">
+      <c r="G86" s="9"/>
+      <c r="H86" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="I79" s="11" t="s">
+      <c r="I86" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="J79" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K79" s="11"/>
-      <c r="M79" t="s">
+      <c r="J86" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K86" s="9"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="C87" s="8">
+        <v>4</v>
+      </c>
+      <c r="D87" s="8">
+        <v>3</v>
+      </c>
+      <c r="E87" s="8">
+        <v>250</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B88" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C88" s="9">
         <v>2</v>
       </c>
-      <c r="D80" s="11">
-        <v>1</v>
-      </c>
-      <c r="E80" s="11">
+      <c r="D88" s="9">
+        <v>1</v>
+      </c>
+      <c r="E88" s="9">
         <v>10000</v>
       </c>
-      <c r="F80" s="11" t="s">
+      <c r="F88" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G80" s="11" t="s">
+      <c r="G88" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H80" s="11" t="s">
+      <c r="H88" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I80" s="11" t="s">
+      <c r="I88" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="J80" s="11" t="s">
+      <c r="J88" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K80" s="11"/>
-      <c r="M80" t="s">
+      <c r="K88" s="9"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3" t="s">
         <v>637</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>734</v>
-      </c>
-      <c r="B81" t="s">
-        <v>737</v>
-      </c>
-      <c r="C81" s="11">
-        <v>3</v>
-      </c>
-      <c r="D81" s="11">
-        <v>1</v>
-      </c>
-      <c r="E81" s="11">
-        <v>10000</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="J81" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K81" s="11"/>
-      <c r="M81" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>734</v>
-      </c>
-      <c r="B82" t="s">
-        <v>735</v>
-      </c>
-      <c r="C82" s="11">
-        <v>4</v>
-      </c>
-      <c r="D82" s="11">
-        <v>1</v>
-      </c>
-      <c r="E82" s="11">
-        <v>10000</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="I82" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="J82" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="K82" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="M82" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>734</v>
-      </c>
-      <c r="B83" t="s">
-        <v>738</v>
-      </c>
-      <c r="C83" s="11">
-        <v>4</v>
-      </c>
-      <c r="D83" s="11">
-        <v>1</v>
-      </c>
-      <c r="E83" s="11">
-        <v>10000</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="J83" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K83" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="M83" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>742</v>
-      </c>
-      <c r="B84" t="s">
-        <v>745</v>
-      </c>
-      <c r="C84" s="11">
-        <v>1</v>
-      </c>
-      <c r="D84" s="11">
-        <v>4</v>
-      </c>
-      <c r="E84" s="11">
-        <v>50</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J84" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="K84" s="11"/>
-      <c r="M84" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>742</v>
-      </c>
-      <c r="B85" t="s">
-        <v>743</v>
-      </c>
-      <c r="C85" s="11">
-        <v>2</v>
-      </c>
-      <c r="D85" s="11">
-        <v>1</v>
-      </c>
-      <c r="E85" s="11">
-        <v>10000</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="J85" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K85" s="11"/>
-      <c r="M85" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>742</v>
-      </c>
-      <c r="B86" t="s">
-        <v>748</v>
-      </c>
-      <c r="C86" s="11">
-        <v>2</v>
-      </c>
-      <c r="D86" s="11">
-        <v>4</v>
-      </c>
-      <c r="E86" s="11">
-        <v>50</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>749</v>
-      </c>
-      <c r="J86" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="K86" s="11"/>
-      <c r="M86" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>742</v>
-      </c>
-      <c r="B87" t="s">
-        <v>750</v>
-      </c>
-      <c r="C87" s="11">
-        <v>2</v>
-      </c>
-      <c r="D87" s="11">
-        <v>4</v>
-      </c>
-      <c r="E87" s="11">
-        <v>50</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" s="11" t="s">
-        <v>749</v>
-      </c>
-      <c r="J87" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="K87" s="11"/>
-      <c r="M87" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>742</v>
-      </c>
-      <c r="B88" t="s">
-        <v>751</v>
-      </c>
-      <c r="C88" s="11">
-        <v>2</v>
-      </c>
-      <c r="D88" s="11">
-        <v>4</v>
-      </c>
-      <c r="E88" s="11">
-        <v>50</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I88" s="11" t="s">
-        <v>749</v>
-      </c>
-      <c r="J88" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="K88" s="11"/>
-      <c r="M88" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="C89" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E89" s="9">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G89" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="H89" s="9" t="s">
-        <v>13</v>
+        <v>454</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>749</v>
+        <v>386</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>447</v>
+        <v>37</v>
       </c>
       <c r="K89" s="9"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3" t="s">
-        <v>713</v>
+        <v>740</v>
       </c>
       <c r="N89" s="3"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="C90" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90" s="9">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="9" t="s">
-        <v>4</v>
+        <v>371</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>6</v>
+        <v>389</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="K90" s="9"/>
+        <v>388</v>
+      </c>
+      <c r="K90" s="9" t="s">
+        <v>441</v>
+      </c>
       <c r="L90" s="3"/>
       <c r="M90" s="3" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="N90" s="3"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="C91" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" s="9">
         <v>1</v>
@@ -8894,22 +9048,24 @@
         <v>10000</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>344</v>
+        <v>39</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="K91" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="K91" s="9" t="s">
+        <v>452</v>
+      </c>
       <c r="L91" s="3"/>
       <c r="M91" s="3" t="s">
-        <v>709</v>
+        <v>741</v>
       </c>
       <c r="N91" s="3"/>
     </row>
@@ -8918,10 +9074,10 @@
         <v>742</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="C92" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D92" s="9">
         <v>4</v>
@@ -8930,579 +9086,604 @@
         <v>50</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="9" t="s">
-        <v>456</v>
+        <v>30</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>458</v>
+        <v>363</v>
       </c>
       <c r="K92" s="9"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="N92" s="3"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="C93" s="9">
-        <v>5</v>
-      </c>
-      <c r="D93" s="9">
-        <v>1</v>
-      </c>
-      <c r="E93" s="9">
+      <c r="B93" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="C93" s="8">
+        <v>1</v>
+      </c>
+      <c r="D93" s="8">
+        <v>1</v>
+      </c>
+      <c r="E93" s="8">
         <v>10000</v>
       </c>
-      <c r="F93" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="I93" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
+      <c r="F93" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3" t="s">
-        <v>624</v>
+        <v>720</v>
       </c>
       <c r="N93" s="3"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="C94" s="3">
-        <v>1</v>
-      </c>
-      <c r="D94" s="4">
-        <v>1</v>
-      </c>
-      <c r="E94" s="4">
+      <c r="A94" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="C94" s="9">
+        <v>2</v>
+      </c>
+      <c r="D94" s="9">
+        <v>1</v>
+      </c>
+      <c r="E94" s="9">
         <v>10000</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="K94" s="3"/>
+      <c r="F94" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9" t="s">
+        <v>907</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="9"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
       <c r="N94" s="3"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="C95" s="3">
-        <v>1</v>
-      </c>
-      <c r="D95" s="4">
-        <v>1</v>
-      </c>
-      <c r="E95" s="4">
-        <v>10000</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="K95" s="3"/>
+      <c r="A95" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C95" s="9">
+        <v>2</v>
+      </c>
+      <c r="D95" s="9">
+        <v>4</v>
+      </c>
+      <c r="E95" s="9">
+        <v>50</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="K95" s="9"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="N95" s="3"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="C96" s="3">
-        <v>1</v>
-      </c>
-      <c r="D96" s="4">
-        <v>1</v>
-      </c>
-      <c r="E96" s="4">
-        <v>10000</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K96" s="3"/>
+      <c r="A96" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="C96" s="9">
+        <v>2</v>
+      </c>
+      <c r="D96" s="9">
+        <v>4</v>
+      </c>
+      <c r="E96" s="9">
+        <v>50</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="K96" s="9"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="N96" s="3"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>755</v>
-      </c>
-      <c r="B97" t="s">
-        <v>757</v>
-      </c>
-      <c r="C97">
+      <c r="A97" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C97" s="9">
         <v>2</v>
       </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
-        <v>10000</v>
-      </c>
-      <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="H97" t="s">
-        <v>9</v>
-      </c>
-      <c r="I97" t="s">
-        <v>346</v>
-      </c>
-      <c r="J97" t="s">
-        <v>371</v>
-      </c>
-      <c r="M97" t="s">
-        <v>709</v>
+      <c r="D97" s="9">
+        <v>4</v>
+      </c>
+      <c r="E97" s="9">
+        <v>50</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="K97" s="9"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>755</v>
-      </c>
-      <c r="B98" t="s">
-        <v>756</v>
-      </c>
-      <c r="C98" s="11">
-        <v>3</v>
-      </c>
-      <c r="D98" s="11">
-        <v>1</v>
-      </c>
-      <c r="E98" s="11">
-        <v>10000</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I98" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="M98" t="s">
-        <v>670</v>
+      <c r="A98" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C98" s="9">
+        <v>2</v>
+      </c>
+      <c r="D98" s="9">
+        <v>4</v>
+      </c>
+      <c r="E98" s="9">
+        <v>50</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="K98" s="9"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3" t="s">
+        <v>713</v>
       </c>
       <c r="N98" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="C99" s="9">
+        <v>2</v>
+      </c>
+      <c r="D99" s="9">
+        <v>2</v>
+      </c>
+      <c r="E99" s="9">
+        <v>2500</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="K99" s="9"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="C100" s="8">
+        <v>2</v>
+      </c>
+      <c r="D100" s="8">
+        <v>4</v>
+      </c>
+      <c r="E100" s="8">
+        <v>50</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="C101" s="9">
+        <v>3</v>
+      </c>
+      <c r="D101" s="9">
+        <v>1</v>
+      </c>
+      <c r="E101" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="K101" s="9"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C102" s="9">
+        <v>4</v>
+      </c>
+      <c r="D102" s="9">
+        <v>4</v>
+      </c>
+      <c r="E102" s="9">
+        <v>50</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="K102" s="9"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="C103" s="8">
+        <v>4</v>
+      </c>
+      <c r="D103" s="8">
+        <v>4</v>
+      </c>
+      <c r="E103" s="8">
+        <v>50</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="4" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="C104" s="9">
+        <v>5</v>
+      </c>
+      <c r="D104" s="9">
+        <v>1</v>
+      </c>
+      <c r="E104" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="B99" t="s">
-        <v>758</v>
-      </c>
-      <c r="C99">
-        <v>3</v>
-      </c>
-      <c r="D99">
-        <v>3</v>
-      </c>
-      <c r="E99">
-        <v>250</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="B105" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="C105" s="3">
+        <v>1</v>
+      </c>
+      <c r="D105" s="4">
+        <v>1</v>
+      </c>
+      <c r="E105" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G99" t="s">
-        <v>474</v>
-      </c>
-      <c r="H99" t="s">
-        <v>35</v>
-      </c>
-      <c r="I99" t="s">
+      <c r="G105" s="3"/>
+      <c r="H105" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I105" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M99" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="J105" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="B100" t="s">
-        <v>759</v>
-      </c>
-      <c r="C100">
-        <v>3</v>
-      </c>
-      <c r="D100">
-        <v>3</v>
-      </c>
-      <c r="E100">
-        <v>250</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="B106" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="C106" s="3">
+        <v>1</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1</v>
+      </c>
+      <c r="E106" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G100" t="s">
-        <v>472</v>
-      </c>
-      <c r="H100" t="s">
-        <v>37</v>
-      </c>
-      <c r="I100" t="s">
+      <c r="G106" s="3"/>
+      <c r="H106" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="C107" s="3">
+        <v>1</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1</v>
+      </c>
+      <c r="E107" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="M100" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="I107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="B101" t="s">
-        <v>760</v>
-      </c>
-      <c r="C101">
-        <v>3</v>
-      </c>
-      <c r="D101">
-        <v>3</v>
-      </c>
-      <c r="E101">
-        <v>250</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="B108" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="C108" s="3">
+        <v>2</v>
+      </c>
+      <c r="D108" s="3">
+        <v>1</v>
+      </c>
+      <c r="E108" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F108" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="G101" t="s">
-        <v>473</v>
-      </c>
-      <c r="H101" t="s">
-        <v>345</v>
-      </c>
-      <c r="I101" t="s">
-        <v>1</v>
-      </c>
-      <c r="M101" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>755</v>
-      </c>
-      <c r="B102" t="s">
-        <v>761</v>
-      </c>
-      <c r="C102">
-        <v>3</v>
-      </c>
-      <c r="D102">
-        <v>3</v>
-      </c>
-      <c r="E102">
-        <v>250</v>
-      </c>
-      <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>471</v>
-      </c>
-      <c r="H102" t="s">
-        <v>39</v>
-      </c>
-      <c r="I102" t="s">
-        <v>28</v>
-      </c>
-      <c r="M102" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>762</v>
-      </c>
-      <c r="B103" t="s">
-        <v>763</v>
-      </c>
-      <c r="C103">
-        <v>2</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103">
-        <v>10000</v>
-      </c>
-      <c r="F103" t="s">
-        <v>627</v>
-      </c>
-      <c r="H103" t="s">
-        <v>11</v>
-      </c>
-      <c r="I103" t="s">
-        <v>349</v>
-      </c>
-      <c r="J103" t="s">
-        <v>485</v>
-      </c>
-      <c r="K103" t="s">
-        <v>484</v>
-      </c>
-      <c r="M103" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>762</v>
-      </c>
-      <c r="B104" t="s">
-        <v>765</v>
-      </c>
-      <c r="C104">
-        <v>2</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="E104">
-        <v>10000</v>
-      </c>
-      <c r="F104" t="s">
-        <v>635</v>
-      </c>
-      <c r="H104" t="s">
-        <v>351</v>
-      </c>
-      <c r="I104" t="s">
-        <v>485</v>
-      </c>
-      <c r="J104" t="s">
-        <v>23</v>
-      </c>
-      <c r="K104" t="s">
-        <v>486</v>
-      </c>
-      <c r="M104" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>762</v>
-      </c>
-      <c r="B105" t="s">
-        <v>766</v>
-      </c>
-      <c r="C105">
-        <v>2</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="E105">
-        <v>10000</v>
-      </c>
-      <c r="F105" t="s">
-        <v>621</v>
-      </c>
-      <c r="H105" t="s">
-        <v>11</v>
-      </c>
-      <c r="I105" t="s">
-        <v>448</v>
-      </c>
-      <c r="J105" t="s">
-        <v>13</v>
-      </c>
-      <c r="K105" t="s">
-        <v>487</v>
-      </c>
-      <c r="M105" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>762</v>
-      </c>
-      <c r="B106" t="s">
-        <v>767</v>
-      </c>
-      <c r="C106">
-        <v>2</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-      <c r="E106">
-        <v>10000</v>
-      </c>
-      <c r="F106" t="s">
-        <v>636</v>
-      </c>
-      <c r="H106" t="s">
-        <v>33</v>
-      </c>
-      <c r="I106" t="s">
-        <v>10</v>
-      </c>
-      <c r="J106" t="s">
-        <v>446</v>
-      </c>
-      <c r="K106" t="s">
-        <v>488</v>
-      </c>
-      <c r="M106" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>762</v>
-      </c>
-      <c r="B107" t="s">
-        <v>764</v>
-      </c>
-      <c r="C107">
-        <v>3</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107">
-        <v>10000</v>
-      </c>
-      <c r="F107" t="s">
-        <v>684</v>
-      </c>
-      <c r="H107" t="s">
-        <v>357</v>
-      </c>
-      <c r="I107" t="s">
-        <v>38</v>
-      </c>
-      <c r="J107" t="s">
-        <v>485</v>
-      </c>
-      <c r="M107" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="C108" s="8">
-        <v>3</v>
-      </c>
-      <c r="D108" s="9">
-        <v>1</v>
-      </c>
-      <c r="E108" s="9">
-        <v>10000</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>635</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>409</v>
+        <v>346</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="C109" s="8">
+      <c r="A109" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="C109" s="9">
         <v>3</v>
       </c>
       <c r="D109" s="9">
@@ -9511,330 +9692,353 @@
       <c r="E109" s="9">
         <v>10000</v>
       </c>
-      <c r="F109" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="K109" s="3"/>
+      <c r="F109" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
       <c r="L109" s="3"/>
       <c r="M109" s="3" t="s">
-        <v>713</v>
+        <v>670</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>848</v>
-      </c>
-      <c r="C110" s="8">
+      <c r="A110" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="C110" s="3">
         <v>3</v>
       </c>
-      <c r="D110" s="9">
-        <v>1</v>
-      </c>
-      <c r="E110" s="9">
-        <v>10000</v>
+      <c r="D110" s="3">
+        <v>3</v>
+      </c>
+      <c r="E110" s="3">
+        <v>250</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="G110" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>474</v>
+      </c>
       <c r="H110" s="3" t="s">
-        <v>749</v>
+        <v>35</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>863</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3" t="s">
-        <v>713</v>
+        <v>670</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="C111" s="3">
+        <v>3</v>
+      </c>
+      <c r="D111" s="3">
+        <v>3</v>
+      </c>
+      <c r="E111" s="3">
+        <v>250</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C112" s="3">
+        <v>3</v>
+      </c>
+      <c r="D112" s="3">
+        <v>3</v>
+      </c>
+      <c r="E112" s="3">
+        <v>250</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C113" s="3">
+        <v>3</v>
+      </c>
+      <c r="D113" s="3">
+        <v>3</v>
+      </c>
+      <c r="E113" s="3">
+        <v>250</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="B111" t="s">
-        <v>768</v>
-      </c>
-      <c r="C111">
-        <v>4</v>
-      </c>
-      <c r="D111">
-        <v>4</v>
-      </c>
-      <c r="E111">
-        <v>50</v>
-      </c>
-      <c r="F111" t="s">
-        <v>636</v>
-      </c>
-      <c r="H111" t="s">
-        <v>408</v>
-      </c>
-      <c r="I111" t="s">
-        <v>477</v>
-      </c>
-      <c r="J111" t="s">
-        <v>483</v>
-      </c>
-      <c r="M111" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="B114" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C114" s="3">
+        <v>2</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1</v>
+      </c>
+      <c r="E114" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="B112" t="s">
-        <v>770</v>
-      </c>
-      <c r="C112">
-        <v>4</v>
-      </c>
-      <c r="D112">
-        <v>4</v>
-      </c>
-      <c r="E112">
-        <v>50</v>
-      </c>
-      <c r="F112" t="s">
-        <v>627</v>
-      </c>
-      <c r="H112" t="s">
-        <v>407</v>
-      </c>
-      <c r="I112" t="s">
-        <v>475</v>
-      </c>
-      <c r="J112" t="s">
-        <v>483</v>
-      </c>
-      <c r="M112" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>762</v>
-      </c>
-      <c r="B113" t="s">
-        <v>771</v>
-      </c>
-      <c r="C113">
-        <v>4</v>
-      </c>
-      <c r="D113">
-        <v>4</v>
-      </c>
-      <c r="E113">
-        <v>50</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="B115" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="C115" s="3">
+        <v>2</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1</v>
+      </c>
+      <c r="E115" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F115" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="H113" t="s">
-        <v>409</v>
-      </c>
-      <c r="I113" t="s">
-        <v>478</v>
-      </c>
-      <c r="J113" t="s">
-        <v>483</v>
-      </c>
-      <c r="M113" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>762</v>
-      </c>
-      <c r="B114" t="s">
-        <v>772</v>
-      </c>
-      <c r="C114">
-        <v>4</v>
-      </c>
-      <c r="D114">
-        <v>4</v>
-      </c>
-      <c r="E114">
-        <v>50</v>
-      </c>
-      <c r="F114" t="s">
-        <v>621</v>
-      </c>
-      <c r="H114" t="s">
-        <v>410</v>
-      </c>
-      <c r="I114" t="s">
-        <v>476</v>
-      </c>
-      <c r="J114" t="s">
-        <v>483</v>
-      </c>
-      <c r="M114" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>773</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="C115" s="6">
-        <v>1</v>
-      </c>
-      <c r="D115" s="6">
-        <v>1</v>
-      </c>
-      <c r="E115" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F115" t="s">
-        <v>636</v>
-      </c>
-      <c r="H115" t="s">
-        <v>13</v>
-      </c>
-      <c r="I115" t="s">
-        <v>489</v>
-      </c>
-      <c r="J115" t="s">
+      <c r="G115" s="3"/>
+      <c r="H115" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I115" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="M115" t="s">
-        <v>782</v>
+      <c r="J115" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="C116" s="8">
-        <v>1</v>
-      </c>
-      <c r="D116" s="8">
-        <v>1</v>
-      </c>
-      <c r="E116" s="8">
+        <v>762</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C116" s="3">
+        <v>2</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1</v>
+      </c>
+      <c r="E116" s="3">
         <v>10000</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3" t="s">
-        <v>357</v>
+        <v>11</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
+        <v>448</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>487</v>
+      </c>
       <c r="L116" s="3"/>
       <c r="M116" s="3" t="s">
-        <v>692</v>
+        <v>740</v>
       </c>
       <c r="N116" s="3"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="C117" s="8">
+      <c r="A117" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="C117" s="3">
         <v>2</v>
       </c>
-      <c r="D117" s="9">
-        <v>1</v>
-      </c>
-      <c r="E117" s="9">
+      <c r="D117" s="3">
+        <v>1</v>
+      </c>
+      <c r="E117" s="3">
         <v>10000</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>684</v>
+        <v>636</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3" t="s">
-        <v>783</v>
+        <v>33</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>4</v>
+        <v>446</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L117" s="3" t="s">
-        <v>858</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="L117" s="3"/>
       <c r="M117" s="3" t="s">
-        <v>784</v>
+        <v>713</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>773</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="C118" s="6">
+      <c r="A118" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="C118" s="3">
         <v>3</v>
       </c>
-      <c r="D118" s="6">
-        <v>1</v>
-      </c>
-      <c r="E118" s="6">
+      <c r="D118" s="3">
+        <v>1</v>
+      </c>
+      <c r="E118" s="3">
         <v>10000</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="H118" t="s">
-        <v>394</v>
-      </c>
-      <c r="I118" t="s">
-        <v>775</v>
-      </c>
-      <c r="M118" t="s">
+      <c r="G118" s="3"/>
+      <c r="H118" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C119" s="8">
         <v>3</v>
@@ -9845,599 +10049,815 @@
       <c r="E119" s="9">
         <v>10000</v>
       </c>
-      <c r="F119" t="s">
-        <v>872</v>
+      <c r="F119" s="3" t="s">
+        <v>635</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3" t="s">
-        <v>859</v>
+        <v>27</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>860</v>
+        <v>409</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>862</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="K119" s="3"/>
       <c r="L119" s="3"/>
       <c r="M119" s="3" t="s">
-        <v>784</v>
+        <v>713</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>773</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="C120" s="6">
+      <c r="A120" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="C120" s="8">
+        <v>3</v>
+      </c>
+      <c r="D120" s="9">
+        <v>1</v>
+      </c>
+      <c r="E120" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="C121" s="8">
+        <v>3</v>
+      </c>
+      <c r="D121" s="9">
+        <v>1</v>
+      </c>
+      <c r="E121" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C122" s="3">
         <v>4</v>
       </c>
-      <c r="D120" s="6">
+      <c r="D122" s="3">
         <v>4</v>
       </c>
-      <c r="E120" s="6">
+      <c r="E122" s="3">
         <v>50</v>
       </c>
-      <c r="F120" t="s">
-        <v>403</v>
-      </c>
-      <c r="H120" t="s">
-        <v>783</v>
-      </c>
-      <c r="I120" t="s">
-        <v>435</v>
-      </c>
-      <c r="J120" t="s">
-        <v>476</v>
-      </c>
-      <c r="M120" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>773</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="C121" s="6">
+      <c r="F122" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="C123" s="3">
         <v>4</v>
       </c>
-      <c r="D121" s="6">
+      <c r="D123" s="3">
         <v>4</v>
       </c>
-      <c r="E121" s="6">
+      <c r="E123" s="3">
         <v>50</v>
       </c>
-      <c r="F121" t="s">
-        <v>402</v>
-      </c>
-      <c r="H121" t="s">
-        <v>783</v>
-      </c>
-      <c r="I121" t="s">
-        <v>435</v>
-      </c>
-      <c r="J121" t="s">
-        <v>477</v>
-      </c>
-      <c r="M121" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>773</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="C122" s="6">
+      <c r="F123" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="C124" s="3">
         <v>4</v>
       </c>
-      <c r="D122" s="6">
+      <c r="D124" s="3">
         <v>4</v>
       </c>
-      <c r="E122" s="6">
+      <c r="E124" s="3">
         <v>50</v>
       </c>
-      <c r="F122" t="s">
-        <v>392</v>
-      </c>
-      <c r="H122" t="s">
-        <v>783</v>
-      </c>
-      <c r="I122" t="s">
-        <v>435</v>
-      </c>
-      <c r="J122" t="s">
-        <v>475</v>
-      </c>
-      <c r="M122" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>773</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="C123" s="6">
-        <v>4</v>
-      </c>
-      <c r="D123" s="6">
-        <v>4</v>
-      </c>
-      <c r="E123" s="6">
-        <v>50</v>
-      </c>
-      <c r="F123" t="s">
-        <v>404</v>
-      </c>
-      <c r="H123" t="s">
-        <v>783</v>
-      </c>
-      <c r="I123" t="s">
-        <v>435</v>
-      </c>
-      <c r="J123" t="s">
-        <v>478</v>
-      </c>
-      <c r="M123" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>844</v>
-      </c>
-      <c r="C124" s="8">
-        <v>2</v>
-      </c>
-      <c r="D124" s="9">
-        <v>1</v>
-      </c>
-      <c r="E124" s="9">
-        <v>10000</v>
-      </c>
       <c r="F124" s="3" t="s">
-        <v>24</v>
+        <v>635</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>344</v>
+        <v>478</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>20</v>
+        <v>483</v>
       </c>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
       <c r="M124" s="3" t="s">
-        <v>720</v>
+        <v>769</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>841</v>
-      </c>
-      <c r="C125" s="10">
+      <c r="A125" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C125" s="3">
         <v>4</v>
       </c>
-      <c r="D125" s="12">
-        <v>1</v>
-      </c>
-      <c r="E125" s="12">
+      <c r="D125" s="3">
+        <v>4</v>
+      </c>
+      <c r="E125" s="3">
+        <v>50</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="C126" s="8">
+        <v>1</v>
+      </c>
+      <c r="D126" s="8">
+        <v>1</v>
+      </c>
+      <c r="E126" s="8">
         <v>10000</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="C126" s="6">
-        <v>4</v>
-      </c>
-      <c r="D126" s="6">
-        <v>3</v>
-      </c>
-      <c r="E126" s="6">
-        <v>250</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="I126" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="J126" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="K126" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="M126" s="4" t="s">
-        <v>713</v>
+      <c r="F126" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>898</v>
-      </c>
-      <c r="C127" s="6">
-        <v>4</v>
-      </c>
-      <c r="D127" s="6">
-        <v>4</v>
-      </c>
-      <c r="E127" s="6">
-        <v>50</v>
-      </c>
-      <c r="F127" t="s">
-        <v>369</v>
-      </c>
-      <c r="H127" t="s">
-        <v>34</v>
-      </c>
-      <c r="I127" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="J127" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="M127" s="4" t="s">
-        <v>885</v>
+      <c r="A127" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="C127" s="8">
+        <v>1</v>
+      </c>
+      <c r="D127" s="8">
+        <v>1</v>
+      </c>
+      <c r="E127" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>897</v>
-      </c>
-      <c r="C128" s="6">
-        <v>1</v>
-      </c>
-      <c r="D128" s="6">
-        <v>1</v>
-      </c>
-      <c r="E128" s="6">
+        <v>773</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="C128" s="8">
+        <v>2</v>
+      </c>
+      <c r="D128" s="9">
+        <v>1</v>
+      </c>
+      <c r="E128" s="9">
         <v>10000</v>
       </c>
-      <c r="F128" t="s">
-        <v>358</v>
-      </c>
-      <c r="H128" t="s">
-        <v>371</v>
-      </c>
-      <c r="I128" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M128" t="s">
-        <v>886</v>
+      <c r="F128" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="M128" s="3" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="C129" s="6">
-        <v>2</v>
-      </c>
-      <c r="D129" s="6">
-        <v>4</v>
-      </c>
-      <c r="E129" s="6">
-        <v>50</v>
-      </c>
-      <c r="F129" t="s">
-        <v>34</v>
-      </c>
-      <c r="H129" t="s">
-        <v>34</v>
-      </c>
-      <c r="M129" t="s">
-        <v>720</v>
+      <c r="A129" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="C129" s="8">
+        <v>3</v>
+      </c>
+      <c r="D129" s="8">
+        <v>1</v>
+      </c>
+      <c r="E129" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>896</v>
-      </c>
-      <c r="C130" s="6">
-        <v>2</v>
-      </c>
-      <c r="D130" s="6">
-        <v>1</v>
-      </c>
-      <c r="E130" s="6">
+        <v>773</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="C130" s="8">
+        <v>3</v>
+      </c>
+      <c r="D130" s="9">
+        <v>1</v>
+      </c>
+      <c r="E130" s="9">
         <v>10000</v>
       </c>
-      <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="I130" t="s">
-        <v>2</v>
-      </c>
-      <c r="J130" t="s">
-        <v>389</v>
-      </c>
-      <c r="M130" t="s">
-        <v>709</v>
+      <c r="F130" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="C131" s="6">
-        <v>3</v>
-      </c>
-      <c r="D131" s="6">
-        <v>3</v>
-      </c>
-      <c r="E131" s="6">
-        <v>250</v>
-      </c>
-      <c r="F131" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" t="s">
-        <v>5</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>887</v>
-      </c>
-      <c r="I131" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J131" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K131" t="s">
-        <v>6</v>
-      </c>
-      <c r="M131" t="s">
-        <v>888</v>
+      <c r="A131" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="C131" s="8">
+        <v>4</v>
+      </c>
+      <c r="D131" s="8">
+        <v>4</v>
+      </c>
+      <c r="E131" s="8">
+        <v>50</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="C132" s="6">
+      <c r="A132" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="C132" s="8">
         <v>4</v>
       </c>
-      <c r="D132" s="6">
-        <v>3</v>
-      </c>
-      <c r="E132" s="6">
-        <v>250</v>
-      </c>
-      <c r="F132" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" t="s">
-        <v>5</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="I132" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="J132" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K132" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="M132" t="s">
-        <v>888</v>
+      <c r="D132" s="8">
+        <v>4</v>
+      </c>
+      <c r="E132" s="8">
+        <v>50</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="C133" s="6">
-        <v>2</v>
-      </c>
-      <c r="D133" s="6">
-        <v>1</v>
-      </c>
-      <c r="E133" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F133" t="s">
-        <v>15</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="I133" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J133" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="M133" t="s">
-        <v>637</v>
+      <c r="A133" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="C133" s="8">
+        <v>4</v>
+      </c>
+      <c r="D133" s="8">
+        <v>4</v>
+      </c>
+      <c r="E133" s="8">
+        <v>50</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="C134" s="6">
-        <v>1</v>
-      </c>
-      <c r="D134" s="6">
-        <v>1</v>
-      </c>
-      <c r="E134" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" t="s">
-        <v>2</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I134" s="4" t="s">
-        <v>890</v>
-      </c>
-      <c r="J134" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M134" t="s">
-        <v>891</v>
+      <c r="A134" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="C134" s="8">
+        <v>4</v>
+      </c>
+      <c r="D134" s="8">
+        <v>4</v>
+      </c>
+      <c r="E134" s="8">
+        <v>50</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+      <c r="M134" s="3" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="C135" s="6">
-        <v>1</v>
-      </c>
-      <c r="D135" s="6">
-        <v>1</v>
-      </c>
-      <c r="E135" s="6">
+        <v>843</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="C135" s="8">
+        <v>2</v>
+      </c>
+      <c r="D135" s="9">
+        <v>1</v>
+      </c>
+      <c r="E135" s="9">
         <v>10000</v>
       </c>
-      <c r="F135" t="s">
-        <v>899</v>
-      </c>
-      <c r="H135" t="s">
-        <v>13</v>
-      </c>
-      <c r="I135" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="J135" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="M135" t="s">
+      <c r="F135" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
+      <c r="M135" s="3" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>902</v>
-      </c>
-      <c r="C136" s="6">
-        <v>2</v>
-      </c>
-      <c r="D136" s="6">
+        <v>843</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="C136" s="8">
         <v>4</v>
       </c>
-      <c r="E136" s="6">
+      <c r="D136" s="9">
+        <v>1</v>
+      </c>
+      <c r="E136" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
+      <c r="M136" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="C137" s="9">
+        <v>5</v>
+      </c>
+      <c r="D137" s="9">
+        <v>4</v>
+      </c>
+      <c r="E137" s="9">
+        <v>1</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G137" s="3"/>
+      <c r="H137" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="L137" s="4"/>
+      <c r="M137" s="4" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="C138" s="9">
+        <v>5</v>
+      </c>
+      <c r="D138" s="9">
+        <v>4</v>
+      </c>
+      <c r="E138" s="9">
         <v>50</v>
       </c>
-      <c r="F136" t="s">
-        <v>903</v>
-      </c>
-      <c r="H136" t="s">
-        <v>445</v>
-      </c>
-      <c r="I136" t="s">
-        <v>440</v>
-      </c>
-      <c r="J136" t="s">
-        <v>443</v>
-      </c>
-      <c r="K136" t="s">
-        <v>441</v>
-      </c>
-      <c r="L136" t="s">
-        <v>427</v>
-      </c>
-      <c r="M136" t="s">
-        <v>853</v>
+      <c r="F138" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="G138" s="3"/>
+      <c r="H138" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="L138" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="M138" s="4" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="C139" s="9">
+        <v>5</v>
+      </c>
+      <c r="D139" s="9">
+        <v>4</v>
+      </c>
+      <c r="E139" s="9">
+        <v>50</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="G139" s="3"/>
+      <c r="H139" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L139" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="M139" s="4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="C140" s="9">
+        <v>5</v>
+      </c>
+      <c r="D140" s="9">
+        <v>4</v>
+      </c>
+      <c r="E140" s="9">
+        <v>50</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="G140" s="3"/>
+      <c r="H140" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="L140" s="3"/>
+      <c r="M140" s="4" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>914</v>
+      </c>
+      <c r="C141" s="2">
+        <v>1</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1</v>
+      </c>
+      <c r="E141" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="5" t="s">
+        <v>709</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N125">
-    <sortCondition ref="A2:A125"/>
-    <sortCondition ref="C2:C125"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M136">
+    <sortCondition ref="A2:A136"/>
+    <sortCondition ref="C2:C136"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10451,7 +10871,7 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -11134,7 +11554,7 @@
   </sheetPr>
   <dimension ref="A1:A284"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A250" workbookViewId="0">
       <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FA4B78-950D-4781-853D-C2A68352655D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241832F4-4F02-484B-9EFA-FE2189EB8A9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="2355" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{D4271B40-E291-4F7D-B212-DFF8B5827327}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D4271B40-E291-4F7D-B212-DFF8B5827327}"/>
   </bookViews>
   <sheets>
     <sheet name="Runewords" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="935">
   <si>
     <t>armor_percent</t>
   </si>
@@ -2677,9 +2677,6 @@
     <t>all armor, ring, neck</t>
   </si>
   <si>
-    <t>MOD VI</t>
-  </si>
-  <si>
     <t>arcane_devotion_trait_flat</t>
   </si>
   <si>
@@ -2791,10 +2788,58 @@
     <t>high_dodge_percent</t>
   </si>
   <si>
-    <t>bow_damage_percent</t>
-  </si>
-  <si>
     <t>1.1 dex</t>
+  </si>
+  <si>
+    <t>Mod VI</t>
+  </si>
+  <si>
+    <t>Cloth Pants</t>
+  </si>
+  <si>
+    <t>Leather Pants</t>
+  </si>
+  <si>
+    <t>meginords_girdle</t>
+  </si>
+  <si>
+    <t>faminebind</t>
+  </si>
+  <si>
+    <t>perandus_blazon</t>
+  </si>
+  <si>
+    <t>bated_breath</t>
+  </si>
+  <si>
+    <t>snowclash</t>
+  </si>
+  <si>
+    <t>thundergods_vigor</t>
+  </si>
+  <si>
+    <t>arachnid_mesh</t>
+  </si>
+  <si>
+    <t>nosferatus_coil</t>
+  </si>
+  <si>
+    <t>high_bow_damage_flat</t>
+  </si>
+  <si>
+    <t>low_dodge_flat</t>
+  </si>
+  <si>
+    <t>1.0 vit, 0.5 str</t>
+  </si>
+  <si>
+    <t>0.5 vit 1.0 sta</t>
+  </si>
+  <si>
+    <t>1.0 wis, 0.5 str</t>
+  </si>
+  <si>
+    <t>low_armor_flat</t>
   </si>
 </sst>
 </file>
@@ -4327,7 +4372,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4374,7 +4419,7 @@
         <v>599</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>880</v>
+        <v>918</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4720,46 +4765,42 @@
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="A13" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="B13" s="4">
         <v>0</v>
       </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
         <v>10000</v>
       </c>
       <c r="E13" s="8">
         <v>10</v>
       </c>
       <c r="F13" s="8">
-        <v>60</v>
-      </c>
-      <c r="G13" s="8">
-        <v>4</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>866</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -4771,25 +4812,25 @@
         <v>10000</v>
       </c>
       <c r="E14" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F14" s="8">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G14" s="8">
         <v>4</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>808</v>
+        <v>866</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>384</v>
+        <v>2</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="6"/>
@@ -4797,7 +4838,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>865</v>
+        <v>807</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -4818,16 +4859,16 @@
         <v>4</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>407</v>
+        <v>22</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>384</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="6"/>
@@ -4835,7 +4876,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>810</v>
+        <v>865</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -4856,115 +4897,115 @@
         <v>4</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>358</v>
+        <v>18</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>366</v>
+        <v>27</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>609</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="B17" s="3">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
         <v>10000</v>
       </c>
-      <c r="E17" s="6">
-        <v>25</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="8">
+        <v>15</v>
+      </c>
+      <c r="F17" s="8">
         <v>50</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="8">
         <v>4</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="L17" s="6"/>
+      <c r="H17" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="L17" s="8"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="A18" t="s">
+        <v>609</v>
+      </c>
+      <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" s="6">
-        <v>2</v>
-      </c>
-      <c r="D18" s="6">
-        <v>2500</v>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>10000</v>
       </c>
       <c r="E18" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F18" s="6">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="G18" s="6">
         <v>4</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>343</v>
+        <v>24</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>365</v>
+        <v>5</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>581</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B19" s="6">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>10000</v>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2500</v>
       </c>
       <c r="E19" s="6">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F19" s="6">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="G19" s="6">
         <v>4</v>
@@ -4973,13 +5014,13 @@
         <v>582</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>21</v>
+        <v>343</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>31</v>
+        <v>365</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>32</v>
+        <v>364</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -4987,7 +5028,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5011,13 +5052,13 @@
         <v>582</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>343</v>
+        <v>21</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>348</v>
+        <v>32</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -5025,52 +5066,54 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" s="6">
-        <v>2</v>
-      </c>
-      <c r="D21" s="6">
-        <v>2500</v>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>10000</v>
       </c>
       <c r="E21" s="6">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F21" s="6">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="G21" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>812</v>
+        <v>582</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="K21" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>348</v>
+      </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="6">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="E22" s="6">
         <v>40</v>
@@ -5079,146 +5122,144 @@
         <v>99</v>
       </c>
       <c r="G22" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>582</v>
+        <v>812</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>2</v>
+        <v>359</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="6">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E23" s="6">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F23" s="6">
         <v>99</v>
       </c>
       <c r="G23" s="6">
+        <v>4</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="J23" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>579</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="B24" s="4">
         <v>0</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>10000</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="C24" s="4">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4">
         <v>50</v>
       </c>
-      <c r="F24" s="6">
+      <c r="E24" s="9">
+        <v>45</v>
+      </c>
+      <c r="F24" s="9">
         <v>99</v>
       </c>
-      <c r="G24" s="6">
-        <v>4</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="6" t="s">
+      <c r="G24" s="4">
         <v>6</v>
       </c>
-      <c r="K24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
+      <c r="H24" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>853</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" s="6">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="E25" s="6">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F25" s="6">
         <v>99</v>
       </c>
       <c r="G25" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>808</v>
+        <v>608</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26" s="6">
-        <v>3</v>
-      </c>
-      <c r="D26" s="6">
-        <v>250</v>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>10000</v>
       </c>
       <c r="E26" s="6">
         <v>50</v>
@@ -5227,29 +5268,27 @@
         <v>99</v>
       </c>
       <c r="G26" s="6">
+        <v>4</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>362</v>
-      </c>
+      <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -5267,181 +5306,175 @@
         <v>99</v>
       </c>
       <c r="G27" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>603</v>
+        <v>808</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>363</v>
+        <v>22</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="B28" s="3">
+      <c r="A28" t="s">
+        <v>598</v>
+      </c>
+      <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28" s="8">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8">
-        <v>200555</v>
-      </c>
-      <c r="E28" s="8">
+      <c r="C28" s="6">
+        <v>3</v>
+      </c>
+      <c r="D28" s="6">
+        <v>250</v>
+      </c>
+      <c r="E28" s="6">
         <v>50</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="6">
         <v>99</v>
       </c>
-      <c r="G28" s="8">
-        <v>2</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
+      <c r="G28" s="6">
+        <v>5</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>362</v>
+      </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E29" s="6">
         <v>50</v>
-      </c>
-      <c r="E29" s="6">
-        <v>70</v>
       </c>
       <c r="F29" s="6">
         <v>99</v>
       </c>
       <c r="G29" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>363</v>
+      </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>811</v>
+        <v>616</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
       </c>
       <c r="C30" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D30" s="8">
+        <v>200555</v>
+      </c>
+      <c r="E30" s="8">
         <v>50</v>
-      </c>
-      <c r="E30" s="8">
-        <v>70</v>
       </c>
       <c r="F30" s="8">
         <v>99</v>
       </c>
       <c r="G30" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>874</v>
+        <v>619</v>
       </c>
       <c r="I30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>590</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6">
+        <v>4</v>
+      </c>
+      <c r="D31" s="6">
+        <v>50</v>
+      </c>
+      <c r="E31" s="6">
+        <v>70</v>
+      </c>
+      <c r="F31" s="6">
+        <v>99</v>
+      </c>
+      <c r="G31" s="6">
         <v>3</v>
       </c>
-      <c r="J30" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="K30" s="8" t="s">
+      <c r="H31" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="N30" s="6"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0</v>
-      </c>
-      <c r="C31" s="8">
-        <v>4</v>
-      </c>
-      <c r="D31" s="8">
-        <v>50</v>
-      </c>
-      <c r="E31" s="8">
-        <v>70</v>
-      </c>
-      <c r="F31" s="8">
-        <v>99</v>
-      </c>
-      <c r="G31" s="8">
-        <v>6</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>875</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>363</v>
-      </c>
+      <c r="J31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -5462,137 +5495,148 @@
         <v>6</v>
       </c>
       <c r="H32" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="8">
+        <v>4</v>
+      </c>
+      <c r="D33" s="8">
+        <v>50</v>
+      </c>
+      <c r="E33" s="8">
+        <v>70</v>
+      </c>
+      <c r="F33" s="8">
+        <v>99</v>
+      </c>
+      <c r="G33" s="8">
+        <v>6</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8">
+        <v>4</v>
+      </c>
+      <c r="D34" s="8">
+        <v>50</v>
+      </c>
+      <c r="E34" s="8">
+        <v>70</v>
+      </c>
+      <c r="F34" s="8">
+        <v>99</v>
+      </c>
+      <c r="G34" s="8">
+        <v>6</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>873</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I34" s="8" t="s">
         <v>871</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L34" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="8" t="s">
+      <c r="M34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>605</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" s="6">
-        <v>1</v>
-      </c>
-      <c r="D33" s="6">
-        <v>10000</v>
-      </c>
-      <c r="E33" s="6">
-        <v>85</v>
-      </c>
-      <c r="F33" s="6">
-        <v>99</v>
-      </c>
-      <c r="G33" s="6">
-        <v>3</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>584</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34">
-        <v>50</v>
-      </c>
-      <c r="E34" s="6">
-        <v>90</v>
-      </c>
-      <c r="F34" s="6">
-        <v>99</v>
-      </c>
-      <c r="G34" s="6">
-        <v>4</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>50</v>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>10000</v>
       </c>
       <c r="E35" s="6">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F35" s="6">
         <v>99</v>
       </c>
-      <c r="G35">
-        <v>4</v>
-      </c>
-      <c r="H35" t="s">
-        <v>582</v>
-      </c>
-      <c r="I35" t="s">
-        <v>351</v>
-      </c>
-      <c r="J35" t="s">
-        <v>352</v>
-      </c>
-      <c r="K35" t="s">
-        <v>345</v>
-      </c>
+      <c r="G35" s="6">
+        <v>3</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5609,33 +5653,36 @@
       <c r="F36" s="6">
         <v>99</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="6">
         <v>4</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="I36" t="s">
-        <v>353</v>
-      </c>
-      <c r="J36" t="s">
-        <v>354</v>
-      </c>
-      <c r="K36" t="s">
-        <v>35</v>
-      </c>
+      <c r="I36" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37">
         <v>4</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37">
         <v>50</v>
       </c>
       <c r="E37" s="6">
@@ -5644,131 +5691,129 @@
       <c r="F37" s="6">
         <v>99</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37">
         <v>4</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" t="s">
         <v>582</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" t="s">
+        <v>351</v>
+      </c>
+      <c r="J37" t="s">
+        <v>352</v>
+      </c>
+      <c r="K37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>586</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>50</v>
+      </c>
+      <c r="E38" s="6">
+        <v>90</v>
+      </c>
+      <c r="F38" s="6">
+        <v>99</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38" t="s">
+        <v>582</v>
+      </c>
+      <c r="I38" t="s">
+        <v>353</v>
+      </c>
+      <c r="J38" t="s">
+        <v>354</v>
+      </c>
+      <c r="K38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>587</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" s="6">
+        <v>4</v>
+      </c>
+      <c r="D39" s="6">
+        <v>50</v>
+      </c>
+      <c r="E39" s="6">
+        <v>90</v>
+      </c>
+      <c r="F39" s="6">
+        <v>99</v>
+      </c>
+      <c r="G39" s="6">
+        <v>4</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="I39" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J39" t="s">
         <v>356</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B40" s="3">
         <v>0</v>
       </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3">
         <v>200555</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G40" s="3">
         <v>2</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1</v>
-      </c>
-      <c r="D39" s="4">
-        <v>10000</v>
-      </c>
-      <c r="E39" s="8">
-        <v>10</v>
-      </c>
-      <c r="F39" s="8">
-        <v>40</v>
-      </c>
-      <c r="G39" s="4">
-        <v>3</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>878</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0</v>
-      </c>
-      <c r="C40" s="4">
-        <v>4</v>
-      </c>
-      <c r="D40" s="4">
-        <v>50</v>
-      </c>
-      <c r="E40" s="9">
-        <v>45</v>
-      </c>
-      <c r="F40" s="9">
-        <v>99</v>
-      </c>
-      <c r="G40" s="4">
-        <v>6</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>879</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>853</v>
-      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L39">
-    <sortCondition ref="E2:E39"/>
-    <sortCondition ref="F2:F39"/>
-    <sortCondition ref="A2:A39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N40">
+    <sortCondition ref="E2:E40"/>
+    <sortCondition ref="F2:F40"/>
+    <sortCondition ref="A2:A40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5780,10 +5825,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:N141"/>
+  <dimension ref="A1:N149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6382,11 +6427,11 @@
       <c r="A17" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="C17" s="8">
-        <v>2</v>
+      <c r="B17" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -6395,22 +6440,22 @@
         <v>10000</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>775</v>
+        <v>455</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>372</v>
+        <v>711</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="3" t="s">
-        <v>622</v>
+      <c r="M17" s="4" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -6418,10 +6463,10 @@
         <v>639</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C18" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -6430,22 +6475,22 @@
         <v>10000</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>387</v>
+        <v>775</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -6453,7 +6498,7 @@
         <v>639</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C19" s="8">
         <v>3</v>
@@ -6465,22 +6510,22 @@
         <v>10000</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>415</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="J19" s="3"/>
+        <v>387</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>406</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -6488,10 +6533,10 @@
         <v>639</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C20" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -6500,18 +6545,22 @@
         <v>10000</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="G20" s="3"/>
+        <v>414</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>415</v>
+      </c>
       <c r="H20" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="I20" s="3"/>
+        <v>355</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>349</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="N20" t="s">
         <v>651</v>
@@ -6522,7 +6571,7 @@
         <v>639</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C21" s="8">
         <v>4</v>
@@ -6534,32 +6583,26 @@
         <v>10000</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>413</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="C22" s="8">
         <v>4</v>
@@ -6573,55 +6616,59 @@
       <c r="F22" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>351</v>
+        <v>412</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="C23" s="8">
+      <c r="A23" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="C23" s="9">
+        <v>5</v>
+      </c>
+      <c r="D23" s="9">
         <v>4</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>35</v>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3" t="s">
-        <v>660</v>
+      <c r="H23" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -6629,7 +6676,7 @@
         <v>654</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C24" s="8">
         <v>4</v>
@@ -6641,24 +6688,22 @@
         <v>10000</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>391</v>
-      </c>
       <c r="I24" s="3" t="s">
-        <v>19</v>
+        <v>351</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -6666,7 +6711,7 @@
         <v>654</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C25" s="8">
         <v>4</v>
@@ -6678,96 +6723,94 @@
         <v>10000</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>447</v>
-      </c>
       <c r="J25" s="3" t="s">
-        <v>28</v>
+        <v>353</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C26" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
       <c r="E26" s="3">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H26" s="3" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>422</v>
+        <v>19</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>424</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C27" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
       <c r="E27" s="3">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>419</v>
+        <v>14</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>424</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -6775,12 +6818,12 @@
         <v>662</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C28" s="8">
         <v>2</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="3">
@@ -6791,7 +6834,7 @@
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>422</v>
@@ -6812,12 +6855,12 @@
         <v>662</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C29" s="8">
         <v>2</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="3">
         <v>1</v>
       </c>
       <c r="E29" s="3">
@@ -6828,7 +6871,7 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>422</v>
@@ -6845,107 +6888,109 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>823</v>
+      <c r="A30" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>665</v>
       </c>
       <c r="C30" s="8">
-        <v>1</v>
-      </c>
-      <c r="D30" s="9">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
-        <v>10000</v>
-      </c>
-      <c r="F30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>50</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="L30" s="3"/>
-      <c r="M30" s="4" t="s">
-        <v>670</v>
+      <c r="M30" s="3" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>821</v>
+      <c r="A31" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>666</v>
       </c>
       <c r="C31" s="8">
         <v>2</v>
       </c>
-      <c r="D31" s="9">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4">
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>50</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
         <v>10000</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="C32" s="8">
-        <v>3</v>
-      </c>
-      <c r="D32" s="8">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>426</v>
-      </c>
+      <c r="H32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="3" t="s">
+      <c r="M32" s="4" t="s">
         <v>670</v>
       </c>
     </row>
@@ -6953,146 +6998,148 @@
       <c r="A33" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>882</v>
+      <c r="B33" s="4" t="s">
+        <v>821</v>
       </c>
       <c r="C33" s="8">
-        <v>4</v>
-      </c>
-      <c r="D33" s="8">
-        <v>3</v>
-      </c>
-      <c r="E33" s="8">
-        <v>250</v>
+        <v>2</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>10000</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="4" t="s">
-        <v>883</v>
+        <v>28</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>749</v>
+        <v>39</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>478</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="4" t="s">
-        <v>713</v>
+        <v>670</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>822</v>
+      <c r="B34" s="3" t="s">
+        <v>669</v>
       </c>
       <c r="C34" s="8">
+        <v>3</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="9">
-        <v>4</v>
-      </c>
-      <c r="E34" s="4">
-        <v>50</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>852</v>
+      <c r="H34" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="C35" s="3">
-        <v>2</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <v>10000</v>
+        <v>668</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="C35" s="8">
+        <v>4</v>
+      </c>
+      <c r="D35" s="8">
+        <v>3</v>
+      </c>
+      <c r="E35" s="8">
+        <v>250</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="4" t="s">
-        <v>28</v>
+        <v>882</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>31</v>
+        <v>749</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="K35" s="3"/>
+        <v>432</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>478</v>
+      </c>
       <c r="L35" s="3"/>
       <c r="M35" s="4" t="s">
-        <v>670</v>
+        <v>713</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1</v>
+        <v>822</v>
+      </c>
+      <c r="C36" s="8">
+        <v>5</v>
+      </c>
+      <c r="D36" s="9">
+        <v>4</v>
       </c>
       <c r="E36" s="4">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="4" t="s">
-        <v>711</v>
+        <v>880</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
+        <v>470</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="M36" s="4" t="s">
-        <v>670</v>
+        <v>852</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -7100,7 +7147,7 @@
         <v>671</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C37" s="3">
         <v>2</v>
@@ -7116,13 +7163,13 @@
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -7134,180 +7181,180 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>673</v>
+      <c r="B38" s="4" t="s">
+        <v>825</v>
       </c>
       <c r="C38" s="3">
-        <v>3</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
         <v>10000</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G38" s="3"/>
-      <c r="H38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>13</v>
+      <c r="H38" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="3" t="s">
+      <c r="M38" s="4" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="C39" s="8">
+      <c r="B39" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="8">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G39" s="3"/>
-      <c r="H39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>426</v>
+      <c r="H39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>353</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-      <c r="M39" s="3" t="s">
+      <c r="M39" s="4" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="C40" s="8">
-        <v>1</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4">
+      <c r="A40" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C40" s="3">
+        <v>3</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
         <v>10000</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>684</v>
+      <c r="F40" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G40" s="3"/>
-      <c r="H40" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>853</v>
-      </c>
+      <c r="H40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-      <c r="M40" s="4" t="s">
-        <v>661</v>
+      <c r="M40" s="3" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="C41" s="3">
-        <v>2</v>
-      </c>
-      <c r="D41" s="3">
-        <v>4</v>
+        <v>672</v>
+      </c>
+      <c r="C41" s="8">
+        <v>5</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1</v>
       </c>
       <c r="E41" s="3">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>404</v>
+        <v>5</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3" t="s">
-        <v>393</v>
+        <v>21</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>682</v>
+        <v>433</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>352</v>
+        <v>426</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C42" s="3">
-        <v>2</v>
-      </c>
-      <c r="D42" s="3">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3">
-        <v>50</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>403</v>
+      <c r="B42" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="C42" s="8">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>684</v>
       </c>
       <c r="G42" s="3"/>
-      <c r="H42" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="K42" s="3"/>
+      <c r="H42" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>853</v>
+      </c>
       <c r="L42" s="3"/>
-      <c r="M42" s="3" t="s">
-        <v>683</v>
+      <c r="M42" s="4" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -7315,7 +7362,7 @@
         <v>675</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C43" s="3">
         <v>2</v>
@@ -7327,7 +7374,7 @@
         <v>50</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="s">
@@ -7337,7 +7384,7 @@
         <v>682</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -7350,7 +7397,7 @@
         <v>675</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C44" s="3">
         <v>2</v>
@@ -7362,7 +7409,7 @@
         <v>50</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3" t="s">
@@ -7372,7 +7419,7 @@
         <v>682</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -7385,34 +7432,34 @@
         <v>675</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="C45" s="8">
+        <v>678</v>
+      </c>
+      <c r="C45" s="3">
         <v>2</v>
       </c>
       <c r="D45" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E45" s="3">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>684</v>
+        <v>402</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>16</v>
+        <v>682</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>435</v>
+        <v>356</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -7420,119 +7467,115 @@
         <v>675</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="C46" s="8">
-        <v>3</v>
+        <v>679</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2</v>
       </c>
       <c r="D46" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E46" s="3">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>621</v>
+        <v>392</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>11</v>
+        <v>682</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>828</v>
+      <c r="B47" s="3" t="s">
+        <v>680</v>
       </c>
       <c r="C47" s="8">
-        <v>4</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4">
+        <v>2</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
         <v>10000</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>402</v>
+      <c r="F47" s="3" t="s">
+        <v>684</v>
       </c>
       <c r="G47" s="3"/>
-      <c r="H47" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="H47" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="K47" s="3"/>
       <c r="L47" s="3"/>
-      <c r="M47" s="4" t="s">
-        <v>661</v>
+      <c r="M47" s="3" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>829</v>
+      <c r="B48" s="3" t="s">
+        <v>681</v>
       </c>
       <c r="C48" s="8">
-        <v>5</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4">
+        <v>3</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
         <v>10000</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="3" t="s">
         <v>621</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>443</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K48" s="3"/>
       <c r="L48" s="3"/>
-      <c r="M48" s="4" t="s">
-        <v>854</v>
+      <c r="M48" s="3" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>830</v>
+        <v>675</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C49" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -7540,36 +7583,36 @@
       <c r="E49" s="4">
         <v>10000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>15</v>
+      <c r="F49" s="4" t="s">
+        <v>402</v>
       </c>
       <c r="G49" s="3"/>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
+      <c r="H49" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="L49" s="3"/>
-      <c r="M49" s="3" t="s">
-        <v>637</v>
+      <c r="M49" s="4" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>830</v>
+        <v>675</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C50" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -7577,23 +7620,25 @@
       <c r="E50" s="4">
         <v>10000</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>15</v>
+      <c r="F50" s="4" t="s">
+        <v>621</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="K50" s="3"/>
+        <v>354</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="L50" s="3"/>
-      <c r="M50" s="3" t="s">
-        <v>637</v>
+      <c r="M50" s="4" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -7601,10 +7646,10 @@
         <v>830</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C51" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -7613,35 +7658,35 @@
         <v>10000</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G51" s="3"/>
-      <c r="H51" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>349</v>
+      <c r="H51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>440</v>
+        <v>17</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3" t="s">
-        <v>857</v>
+        <v>637</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>687</v>
+        <v>830</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C52" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -7650,17 +7695,17 @@
         <v>10000</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>363</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>26</v>
+        <v>413</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -7670,73 +7715,71 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>889</v>
+        <v>830</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>831</v>
       </c>
       <c r="C53" s="8">
-        <v>2</v>
-      </c>
-      <c r="D53" s="8">
-        <v>1</v>
-      </c>
-      <c r="E53" s="8">
+        <v>3</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4">
         <v>10000</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="4" t="s">
-        <v>905</v>
+        <v>371</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>27</v>
+        <v>407</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="K53" s="3"/>
+        <v>349</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>440</v>
+      </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3" t="s">
-        <v>637</v>
+        <v>857</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>688</v>
+      <c r="B54" s="4" t="s">
+        <v>834</v>
       </c>
       <c r="C54" s="8">
-        <v>4</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
         <v>10000</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>428</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G54" s="3"/>
       <c r="H54" s="3" t="s">
-        <v>2</v>
+        <v>373</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>363</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>427</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3" t="s">
         <v>637</v>
@@ -7744,31 +7787,33 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>837</v>
+        <v>687</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>888</v>
       </c>
       <c r="C55" s="8">
-        <v>1</v>
-      </c>
-      <c r="D55" s="4">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4">
+        <v>2</v>
+      </c>
+      <c r="D55" s="8">
+        <v>1</v>
+      </c>
+      <c r="E55" s="8">
         <v>10000</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="3"/>
-      <c r="H55" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J55" s="3"/>
+      <c r="H55" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>368</v>
+      </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3" t="s">
@@ -7776,36 +7821,38 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>838</v>
+      <c r="A56" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>688</v>
       </c>
       <c r="C56" s="8">
-        <v>1</v>
-      </c>
-      <c r="D56" s="4">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
+        <v>4</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
         <v>10000</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>428</v>
+      </c>
       <c r="H56" s="3" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>711</v>
+        <v>363</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>418</v>
+        <v>1</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3" t="s">
@@ -7814,39 +7861,39 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="C57" s="8">
-        <v>2</v>
-      </c>
-      <c r="D57" s="4">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4">
-        <v>10000</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>30</v>
+        <v>687</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="C57" s="9">
+        <v>5</v>
+      </c>
+      <c r="D57" s="9">
+        <v>4</v>
+      </c>
+      <c r="E57" s="9">
+        <v>50</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="G57" s="3"/>
-      <c r="H57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>433</v>
+      <c r="H57" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>869</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>853</v>
+        <v>929</v>
       </c>
       <c r="L57" s="3"/>
-      <c r="M57" s="3" t="s">
-        <v>855</v>
+      <c r="M57" s="4" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -7854,10 +7901,10 @@
         <v>835</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C58" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -7866,18 +7913,16 @@
         <v>10000</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>428</v>
+        <v>15</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3" t="s">
-        <v>432</v>
+        <v>856</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>783</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3" t="s">
@@ -7885,110 +7930,112 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="C59" s="9">
-        <v>1</v>
-      </c>
-      <c r="D59" s="9">
-        <v>3</v>
-      </c>
-      <c r="E59" s="9">
-        <v>250</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K59" s="9"/>
+      <c r="A59" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="C59" s="8">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>420</v>
+      </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3" t="s">
-        <v>703</v>
+        <v>637</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="C60" s="9">
-        <v>1</v>
-      </c>
-      <c r="D60" s="9">
-        <v>3</v>
-      </c>
-      <c r="E60" s="9">
-        <v>250</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="J60" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>28</v>
+      <c r="A60" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C60" s="8">
+        <v>2</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>853</v>
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3" t="s">
-        <v>707</v>
+        <v>855</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>897</v>
+        <v>835</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>839</v>
       </c>
       <c r="C61" s="8">
-        <v>1</v>
-      </c>
-      <c r="D61" s="8">
-        <v>1</v>
-      </c>
-      <c r="E61" s="8">
+        <v>3</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
         <v>10000</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>358</v>
+        <v>428</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>15</v>
+        <v>432</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>783</v>
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3" t="s">
-        <v>886</v>
+        <v>637</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -7996,36 +8043,34 @@
         <v>689</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="C62" s="8">
-        <v>2</v>
-      </c>
-      <c r="D62" s="3">
-        <v>1</v>
-      </c>
-      <c r="E62" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>489</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="C62" s="9">
+        <v>1</v>
+      </c>
+      <c r="D62" s="9">
+        <v>3</v>
+      </c>
+      <c r="E62" s="9">
+        <v>250</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K62" s="9"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="N62" t="s">
         <v>674</v>
@@ -8036,104 +8081,108 @@
         <v>689</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="C63" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E63" s="9">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>37</v>
+        <v>378</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>4</v>
+        <v>377</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>385</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L63" s="3"/>
       <c r="M63" s="3" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="C64" s="9">
-        <v>2</v>
-      </c>
-      <c r="D64" s="9">
-        <v>3</v>
-      </c>
-      <c r="E64" s="9">
-        <v>250</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="K64" s="9"/>
+      <c r="B64" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="C64" s="8">
+        <v>1</v>
+      </c>
+      <c r="D64" s="8">
+        <v>1</v>
+      </c>
+      <c r="E64" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3" t="s">
-        <v>705</v>
+        <v>885</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>904</v>
+      <c r="B65" s="3" t="s">
+        <v>691</v>
       </c>
       <c r="C65" s="8">
         <v>2</v>
       </c>
-      <c r="D65" s="8">
-        <v>4</v>
-      </c>
-      <c r="E65" s="8">
-        <v>50</v>
+      <c r="D65" s="3">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3">
+        <v>10000</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>34</v>
+        <v>345</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>489</v>
+      </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -8141,10 +8190,10 @@
         <v>689</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C66" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" s="9">
         <v>1</v>
@@ -8153,18 +8202,26 @@
         <v>10000</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>344</v>
+        <v>37</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>385</v>
+      </c>
       <c r="M66" s="3" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -8172,71 +8229,65 @@
         <v>689</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C67" s="9">
+        <v>2</v>
+      </c>
+      <c r="D67" s="9">
         <v>3</v>
       </c>
-      <c r="D67" s="9">
-        <v>1</v>
-      </c>
       <c r="E67" s="9">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>39</v>
+        <v>370</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>711</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>712</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="K67" s="9"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C68" s="9">
+      <c r="B68" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="C68" s="8">
+        <v>2</v>
+      </c>
+      <c r="D68" s="8">
         <v>4</v>
       </c>
-      <c r="D68" s="9">
-        <v>1</v>
-      </c>
-      <c r="E68" s="9">
-        <v>10000</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J68" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K68" s="9"/>
+      <c r="E68" s="8">
+        <v>50</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -8244,34 +8295,30 @@
         <v>689</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="C69" s="8">
-        <v>5</v>
-      </c>
-      <c r="D69" s="3">
-        <v>1</v>
-      </c>
-      <c r="E69" s="3">
+        <v>693</v>
+      </c>
+      <c r="C69" s="9">
+        <v>3</v>
+      </c>
+      <c r="D69" s="9">
+        <v>1</v>
+      </c>
+      <c r="E69" s="9">
         <v>10000</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="K69" s="3"/>
+      <c r="F69" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3" t="s">
-        <v>670</v>
+        <v>694</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -8279,10 +8326,10 @@
         <v>689</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="C70" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" s="9">
         <v>1</v>
@@ -8291,22 +8338,24 @@
         <v>10000</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="9" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K70" s="9"/>
+        <v>711</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>712</v>
+      </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -8314,82 +8363,80 @@
         <v>689</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="C71" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E71" s="9">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>380</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G71" s="9"/>
       <c r="H71" s="9" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>382</v>
+        <v>25</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>384</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K71" s="9"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C72" s="9">
-        <v>1</v>
-      </c>
-      <c r="D72" s="9">
-        <v>1</v>
-      </c>
-      <c r="E72" s="9">
+        <v>690</v>
+      </c>
+      <c r="C72" s="8">
+        <v>5</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3">
         <v>10000</v>
       </c>
-      <c r="F72" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3" t="s">
-        <v>722</v>
+        <v>670</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="C73" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" s="9">
         <v>1</v>
@@ -8398,57 +8445,61 @@
         <v>10000</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9" t="s">
-        <v>434</v>
+        <v>362</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>435</v>
+        <v>370</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K73" s="9"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3" t="s">
-        <v>648</v>
+        <v>696</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="C74" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E74" s="9">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="9"/>
+        <v>379</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>380</v>
+      </c>
       <c r="H74" s="9" t="s">
-        <v>721</v>
+        <v>381</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="K74" s="9"/>
+        <v>383</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>384</v>
+      </c>
       <c r="L74" s="3"/>
       <c r="M74" s="3" t="s">
-        <v>622</v>
+        <v>701</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -8456,10 +8507,10 @@
         <v>714</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C75" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D75" s="9">
         <v>1</v>
@@ -8468,67 +8519,63 @@
         <v>10000</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>22</v>
+        <v>412</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9" t="s">
-        <v>719</v>
+        <v>432</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>711</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>893</v>
-      </c>
-      <c r="C76" s="8">
-        <v>1</v>
-      </c>
-      <c r="D76" s="8">
-        <v>1</v>
-      </c>
-      <c r="E76" s="8">
+      <c r="A76" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C76" s="9">
+        <v>2</v>
+      </c>
+      <c r="D76" s="9">
+        <v>1</v>
+      </c>
+      <c r="E76" s="9">
         <v>10000</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>890</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K76" s="3"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="9"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3" t="s">
-        <v>891</v>
+        <v>648</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="C77" s="9">
         <v>2</v>
@@ -8544,29 +8591,29 @@
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9" t="s">
-        <v>28</v>
+        <v>721</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>39</v>
+        <v>367</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K77" s="9"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3" t="s">
-        <v>713</v>
+        <v>622</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="C78" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" s="9">
         <v>1</v>
@@ -8575,57 +8622,59 @@
         <v>10000</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>412</v>
+        <v>22</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="9" t="s">
-        <v>442</v>
+        <v>719</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>1</v>
+        <v>408</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>359</v>
+        <v>711</v>
       </c>
       <c r="K78" s="9"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="C79" s="9">
+      <c r="B79" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="C79" s="8">
+        <v>1</v>
+      </c>
+      <c r="D79" s="8">
+        <v>1</v>
+      </c>
+      <c r="E79" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D79" s="9">
-        <v>1</v>
-      </c>
-      <c r="E79" s="9">
-        <v>10000</v>
-      </c>
-      <c r="F79" s="9" t="s">
+      <c r="H79" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="J79" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="K79" s="9"/>
+      <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3" t="s">
-        <v>713</v>
+        <v>890</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -8633,7 +8682,7 @@
         <v>723</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C80" s="9">
         <v>2</v>
@@ -8649,13 +8698,13 @@
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="9" t="s">
-        <v>446</v>
+        <v>28</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>359</v>
+        <v>436</v>
       </c>
       <c r="K80" s="9"/>
       <c r="L80" s="3"/>
@@ -8664,85 +8713,81 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>896</v>
-      </c>
-      <c r="C81" s="8">
+      <c r="B81" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="C81" s="9">
         <v>2</v>
       </c>
-      <c r="D81" s="8">
-        <v>1</v>
-      </c>
-      <c r="E81" s="8">
+      <c r="D81" s="9">
+        <v>1</v>
+      </c>
+      <c r="E81" s="9">
         <v>10000</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" s="3"/>
-      <c r="H81" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="K81" s="3"/>
+      <c r="F81" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="K81" s="9"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>895</v>
-      </c>
-      <c r="C82" s="8">
-        <v>3</v>
-      </c>
-      <c r="D82" s="8">
-        <v>3</v>
-      </c>
-      <c r="E82" s="8">
-        <v>250</v>
-      </c>
-      <c r="F82" s="3" t="s">
+      <c r="B82" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C82" s="9">
+        <v>2</v>
+      </c>
+      <c r="D82" s="9">
+        <v>1</v>
+      </c>
+      <c r="E82" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F82" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G82" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>887</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="K82" s="9"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3" t="s">
-        <v>888</v>
+        <v>713</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C83" s="9">
         <v>2</v>
@@ -8754,94 +8799,96 @@
         <v>10000</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="9" t="s">
-        <v>711</v>
+        <v>446</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>17</v>
+        <v>359</v>
       </c>
       <c r="K83" s="9"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3" t="s">
-        <v>670</v>
+        <v>713</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="C84" s="9">
-        <v>3</v>
-      </c>
-      <c r="D84" s="9">
-        <v>1</v>
-      </c>
-      <c r="E84" s="9">
+      <c r="A84" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="C84" s="8">
+        <v>2</v>
+      </c>
+      <c r="D84" s="8">
+        <v>1</v>
+      </c>
+      <c r="E84" s="8">
         <v>10000</v>
       </c>
-      <c r="F84" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J84" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K84" s="9"/>
+      <c r="F84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3" t="s">
-        <v>733</v>
+        <v>709</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="C85" s="9">
-        <v>4</v>
-      </c>
-      <c r="D85" s="9">
-        <v>1</v>
-      </c>
-      <c r="E85" s="9">
-        <v>10000</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J85" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K85" s="9" t="s">
-        <v>443</v>
+      <c r="A85" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="C85" s="8">
+        <v>3</v>
+      </c>
+      <c r="D85" s="8">
+        <v>3</v>
+      </c>
+      <c r="E85" s="8">
+        <v>250</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="L85" s="3"/>
       <c r="M85" s="3" t="s">
-        <v>709</v>
+        <v>887</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -8849,10 +8896,10 @@
         <v>728</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C86" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" s="9">
         <v>1</v>
@@ -8861,72 +8908,68 @@
         <v>10000</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>345</v>
+        <v>37</v>
       </c>
       <c r="G86" s="9"/>
       <c r="H86" s="9" t="s">
-        <v>450</v>
+        <v>711</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>451</v>
+        <v>20</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K86" s="9"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>894</v>
-      </c>
-      <c r="C87" s="8">
-        <v>4</v>
-      </c>
-      <c r="D87" s="8">
+      <c r="B87" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C87" s="9">
         <v>3</v>
       </c>
-      <c r="E87" s="8">
-        <v>250</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>445</v>
-      </c>
+      <c r="D87" s="9">
+        <v>1</v>
+      </c>
+      <c r="E87" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K87" s="9"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3" t="s">
-        <v>888</v>
+        <v>733</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="C88" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" s="9">
         <v>1</v>
@@ -8935,35 +8978,35 @@
         <v>10000</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>5</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G88" s="9"/>
       <c r="H88" s="9" t="s">
-        <v>30</v>
+        <v>362</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>387</v>
+        <v>25</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K88" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>443</v>
+      </c>
       <c r="L88" s="3"/>
       <c r="M88" s="3" t="s">
-        <v>637</v>
+        <v>709</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C89" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" s="9">
         <v>1</v>
@@ -8972,62 +9015,62 @@
         <v>10000</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>5</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="G89" s="9"/>
       <c r="H89" s="9" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>386</v>
+        <v>451</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="K89" s="9"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3" t="s">
-        <v>740</v>
+        <v>692</v>
       </c>
       <c r="N89" s="3"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="C90" s="9">
+      <c r="A90" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="C90" s="8">
         <v>4</v>
       </c>
-      <c r="D90" s="9">
-        <v>1</v>
-      </c>
-      <c r="E90" s="9">
-        <v>10000</v>
-      </c>
-      <c r="F90" s="9" t="s">
+      <c r="D90" s="8">
+        <v>3</v>
+      </c>
+      <c r="E90" s="8">
+        <v>250</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="I90" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="J90" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="K90" s="9" t="s">
-        <v>441</v>
+      <c r="G90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>445</v>
       </c>
       <c r="L90" s="3"/>
       <c r="M90" s="3" t="s">
-        <v>739</v>
+        <v>887</v>
       </c>
       <c r="N90" s="3"/>
     </row>
@@ -9036,10 +9079,10 @@
         <v>734</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C91" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" s="9">
         <v>1</v>
@@ -9048,108 +9091,112 @@
         <v>10000</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G91" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="H91" s="9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>453</v>
+        <v>387</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K91" s="9" t="s">
-        <v>452</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K91" s="9"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3" t="s">
-        <v>741</v>
+        <v>637</v>
       </c>
       <c r="N91" s="3"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="C92" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D92" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E92" s="9">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="F92" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G92" s="9"/>
+      <c r="G92" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="H92" s="9" t="s">
-        <v>30</v>
+        <v>454</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>363</v>
+        <v>37</v>
       </c>
       <c r="K92" s="9"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3" t="s">
-        <v>637</v>
+        <v>740</v>
       </c>
       <c r="N92" s="3"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>892</v>
-      </c>
-      <c r="C93" s="8">
-        <v>1</v>
-      </c>
-      <c r="D93" s="8">
-        <v>1</v>
-      </c>
-      <c r="E93" s="8">
+      <c r="A93" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C93" s="9">
+        <v>4</v>
+      </c>
+      <c r="D93" s="9">
+        <v>1</v>
+      </c>
+      <c r="E93" s="9">
         <v>10000</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="K93" s="3"/>
+      <c r="F93" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>441</v>
+      </c>
       <c r="L93" s="3"/>
       <c r="M93" s="3" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="N93" s="3"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C94" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" s="9">
         <v>1</v>
@@ -9158,22 +9205,24 @@
         <v>10000</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>344</v>
+        <v>39</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="9" t="s">
-        <v>907</v>
+        <v>19</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K94" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="K94" s="9" t="s">
+        <v>452</v>
+      </c>
       <c r="L94" s="3"/>
       <c r="M94" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="N94" s="3"/>
     </row>
@@ -9182,10 +9231,10 @@
         <v>742</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C95" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" s="9">
         <v>4</v>
@@ -9194,58 +9243,58 @@
         <v>50</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G95" s="9"/>
       <c r="H95" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>749</v>
+        <v>1</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>448</v>
+        <v>363</v>
       </c>
       <c r="K95" s="9"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3" t="s">
-        <v>713</v>
+        <v>637</v>
       </c>
       <c r="N95" s="3"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="C96" s="9">
-        <v>2</v>
-      </c>
-      <c r="D96" s="9">
-        <v>4</v>
-      </c>
-      <c r="E96" s="9">
-        <v>50</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9" t="s">
+      <c r="B96" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="C96" s="8">
+        <v>1</v>
+      </c>
+      <c r="D96" s="8">
+        <v>1</v>
+      </c>
+      <c r="E96" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I96" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="J96" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="K96" s="9"/>
+      <c r="I96" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="N96" s="3"/>
     </row>
@@ -9254,34 +9303,34 @@
         <v>742</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="C97" s="9">
         <v>2</v>
       </c>
       <c r="D97" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E97" s="9">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9" t="s">
-        <v>13</v>
+        <v>906</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>749</v>
+        <v>435</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>449</v>
+        <v>17</v>
       </c>
       <c r="K97" s="9"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3" t="s">
-        <v>713</v>
+        <v>744</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -9289,7 +9338,7 @@
         <v>742</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C98" s="9">
         <v>2</v>
@@ -9301,7 +9350,7 @@
         <v>50</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="9" t="s">
@@ -9311,7 +9360,7 @@
         <v>749</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K98" s="9"/>
       <c r="L98" s="3"/>
@@ -9327,73 +9376,69 @@
         <v>742</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C99" s="9">
         <v>2</v>
       </c>
       <c r="D99" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E99" s="9">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>6</v>
+        <v>749</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>749</v>
+        <v>446</v>
       </c>
       <c r="K99" s="9"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>902</v>
-      </c>
-      <c r="C100" s="8">
+      <c r="B100" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C100" s="9">
         <v>2</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="9">
         <v>4</v>
       </c>
-      <c r="E100" s="8">
+      <c r="E100" s="9">
         <v>50</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>427</v>
-      </c>
+      <c r="F100" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="K100" s="9"/>
+      <c r="L100" s="3"/>
       <c r="M100" s="3" t="s">
-        <v>853</v>
+        <v>713</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -9401,34 +9446,34 @@
         <v>742</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="C101" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E101" s="9">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>344</v>
+        <v>39</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="9" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>462</v>
+        <v>749</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>406</v>
+        <v>447</v>
       </c>
       <c r="K101" s="9"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -9436,34 +9481,34 @@
         <v>742</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C102" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D102" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E102" s="9">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="9" t="s">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>458</v>
+        <v>749</v>
       </c>
       <c r="K102" s="9"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3" t="s">
-        <v>661</v>
+        <v>720</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -9471,10 +9516,10 @@
         <v>742</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="C103" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D103" s="8">
         <v>4</v>
@@ -9483,22 +9528,26 @@
         <v>50</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>369</v>
+        <v>902</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="4" t="s">
-        <v>885</v>
+        <v>445</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -9506,10 +9555,10 @@
         <v>742</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C104" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D104" s="9">
         <v>1</v>
@@ -9518,143 +9567,143 @@
         <v>10000</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>464</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="G104" s="9"/>
       <c r="H104" s="9" t="s">
-        <v>467</v>
+        <v>25</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="J104" s="9"/>
+        <v>462</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>406</v>
+      </c>
       <c r="K104" s="9"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3" t="s">
-        <v>624</v>
+        <v>709</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="C105" s="3">
-        <v>1</v>
-      </c>
-      <c r="D105" s="4">
-        <v>1</v>
-      </c>
-      <c r="E105" s="4">
-        <v>10000</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="K105" s="3"/>
+      <c r="A105" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C105" s="9">
+        <v>4</v>
+      </c>
+      <c r="D105" s="9">
+        <v>4</v>
+      </c>
+      <c r="E105" s="9">
+        <v>50</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="K105" s="9"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3" t="s">
-        <v>722</v>
+        <v>661</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="C106" s="3">
-        <v>1</v>
-      </c>
-      <c r="D106" s="4">
-        <v>1</v>
-      </c>
-      <c r="E106" s="4">
-        <v>10000</v>
+        <v>742</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="C106" s="8">
+        <v>4</v>
+      </c>
+      <c r="D106" s="8">
+        <v>4</v>
+      </c>
+      <c r="E106" s="8">
+        <v>50</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>12</v>
+        <v>369</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>347</v>
+        <v>34</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>883</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>853</v>
+        <v>905</v>
       </c>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
-      <c r="M106" s="3" t="s">
-        <v>722</v>
+      <c r="M106" s="4" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="C107" s="3">
-        <v>1</v>
-      </c>
-      <c r="D107" s="4">
-        <v>1</v>
-      </c>
-      <c r="E107" s="4">
+      <c r="A107" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="C107" s="9">
+        <v>5</v>
+      </c>
+      <c r="D107" s="9">
+        <v>1</v>
+      </c>
+      <c r="E107" s="9">
         <v>10000</v>
       </c>
-      <c r="F107" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K107" s="3"/>
+      <c r="F107" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
       <c r="L107" s="3"/>
       <c r="M107" s="3" t="s">
-        <v>722</v>
+        <v>624</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>757</v>
+      <c r="B108" s="4" t="s">
+        <v>840</v>
       </c>
       <c r="C108" s="3">
-        <v>2</v>
-      </c>
-      <c r="D108" s="3">
-        <v>1</v>
-      </c>
-      <c r="E108" s="3">
+        <v>1</v>
+      </c>
+      <c r="D108" s="4">
+        <v>1</v>
+      </c>
+      <c r="E108" s="4">
         <v>10000</v>
       </c>
       <c r="F108" s="3" t="s">
@@ -9662,86 +9711,88 @@
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>346</v>
+        <v>18</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="C109" s="9">
-        <v>3</v>
-      </c>
-      <c r="D109" s="9">
-        <v>1</v>
-      </c>
-      <c r="E109" s="9">
+      <c r="B109" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="C109" s="3">
+        <v>1</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1</v>
+      </c>
+      <c r="E109" s="4">
         <v>10000</v>
       </c>
-      <c r="F109" s="9" t="s">
+      <c r="F109" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I109" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="K109" s="3"/>
       <c r="L109" s="3"/>
       <c r="M109" s="3" t="s">
-        <v>670</v>
+        <v>722</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>758</v>
+      <c r="B110" s="4" t="s">
+        <v>842</v>
       </c>
       <c r="C110" s="3">
-        <v>3</v>
-      </c>
-      <c r="D110" s="3">
-        <v>3</v>
-      </c>
-      <c r="E110" s="3">
-        <v>250</v>
+        <v>1</v>
+      </c>
+      <c r="D110" s="4">
+        <v>1</v>
+      </c>
+      <c r="E110" s="4">
+        <v>10000</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G110" s="3" t="s">
-        <v>474</v>
-      </c>
+      <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
-        <v>35</v>
+        <v>711</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J110" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3" t="s">
-        <v>670</v>
+        <v>722</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -9749,34 +9800,34 @@
         <v>755</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C111" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D111" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E111" s="3">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G111" s="3" t="s">
-        <v>472</v>
-      </c>
+      <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="J111" s="3"/>
+        <v>346</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>371</v>
+      </c>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
       <c r="M111" s="3" t="s">
-        <v>670</v>
+        <v>709</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -9784,31 +9835,29 @@
         <v>755</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="C112" s="3">
+        <v>756</v>
+      </c>
+      <c r="C112" s="9">
         <v>3</v>
       </c>
-      <c r="D112" s="3">
-        <v>3</v>
-      </c>
-      <c r="E112" s="3">
-        <v>250</v>
-      </c>
-      <c r="F112" s="3" t="s">
+      <c r="D112" s="9">
+        <v>1</v>
+      </c>
+      <c r="E112" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F112" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G112" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3" t="s">
         <v>670</v>
@@ -9819,7 +9868,7 @@
         <v>755</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C113" s="3">
         <v>3</v>
@@ -9834,13 +9883,13 @@
         <v>12</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
@@ -9851,113 +9900,107 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C114" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D114" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E114" s="3">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="G114" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="H114" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>484</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C115" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D115" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E115" s="3">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="G115" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>473</v>
+      </c>
       <c r="H115" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>486</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3" t="s">
-        <v>733</v>
+        <v>670</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C116" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D116" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E116" s="3">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="G116" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>471</v>
+      </c>
       <c r="H116" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>487</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3" t="s">
-        <v>740</v>
+        <v>670</v>
       </c>
       <c r="N116" s="3"/>
     </row>
@@ -9966,7 +10009,7 @@
         <v>762</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C117" s="3">
         <v>2</v>
@@ -9978,24 +10021,24 @@
         <v>10000</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>10</v>
+        <v>349</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L117" s="3"/>
       <c r="M117" s="3" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -10003,10 +10046,10 @@
         <v>762</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C118" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D118" s="3">
         <v>1</v>
@@ -10015,181 +10058,185 @@
         <v>10000</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>684</v>
+        <v>635</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>38</v>
+        <v>485</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="K118" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>486</v>
+      </c>
       <c r="L118" s="3"/>
       <c r="M118" s="3" t="s">
-        <v>685</v>
+        <v>733</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="B119" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="C119" s="8">
-        <v>3</v>
-      </c>
-      <c r="D119" s="9">
-        <v>1</v>
-      </c>
-      <c r="E119" s="9">
+      <c r="B119" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C119" s="3">
+        <v>2</v>
+      </c>
+      <c r="D119" s="3">
+        <v>1</v>
+      </c>
+      <c r="E119" s="3">
         <v>10000</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>409</v>
+        <v>448</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="K119" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>487</v>
+      </c>
       <c r="L119" s="3"/>
       <c r="M119" s="3" t="s">
-        <v>713</v>
+        <v>740</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="B120" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="C120" s="8">
-        <v>3</v>
-      </c>
-      <c r="D120" s="9">
-        <v>1</v>
-      </c>
-      <c r="E120" s="9">
+      <c r="B120" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="C120" s="3">
+        <v>2</v>
+      </c>
+      <c r="D120" s="3">
+        <v>1</v>
+      </c>
+      <c r="E120" s="3">
         <v>10000</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3" t="s">
-        <v>407</v>
+        <v>33</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>479</v>
+        <v>10</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="K120" s="3"/>
+        <v>446</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>488</v>
+      </c>
       <c r="L120" s="3"/>
       <c r="M120" s="3" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="B121" s="9" t="s">
-        <v>848</v>
-      </c>
-      <c r="C121" s="8">
+      <c r="B121" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="C121" s="3">
         <v>3</v>
       </c>
-      <c r="D121" s="9">
-        <v>1</v>
-      </c>
-      <c r="E121" s="9">
+      <c r="D121" s="3">
+        <v>1</v>
+      </c>
+      <c r="E121" s="3">
         <v>10000</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>636</v>
+        <v>684</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3" t="s">
-        <v>749</v>
+        <v>357</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>408</v>
+        <v>38</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="K121" s="3" t="s">
-        <v>863</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="K121" s="3"/>
       <c r="L121" s="3"/>
       <c r="M121" s="3" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="C122" s="3">
-        <v>4</v>
-      </c>
-      <c r="D122" s="3">
-        <v>4</v>
-      </c>
-      <c r="E122" s="3">
-        <v>50</v>
+      <c r="B122" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="C122" s="8">
+        <v>3</v>
+      </c>
+      <c r="D122" s="9">
+        <v>1</v>
+      </c>
+      <c r="E122" s="9">
+        <v>10000</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3" t="s">
-        <v>408</v>
+        <v>27</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>477</v>
+        <v>409</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>483</v>
+        <v>351</v>
       </c>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
       <c r="M122" s="3" t="s">
-        <v>769</v>
+        <v>713</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="C123" s="3">
-        <v>4</v>
-      </c>
-      <c r="D123" s="3">
-        <v>4</v>
-      </c>
-      <c r="E123" s="3">
-        <v>50</v>
+      <c r="B123" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="C123" s="8">
+        <v>3</v>
+      </c>
+      <c r="D123" s="9">
+        <v>1</v>
+      </c>
+      <c r="E123" s="9">
+        <v>10000</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>627</v>
@@ -10199,50 +10246,52 @@
         <v>407</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>483</v>
+        <v>349</v>
       </c>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
       <c r="M123" s="3" t="s">
-        <v>769</v>
+        <v>713</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="C124" s="3">
-        <v>4</v>
-      </c>
-      <c r="D124" s="3">
-        <v>4</v>
-      </c>
-      <c r="E124" s="3">
-        <v>50</v>
+      <c r="B124" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="C124" s="8">
+        <v>3</v>
+      </c>
+      <c r="D124" s="9">
+        <v>1</v>
+      </c>
+      <c r="E124" s="9">
+        <v>10000</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3" t="s">
-        <v>409</v>
+        <v>749</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>478</v>
+        <v>408</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="K124" s="3"/>
+        <v>445</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>863</v>
+      </c>
       <c r="L124" s="3"/>
       <c r="M124" s="3" t="s">
-        <v>769</v>
+        <v>713</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -10250,7 +10299,7 @@
         <v>762</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C125" s="3">
         <v>4</v>
@@ -10262,14 +10311,14 @@
         <v>50</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J125" s="3" t="s">
         <v>483</v>
@@ -10282,109 +10331,107 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>776</v>
-      </c>
-      <c r="C126" s="8">
-        <v>1</v>
-      </c>
-      <c r="D126" s="8">
-        <v>1</v>
-      </c>
-      <c r="E126" s="8">
-        <v>10000</v>
+        <v>762</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="C126" s="3">
+        <v>4</v>
+      </c>
+      <c r="D126" s="3">
+        <v>4</v>
+      </c>
+      <c r="E126" s="3">
+        <v>50</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3" t="s">
-        <v>13</v>
+        <v>407</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
       <c r="M126" s="3" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="C127" s="8">
-        <v>1</v>
-      </c>
-      <c r="D127" s="8">
-        <v>1</v>
-      </c>
-      <c r="E127" s="8">
-        <v>10000</v>
+        <v>762</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="C127" s="3">
+        <v>4</v>
+      </c>
+      <c r="D127" s="3">
+        <v>4</v>
+      </c>
+      <c r="E127" s="3">
+        <v>50</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>635</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3" t="s">
-        <v>357</v>
+        <v>409</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J127" s="3"/>
+        <v>478</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>483</v>
+      </c>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
       <c r="M127" s="3" t="s">
-        <v>692</v>
+        <v>769</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="C128" s="8">
-        <v>2</v>
-      </c>
-      <c r="D128" s="9">
-        <v>1</v>
-      </c>
-      <c r="E128" s="9">
-        <v>10000</v>
+      <c r="A128" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C128" s="3">
+        <v>4</v>
+      </c>
+      <c r="D128" s="3">
+        <v>4</v>
+      </c>
+      <c r="E128" s="3">
+        <v>50</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>684</v>
+        <v>621</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3" t="s">
-        <v>783</v>
+        <v>410</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K128" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L128" s="3" t="s">
-        <v>858</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
       <c r="M128" s="3" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -10392,10 +10439,10 @@
         <v>773</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C129" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D129" s="8">
         <v>1</v>
@@ -10404,90 +10451,92 @@
         <v>10000</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>684</v>
+        <v>636</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3" t="s">
-        <v>907</v>
+        <v>13</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="J129" s="3"/>
+        <v>489</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>485</v>
+      </c>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
       <c r="M129" s="3" t="s">
-        <v>685</v>
+        <v>782</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B130" s="9" t="s">
-        <v>850</v>
+      <c r="B130" s="8" t="s">
+        <v>781</v>
       </c>
       <c r="C130" s="8">
-        <v>3</v>
-      </c>
-      <c r="D130" s="9">
-        <v>1</v>
-      </c>
-      <c r="E130" s="9">
+        <v>1</v>
+      </c>
+      <c r="D130" s="8">
+        <v>1</v>
+      </c>
+      <c r="E130" s="8">
         <v>10000</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>872</v>
+        <v>635</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3" t="s">
-        <v>859</v>
+        <v>357</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="K130" s="3" t="s">
-        <v>862</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
       <c r="L130" s="3"/>
       <c r="M130" s="3" t="s">
-        <v>784</v>
+        <v>692</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="B131" s="8" t="s">
-        <v>777</v>
+      <c r="B131" s="9" t="s">
+        <v>849</v>
       </c>
       <c r="C131" s="8">
-        <v>4</v>
-      </c>
-      <c r="D131" s="8">
-        <v>4</v>
-      </c>
-      <c r="E131" s="8">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="D131" s="9">
+        <v>1</v>
+      </c>
+      <c r="E131" s="9">
+        <v>10000</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>403</v>
+        <v>684</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3" t="s">
         <v>783</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>435</v>
+        <v>5</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="K131" s="3"/>
-      <c r="L131" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>858</v>
+      </c>
       <c r="M131" s="3" t="s">
         <v>784</v>
       </c>
@@ -10497,66 +10546,66 @@
         <v>773</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C132" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D132" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E132" s="8">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>402</v>
+        <v>684</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3" t="s">
-        <v>783</v>
+        <v>906</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>477</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="J132" s="3"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3" t="s">
-        <v>784</v>
+        <v>685</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>779</v>
+      <c r="B133" s="9" t="s">
+        <v>850</v>
       </c>
       <c r="C133" s="8">
-        <v>4</v>
-      </c>
-      <c r="D133" s="8">
-        <v>4</v>
-      </c>
-      <c r="E133" s="8">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="D133" s="9">
+        <v>1</v>
+      </c>
+      <c r="E133" s="9">
+        <v>10000</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>392</v>
+        <v>872</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3" t="s">
-        <v>783</v>
+        <v>859</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>435</v>
+        <v>860</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="K133" s="3"/>
+        <v>861</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>862</v>
+      </c>
       <c r="L133" s="3"/>
       <c r="M133" s="3" t="s">
         <v>784</v>
@@ -10567,7 +10616,7 @@
         <v>773</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C134" s="8">
         <v>4</v>
@@ -10579,7 +10628,7 @@
         <v>50</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3" t="s">
@@ -10589,7 +10638,7 @@
         <v>435</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
@@ -10598,110 +10647,108 @@
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>844</v>
+      <c r="A135" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>778</v>
       </c>
       <c r="C135" s="8">
-        <v>2</v>
-      </c>
-      <c r="D135" s="9">
-        <v>1</v>
-      </c>
-      <c r="E135" s="9">
-        <v>10000</v>
+        <v>4</v>
+      </c>
+      <c r="D135" s="8">
+        <v>4</v>
+      </c>
+      <c r="E135" s="8">
+        <v>50</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>24</v>
+        <v>402</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3" t="s">
-        <v>27</v>
+        <v>783</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>344</v>
+        <v>435</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>20</v>
+        <v>477</v>
       </c>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
       <c r="M135" s="3" t="s">
-        <v>720</v>
+        <v>784</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>841</v>
+      <c r="A136" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>779</v>
       </c>
       <c r="C136" s="8">
         <v>4</v>
       </c>
-      <c r="D136" s="9">
-        <v>1</v>
-      </c>
-      <c r="E136" s="9">
-        <v>10000</v>
+      <c r="D136" s="8">
+        <v>4</v>
+      </c>
+      <c r="E136" s="8">
+        <v>50</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>5</v>
+        <v>392</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3" t="s">
-        <v>432</v>
+        <v>783</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>344</v>
+        <v>435</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>783</v>
+        <v>475</v>
       </c>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
       <c r="M136" s="3" t="s">
-        <v>720</v>
+        <v>784</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>911</v>
-      </c>
-      <c r="C137" s="9">
-        <v>5</v>
-      </c>
-      <c r="D137" s="9">
+      <c r="A137" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="C137" s="8">
         <v>4</v>
       </c>
-      <c r="E137" s="9">
-        <v>1</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>412</v>
+      <c r="D137" s="8">
+        <v>4</v>
+      </c>
+      <c r="E137" s="8">
+        <v>50</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>404</v>
       </c>
       <c r="G137" s="3"/>
-      <c r="H137" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="I137" s="4" t="s">
-        <v>913</v>
-      </c>
-      <c r="J137" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="K137" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4" t="s">
-        <v>709</v>
+      <c r="H137" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -10709,7 +10756,7 @@
         <v>773</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C138" s="9">
         <v>5</v>
@@ -10740,7 +10787,7 @@
         <v>483</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -10748,7 +10795,7 @@
         <v>773</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C139" s="9">
         <v>5</v>
@@ -10779,85 +10826,372 @@
         <v>483</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>687</v>
+        <v>843</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>910</v>
-      </c>
-      <c r="C140" s="9">
+        <v>844</v>
+      </c>
+      <c r="C140" s="8">
+        <v>2</v>
+      </c>
+      <c r="D140" s="9">
+        <v>1</v>
+      </c>
+      <c r="E140" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K140" s="3"/>
+      <c r="L140" s="3"/>
+      <c r="M140" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="C141" s="8">
+        <v>4</v>
+      </c>
+      <c r="D141" s="9">
+        <v>1</v>
+      </c>
+      <c r="E141" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F141" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D140" s="9">
+      <c r="G141" s="3"/>
+      <c r="H141" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="K141" s="3"/>
+      <c r="L141" s="3"/>
+      <c r="M141" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="C142" s="9">
         <v>4</v>
       </c>
-      <c r="E140" s="9">
+      <c r="D142" s="9">
+        <v>3</v>
+      </c>
+      <c r="E142" s="9">
+        <v>250</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G142" s="3"/>
+      <c r="H142" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
+      <c r="M142" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="C143" s="9">
+        <v>1</v>
+      </c>
+      <c r="D143" s="9">
+        <v>1</v>
+      </c>
+      <c r="E143" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143" s="3"/>
+      <c r="H143" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K143" s="3"/>
+      <c r="L143" s="3"/>
+      <c r="M143" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="C144" s="9">
+        <v>3</v>
+      </c>
+      <c r="D144" s="3">
+        <v>2</v>
+      </c>
+      <c r="E144" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G144" s="3"/>
+      <c r="H144" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="L144" s="3"/>
+      <c r="M144" s="4" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>922</v>
+      </c>
+      <c r="C145" s="3">
+        <v>1</v>
+      </c>
+      <c r="D145" s="9">
+        <v>1</v>
+      </c>
+      <c r="E145" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G145" s="3"/>
+      <c r="H145" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
+      <c r="L145" s="3"/>
+      <c r="M145" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="C146" s="3">
+        <v>2</v>
+      </c>
+      <c r="D146" s="9">
+        <v>2</v>
+      </c>
+      <c r="E146" s="9">
+        <v>2500</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" s="3"/>
+      <c r="H146" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="L146" s="3"/>
+      <c r="M146" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="C147" s="3">
+        <v>3</v>
+      </c>
+      <c r="D147" s="9">
+        <v>2</v>
+      </c>
+      <c r="E147" s="9">
+        <v>2500</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="L147" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="M147" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="C148" s="3">
+        <v>2</v>
+      </c>
+      <c r="D148" s="9">
+        <v>1</v>
+      </c>
+      <c r="E148" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G148" s="3"/>
+      <c r="H148" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="K148" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="L148" s="3"/>
+      <c r="M148" s="4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C149" s="2">
+        <v>1</v>
+      </c>
+      <c r="D149" s="10">
+        <v>4</v>
+      </c>
+      <c r="E149" s="10">
         <v>50</v>
       </c>
-      <c r="F140" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="G140" s="3"/>
-      <c r="H140" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="I140" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J140" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="K140" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="L140" s="3"/>
-      <c r="M140" s="4" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>914</v>
-      </c>
-      <c r="C141" s="2">
-        <v>1</v>
-      </c>
-      <c r="D141" s="2">
-        <v>1</v>
-      </c>
-      <c r="E141" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="J141" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
-      <c r="M141" s="5" t="s">
-        <v>709</v>
+      <c r="F149" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="G149" s="2"/>
+      <c r="H149" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="I149" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J149" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="5" t="s">
+        <v>932</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M136">
-    <sortCondition ref="A2:A136"/>
-    <sortCondition ref="C2:C136"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A143:E149">
+    <sortCondition ref="A142"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10871,8 +11205,8 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241832F4-4F02-484B-9EFA-FE2189EB8A9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79039AC-22EF-42FD-AE8D-7DD106F07648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D4271B40-E291-4F7D-B212-DFF8B5827327}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="936">
   <si>
     <t>armor_percent</t>
   </si>
@@ -2840,6 +2840,9 @@
   </si>
   <si>
     <t>low_armor_flat</t>
+  </si>
+  <si>
+    <t>blaze_bow</t>
   </si>
 </sst>
 </file>
@@ -2911,19 +2914,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3255,31 +3257,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -4382,28 +4384,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -4423,28 +4425,28 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
         <v>10000</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>20</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>2</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>580</v>
       </c>
       <c r="I2" t="s">
@@ -4452,28 +4454,28 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>0</v>
       </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
         <v>10000</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>20</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>2</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>808</v>
       </c>
       <c r="I3" t="s">
@@ -4481,28 +4483,28 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>0</v>
       </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
         <v>10000</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>20</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>2</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>582</v>
       </c>
       <c r="I4" t="s">
@@ -4510,28 +4512,28 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
         <v>10000</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>25</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>3</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>812</v>
       </c>
       <c r="I5" t="s">
@@ -4542,28 +4544,28 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>0</v>
       </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
         <v>10000</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>30</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>2</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>597</v>
       </c>
       <c r="I6" t="s">
@@ -4571,28 +4573,28 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>0</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
         <v>10000</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>35</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>2</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>597</v>
       </c>
       <c r="I7" t="s">
@@ -4612,10 +4614,10 @@
       <c r="D8">
         <v>10000</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>0</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>99</v>
       </c>
       <c r="G8">
@@ -4629,28 +4631,28 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>0</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
         <v>10000</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>10</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>30</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>3</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>591</v>
       </c>
       <c r="I9" t="s">
@@ -4661,28 +4663,28 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>0</v>
       </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
         <v>10000</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>10</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>30</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>3</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>591</v>
       </c>
       <c r="I10" t="s">
@@ -4693,40 +4695,40 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>0</v>
       </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
         <v>10000</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>10</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>30</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>3</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4741,28 +4743,28 @@
       <c r="D12">
         <v>10000</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>10</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>30</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>3</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -4777,10 +4779,10 @@
       <c r="D13" s="4">
         <v>10000</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>10</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>40</v>
       </c>
       <c r="G13" s="4">
@@ -4811,30 +4813,30 @@
       <c r="D14" s="3">
         <v>10000</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>10</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>60</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>4</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>866</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -4849,30 +4851,30 @@
       <c r="D15" s="3">
         <v>10000</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>15</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>50</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>4</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>808</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="9" t="s">
+      <c r="J15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -4887,30 +4889,30 @@
       <c r="D16" s="3">
         <v>10000</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>15</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>50</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>4</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>809</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -4925,30 +4927,30 @@
       <c r="D17" s="3">
         <v>10000</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>15</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>50</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>4</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>812</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4963,68 +4965,68 @@
       <c r="D18">
         <v>10000</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>25</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>50</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>4</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>0</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>2</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>2500</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>30</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>99</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>4</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -5039,30 +5041,30 @@
       <c r="D20">
         <v>10000</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>35</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>70</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>4</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -5077,30 +5079,30 @@
       <c r="D21">
         <v>10000</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>35</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>70</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>4</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -5109,34 +5111,34 @@
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>2</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>2500</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>40</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>99</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>3</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>812</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -5145,36 +5147,36 @@
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>3</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>250</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>40</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>99</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>4</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -5189,10 +5191,10 @@
       <c r="D24" s="4">
         <v>50</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>45</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>99</v>
       </c>
       <c r="G24" s="4">
@@ -5221,32 +5223,32 @@
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>4</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>50</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>45</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>99</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>2</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -5261,30 +5263,30 @@
       <c r="D26">
         <v>10000</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>50</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>99</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>4</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="K26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5293,36 +5295,36 @@
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27" s="6">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
         <v>10000</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>50</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>99</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>3</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5331,38 +5333,38 @@
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>3</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>250</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>50</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>99</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>5</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28" s="6" t="s">
+      <c r="I28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -5371,36 +5373,36 @@
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29" s="6">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
         <v>10000</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>50</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>99</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>4</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -5409,32 +5411,32 @@
       <c r="B30" s="3">
         <v>0</v>
       </c>
-      <c r="C30" s="8">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8">
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
         <v>200555</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <v>50</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <v>99</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <v>2</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -5443,34 +5445,34 @@
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>4</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>50</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>70</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>99</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>3</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -5479,40 +5481,40 @@
       <c r="B32" s="3">
         <v>0</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>4</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>50</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <v>70</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="7">
         <v>99</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <v>6</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="7" t="s">
         <v>874</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="M32" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="N32" s="6"/>
+      <c r="N32" s="5"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -5521,40 +5523,40 @@
       <c r="B33" s="3">
         <v>0</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>4</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>50</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <v>70</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <v>99</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <v>6</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="M33" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="N33" s="6"/>
+      <c r="N33" s="5"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -5563,40 +5565,40 @@
       <c r="B34" s="3">
         <v>0</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>4</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>50</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <v>70</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <v>99</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="7">
         <v>6</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="7" t="s">
         <v>871</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="L34" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="M34" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N34" s="6"/>
+      <c r="N34" s="5"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -5605,34 +5607,34 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" s="6">
-        <v>1</v>
-      </c>
-      <c r="D35" s="6">
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
         <v>10000</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>85</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>99</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <v>3</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -5647,30 +5649,30 @@
       <c r="D36">
         <v>50</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>90</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>99</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <v>4</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="K36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -5685,10 +5687,10 @@
       <c r="D37">
         <v>50</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>90</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>99</v>
       </c>
       <c r="G37">
@@ -5720,10 +5722,10 @@
       <c r="D38">
         <v>50</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>90</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>99</v>
       </c>
       <c r="G38">
@@ -5749,25 +5751,25 @@
       <c r="B39">
         <v>0</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>4</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>50</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>90</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>99</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <v>4</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="5" t="s">
         <v>355</v>
       </c>
       <c r="J39" t="s">
@@ -5825,10 +5827,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="H129" sqref="H129"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5839,43 +5841,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="9" t="s">
         <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -5889,7 +5891,7 @@
       <c r="B2" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="3">
@@ -5924,7 +5926,7 @@
       <c r="B3" s="4" t="s">
         <v>816</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>2</v>
       </c>
       <c r="D3" s="4">
@@ -5959,7 +5961,7 @@
       <c r="B4" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>3</v>
       </c>
       <c r="D4" s="3">
@@ -5996,7 +5998,7 @@
       <c r="B5" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>3</v>
       </c>
       <c r="D5" s="4">
@@ -6033,7 +6035,7 @@
       <c r="B6" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>4</v>
       </c>
       <c r="D6" s="4">
@@ -6055,7 +6057,7 @@
       <c r="J6" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>483</v>
       </c>
       <c r="L6" s="3"/>
@@ -6070,7 +6072,7 @@
       <c r="B7" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>5</v>
       </c>
       <c r="D7" s="3">
@@ -6107,7 +6109,7 @@
       <c r="B8" s="4" t="s">
         <v>868</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" s="4">
@@ -6142,7 +6144,7 @@
       <c r="B9" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>2</v>
       </c>
       <c r="D9" s="4">
@@ -6179,7 +6181,7 @@
       <c r="B10" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>2</v>
       </c>
       <c r="D10" s="4">
@@ -6214,7 +6216,7 @@
       <c r="B11" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>3</v>
       </c>
       <c r="D11" s="3">
@@ -6249,7 +6251,7 @@
       <c r="B12" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>3</v>
       </c>
       <c r="D12" s="3">
@@ -6284,7 +6286,7 @@
       <c r="B13" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>3</v>
       </c>
       <c r="D13" s="3">
@@ -6319,7 +6321,7 @@
       <c r="B14" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>3</v>
       </c>
       <c r="D14" s="3">
@@ -6354,7 +6356,7 @@
       <c r="B15" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>4</v>
       </c>
       <c r="D15" s="4">
@@ -6378,7 +6380,7 @@
       <c r="J15" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="7" t="s">
         <v>483</v>
       </c>
       <c r="L15" s="3"/>
@@ -6393,7 +6395,7 @@
       <c r="B16" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>1</v>
       </c>
       <c r="D16" s="3">
@@ -6427,7 +6429,7 @@
       <c r="A17" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>913</v>
       </c>
       <c r="C17" s="3">
@@ -6465,7 +6467,7 @@
       <c r="B18" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>2</v>
       </c>
       <c r="D18" s="3">
@@ -6500,7 +6502,7 @@
       <c r="B19" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>3</v>
       </c>
       <c r="D19" s="3">
@@ -6535,7 +6537,7 @@
       <c r="B20" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>3</v>
       </c>
       <c r="D20" s="3">
@@ -6573,7 +6575,7 @@
       <c r="B21" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>4</v>
       </c>
       <c r="D21" s="3">
@@ -6604,7 +6606,7 @@
       <c r="B22" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>4</v>
       </c>
       <c r="D22" s="3">
@@ -6638,16 +6640,16 @@
       <c r="A23" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>910</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>5</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>4</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>1</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -6678,7 +6680,7 @@
       <c r="B24" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>4</v>
       </c>
       <c r="D24" s="3">
@@ -6713,7 +6715,7 @@
       <c r="B25" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>4</v>
       </c>
       <c r="D25" s="3">
@@ -6748,7 +6750,7 @@
       <c r="B26" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>4</v>
       </c>
       <c r="D26" s="3">
@@ -6785,7 +6787,7 @@
       <c r="B27" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>4</v>
       </c>
       <c r="D27" s="3">
@@ -6820,7 +6822,7 @@
       <c r="B28" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>2</v>
       </c>
       <c r="D28" s="3">
@@ -6857,7 +6859,7 @@
       <c r="B29" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>2</v>
       </c>
       <c r="D29" s="3">
@@ -6894,10 +6896,10 @@
       <c r="B30" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>2</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>1</v>
       </c>
       <c r="E30" s="3">
@@ -6931,10 +6933,10 @@
       <c r="B31" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>2</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>1</v>
       </c>
       <c r="E31" s="3">
@@ -6968,10 +6970,10 @@
       <c r="B32" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="C32" s="8">
-        <v>1</v>
-      </c>
-      <c r="D32" s="9">
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="4">
@@ -7001,10 +7003,10 @@
       <c r="B33" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>2</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>1</v>
       </c>
       <c r="E33" s="4">
@@ -7036,10 +7038,10 @@
       <c r="B34" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>3</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>1</v>
       </c>
       <c r="E34" s="3">
@@ -7070,16 +7072,16 @@
       <c r="A35" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>4</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>3</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <v>250</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -7110,10 +7112,10 @@
       <c r="B36" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>5</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>4</v>
       </c>
       <c r="E36" s="4">
@@ -7292,10 +7294,10 @@
       <c r="B41" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>5</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>1</v>
       </c>
       <c r="E41" s="3">
@@ -7327,7 +7329,7 @@
       <c r="B42" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>1</v>
       </c>
       <c r="D42" s="4">
@@ -7504,7 +7506,7 @@
       <c r="B47" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>2</v>
       </c>
       <c r="D47" s="3">
@@ -7539,7 +7541,7 @@
       <c r="B48" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>3</v>
       </c>
       <c r="D48" s="3">
@@ -7574,7 +7576,7 @@
       <c r="B49" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>4</v>
       </c>
       <c r="D49" s="4">
@@ -7611,7 +7613,7 @@
       <c r="B50" s="4" t="s">
         <v>829</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="7">
         <v>5</v>
       </c>
       <c r="D50" s="4">
@@ -7648,7 +7650,7 @@
       <c r="B51" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7">
         <v>1</v>
       </c>
       <c r="D51" s="4">
@@ -7685,7 +7687,7 @@
       <c r="B52" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="7">
         <v>2</v>
       </c>
       <c r="D52" s="4">
@@ -7720,7 +7722,7 @@
       <c r="B53" s="4" t="s">
         <v>831</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="7">
         <v>3</v>
       </c>
       <c r="D53" s="4">
@@ -7757,7 +7759,7 @@
       <c r="B54" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="7">
         <v>1</v>
       </c>
       <c r="D54" s="4">
@@ -7789,16 +7791,16 @@
       <c r="A55" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>888</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="7">
         <v>2</v>
       </c>
-      <c r="D55" s="8">
-        <v>1</v>
-      </c>
-      <c r="E55" s="8">
+      <c r="D55" s="7">
+        <v>1</v>
+      </c>
+      <c r="E55" s="7">
         <v>10000</v>
       </c>
       <c r="F55" s="3" t="s">
@@ -7827,7 +7829,7 @@
       <c r="B56" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="7">
         <v>4</v>
       </c>
       <c r="D56" s="3">
@@ -7863,16 +7865,16 @@
       <c r="A57" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>909</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <v>5</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="8">
         <v>4</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="8">
         <v>50</v>
       </c>
       <c r="F57" s="4" t="s">
@@ -7903,7 +7905,7 @@
       <c r="B58" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="7">
         <v>1</v>
       </c>
       <c r="D58" s="4">
@@ -7936,7 +7938,7 @@
       <c r="B59" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="7">
         <v>1</v>
       </c>
       <c r="D59" s="4">
@@ -7973,7 +7975,7 @@
       <c r="B60" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="7">
         <v>2</v>
       </c>
       <c r="D60" s="4">
@@ -8010,7 +8012,7 @@
       <c r="B61" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="7">
         <v>3</v>
       </c>
       <c r="D61" s="4">
@@ -8045,29 +8047,29 @@
       <c r="B62" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="C62" s="9">
-        <v>1</v>
-      </c>
-      <c r="D62" s="9">
+      <c r="C62" s="8">
+        <v>1</v>
+      </c>
+      <c r="D62" s="8">
         <v>3</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="8">
         <v>250</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9" t="s">
+      <c r="G62" s="8"/>
+      <c r="H62" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="I62" s="9" t="s">
+      <c r="I62" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J62" s="9" t="s">
+      <c r="J62" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K62" s="9"/>
+      <c r="K62" s="8"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3" t="s">
         <v>703</v>
@@ -8083,29 +8085,29 @@
       <c r="B63" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="C63" s="9">
-        <v>1</v>
-      </c>
-      <c r="D63" s="9">
+      <c r="C63" s="8">
+        <v>1</v>
+      </c>
+      <c r="D63" s="8">
         <v>3</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="8">
         <v>250</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9" t="s">
+      <c r="G63" s="8"/>
+      <c r="H63" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I63" s="9" t="s">
+      <c r="I63" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="J63" s="9" t="s">
+      <c r="J63" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K63" s="9" t="s">
+      <c r="K63" s="8" t="s">
         <v>28</v>
       </c>
       <c r="L63" s="3"/>
@@ -8117,16 +8119,16 @@
       <c r="A64" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="C64" s="8">
-        <v>1</v>
-      </c>
-      <c r="D64" s="8">
-        <v>1</v>
-      </c>
-      <c r="E64" s="8">
+      <c r="C64" s="7">
+        <v>1</v>
+      </c>
+      <c r="D64" s="7">
+        <v>1</v>
+      </c>
+      <c r="E64" s="7">
         <v>10000</v>
       </c>
       <c r="F64" s="3" t="s">
@@ -8155,7 +8157,7 @@
       <c r="B65" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="7">
         <v>2</v>
       </c>
       <c r="D65" s="3">
@@ -8192,29 +8194,29 @@
       <c r="B66" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="8">
         <v>2</v>
       </c>
-      <c r="D66" s="9">
-        <v>1</v>
-      </c>
-      <c r="E66" s="9">
+      <c r="D66" s="8">
+        <v>1</v>
+      </c>
+      <c r="E66" s="8">
         <v>10000</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9" t="s">
+      <c r="G66" s="8"/>
+      <c r="H66" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I66" s="9" t="s">
+      <c r="I66" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="J66" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K66" s="9" t="s">
+      <c r="K66" s="8" t="s">
         <v>386</v>
       </c>
       <c r="L66" s="3" t="s">
@@ -8231,29 +8233,29 @@
       <c r="B67" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="8">
         <v>2</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="8">
         <v>3</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="8">
         <v>250</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9" t="s">
+      <c r="G67" s="8"/>
+      <c r="H67" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="I67" s="9" t="s">
+      <c r="I67" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J67" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="K67" s="9"/>
+      <c r="K67" s="8"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3" t="s">
         <v>705</v>
@@ -8263,16 +8265,16 @@
       <c r="A68" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="7">
         <v>2</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="7">
         <v>4</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E68" s="7">
         <v>50</v>
       </c>
       <c r="F68" s="3" t="s">
@@ -8297,25 +8299,25 @@
       <c r="B69" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="8">
         <v>3</v>
       </c>
-      <c r="D69" s="9">
-        <v>1</v>
-      </c>
-      <c r="E69" s="9">
+      <c r="D69" s="8">
+        <v>1</v>
+      </c>
+      <c r="E69" s="8">
         <v>10000</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9" t="s">
+      <c r="G69" s="8"/>
+      <c r="H69" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3" t="s">
         <v>694</v>
@@ -8328,29 +8330,29 @@
       <c r="B70" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="8">
         <v>3</v>
       </c>
-      <c r="D70" s="9">
-        <v>1</v>
-      </c>
-      <c r="E70" s="9">
+      <c r="D70" s="8">
+        <v>1</v>
+      </c>
+      <c r="E70" s="8">
         <v>10000</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9" t="s">
+      <c r="G70" s="8"/>
+      <c r="H70" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="I70" s="9" t="s">
+      <c r="I70" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="J70" s="9" t="s">
+      <c r="J70" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="K70" s="9" t="s">
+      <c r="K70" s="8" t="s">
         <v>712</v>
       </c>
       <c r="L70" s="3"/>
@@ -8365,29 +8367,29 @@
       <c r="B71" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="8">
         <v>4</v>
       </c>
-      <c r="D71" s="9">
-        <v>1</v>
-      </c>
-      <c r="E71" s="9">
+      <c r="D71" s="8">
+        <v>1</v>
+      </c>
+      <c r="E71" s="8">
         <v>10000</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9" t="s">
+      <c r="G71" s="8"/>
+      <c r="H71" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="I71" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J71" s="9" t="s">
+      <c r="J71" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K71" s="9"/>
+      <c r="K71" s="8"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3" t="s">
         <v>709</v>
@@ -8400,7 +8402,7 @@
       <c r="B72" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="7">
         <v>5</v>
       </c>
       <c r="D72" s="3">
@@ -8435,29 +8437,29 @@
       <c r="B73" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="8">
         <v>5</v>
       </c>
-      <c r="D73" s="9">
-        <v>1</v>
-      </c>
-      <c r="E73" s="9">
+      <c r="D73" s="8">
+        <v>1</v>
+      </c>
+      <c r="E73" s="8">
         <v>10000</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F73" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9" t="s">
+      <c r="G73" s="8"/>
+      <c r="H73" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="I73" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="J73" s="9" t="s">
+      <c r="J73" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K73" s="9"/>
+      <c r="K73" s="8"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3" t="s">
         <v>696</v>
@@ -8470,31 +8472,31 @@
       <c r="B74" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="8">
         <v>5</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="8">
         <v>4</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="8">
         <v>50</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G74" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="H74" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="I74" s="9" t="s">
+      <c r="I74" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="J74" s="9" t="s">
+      <c r="J74" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="K74" s="9" t="s">
+      <c r="K74" s="8" t="s">
         <v>384</v>
       </c>
       <c r="L74" s="3"/>
@@ -8509,27 +8511,27 @@
       <c r="B75" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="C75" s="9">
-        <v>1</v>
-      </c>
-      <c r="D75" s="9">
-        <v>1</v>
-      </c>
-      <c r="E75" s="9">
+      <c r="C75" s="8">
+        <v>1</v>
+      </c>
+      <c r="D75" s="8">
+        <v>1</v>
+      </c>
+      <c r="E75" s="8">
         <v>10000</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9" t="s">
+      <c r="G75" s="8"/>
+      <c r="H75" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="I75" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
+      <c r="I75" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3" t="s">
         <v>722</v>
@@ -8542,29 +8544,29 @@
       <c r="B76" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="8">
         <v>2</v>
       </c>
-      <c r="D76" s="9">
-        <v>1</v>
-      </c>
-      <c r="E76" s="9">
+      <c r="D76" s="8">
+        <v>1</v>
+      </c>
+      <c r="E76" s="8">
         <v>10000</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9" t="s">
+      <c r="G76" s="8"/>
+      <c r="H76" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="I76" s="9" t="s">
+      <c r="I76" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="J76" s="9" t="s">
+      <c r="J76" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K76" s="9"/>
+      <c r="K76" s="8"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3" t="s">
         <v>648</v>
@@ -8577,29 +8579,29 @@
       <c r="B77" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="8">
         <v>2</v>
       </c>
-      <c r="D77" s="9">
-        <v>1</v>
-      </c>
-      <c r="E77" s="9">
+      <c r="D77" s="8">
+        <v>1</v>
+      </c>
+      <c r="E77" s="8">
         <v>10000</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="F77" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9" t="s">
+      <c r="G77" s="8"/>
+      <c r="H77" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="I77" s="9" t="s">
+      <c r="I77" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="J77" s="9" t="s">
+      <c r="J77" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="K77" s="9"/>
+      <c r="K77" s="8"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3" t="s">
         <v>622</v>
@@ -8612,29 +8614,29 @@
       <c r="B78" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="8">
         <v>3</v>
       </c>
-      <c r="D78" s="9">
-        <v>1</v>
-      </c>
-      <c r="E78" s="9">
+      <c r="D78" s="8">
+        <v>1</v>
+      </c>
+      <c r="E78" s="8">
         <v>10000</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9" t="s">
+      <c r="G78" s="8"/>
+      <c r="H78" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="I78" s="9" t="s">
+      <c r="I78" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="J78" s="9" t="s">
+      <c r="J78" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="K78" s="9"/>
+      <c r="K78" s="8"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3" t="s">
         <v>720</v>
@@ -8644,16 +8646,16 @@
       <c r="A79" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="7" t="s">
         <v>892</v>
       </c>
-      <c r="C79" s="8">
-        <v>1</v>
-      </c>
-      <c r="D79" s="8">
-        <v>1</v>
-      </c>
-      <c r="E79" s="8">
+      <c r="C79" s="7">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7">
+        <v>1</v>
+      </c>
+      <c r="E79" s="7">
         <v>10000</v>
       </c>
       <c r="F79" s="3" t="s">
@@ -8684,29 +8686,29 @@
       <c r="B80" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="8">
         <v>2</v>
       </c>
-      <c r="D80" s="9">
-        <v>1</v>
-      </c>
-      <c r="E80" s="9">
+      <c r="D80" s="8">
+        <v>1</v>
+      </c>
+      <c r="E80" s="8">
         <v>10000</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9" t="s">
+      <c r="G80" s="8"/>
+      <c r="H80" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I80" s="9" t="s">
+      <c r="I80" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J80" s="9" t="s">
+      <c r="J80" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="K80" s="9"/>
+      <c r="K80" s="8"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3" t="s">
         <v>713</v>
@@ -8719,29 +8721,29 @@
       <c r="B81" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="8">
         <v>2</v>
       </c>
-      <c r="D81" s="9">
-        <v>1</v>
-      </c>
-      <c r="E81" s="9">
+      <c r="D81" s="8">
+        <v>1</v>
+      </c>
+      <c r="E81" s="8">
         <v>10000</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F81" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9" t="s">
+      <c r="G81" s="8"/>
+      <c r="H81" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="I81" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J81" s="9" t="s">
+      <c r="I81" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J81" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="K81" s="9"/>
+      <c r="K81" s="8"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3" t="s">
         <v>692</v>
@@ -8754,29 +8756,29 @@
       <c r="B82" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="8">
         <v>2</v>
       </c>
-      <c r="D82" s="9">
-        <v>1</v>
-      </c>
-      <c r="E82" s="9">
+      <c r="D82" s="8">
+        <v>1</v>
+      </c>
+      <c r="E82" s="8">
         <v>10000</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="F82" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9" t="s">
+      <c r="G82" s="8"/>
+      <c r="H82" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I82" s="9" t="s">
+      <c r="I82" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J82" s="9" t="s">
+      <c r="J82" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="K82" s="9"/>
+      <c r="K82" s="8"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3" t="s">
         <v>713</v>
@@ -8789,29 +8791,29 @@
       <c r="B83" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="8">
         <v>2</v>
       </c>
-      <c r="D83" s="9">
-        <v>1</v>
-      </c>
-      <c r="E83" s="9">
+      <c r="D83" s="8">
+        <v>1</v>
+      </c>
+      <c r="E83" s="8">
         <v>10000</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9" t="s">
+      <c r="G83" s="8"/>
+      <c r="H83" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="I83" s="9" t="s">
+      <c r="I83" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J83" s="9" t="s">
+      <c r="J83" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="K83" s="9"/>
+      <c r="K83" s="8"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3" t="s">
         <v>713</v>
@@ -8821,16 +8823,16 @@
       <c r="A84" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="7">
         <v>2</v>
       </c>
-      <c r="D84" s="8">
-        <v>1</v>
-      </c>
-      <c r="E84" s="8">
+      <c r="D84" s="7">
+        <v>1</v>
+      </c>
+      <c r="E84" s="7">
         <v>10000</v>
       </c>
       <c r="F84" s="3" t="s">
@@ -8856,16 +8858,16 @@
       <c r="A85" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="7" t="s">
         <v>894</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="7">
         <v>3</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="7">
         <v>3</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E85" s="7">
         <v>250</v>
       </c>
       <c r="F85" s="3" t="s">
@@ -8898,29 +8900,29 @@
       <c r="B86" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="8">
         <v>2</v>
       </c>
-      <c r="D86" s="9">
-        <v>1</v>
-      </c>
-      <c r="E86" s="9">
+      <c r="D86" s="8">
+        <v>1</v>
+      </c>
+      <c r="E86" s="8">
         <v>10000</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9" t="s">
+      <c r="G86" s="8"/>
+      <c r="H86" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="I86" s="9" t="s">
+      <c r="I86" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J86" s="9" t="s">
+      <c r="J86" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K86" s="9"/>
+      <c r="K86" s="8"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3" t="s">
         <v>670</v>
@@ -8933,29 +8935,29 @@
       <c r="B87" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="8">
         <v>3</v>
       </c>
-      <c r="D87" s="9">
-        <v>1</v>
-      </c>
-      <c r="E87" s="9">
+      <c r="D87" s="8">
+        <v>1</v>
+      </c>
+      <c r="E87" s="8">
         <v>10000</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="F87" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9" t="s">
+      <c r="G87" s="8"/>
+      <c r="H87" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I87" s="9" t="s">
+      <c r="I87" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J87" s="9" t="s">
+      <c r="J87" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K87" s="9"/>
+      <c r="K87" s="8"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3" t="s">
         <v>733</v>
@@ -8968,29 +8970,29 @@
       <c r="B88" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="8">
         <v>4</v>
       </c>
-      <c r="D88" s="9">
-        <v>1</v>
-      </c>
-      <c r="E88" s="9">
+      <c r="D88" s="8">
+        <v>1</v>
+      </c>
+      <c r="E88" s="8">
         <v>10000</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9" t="s">
+      <c r="G88" s="8"/>
+      <c r="H88" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="I88" s="9" t="s">
+      <c r="I88" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J88" s="9" t="s">
+      <c r="J88" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K88" s="9" t="s">
+      <c r="K88" s="8" t="s">
         <v>443</v>
       </c>
       <c r="L88" s="3"/>
@@ -9005,29 +9007,29 @@
       <c r="B89" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="8">
         <v>4</v>
       </c>
-      <c r="D89" s="9">
-        <v>1</v>
-      </c>
-      <c r="E89" s="9">
+      <c r="D89" s="8">
+        <v>1</v>
+      </c>
+      <c r="E89" s="8">
         <v>10000</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F89" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9" t="s">
+      <c r="G89" s="8"/>
+      <c r="H89" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="I89" s="9" t="s">
+      <c r="I89" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="J89" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K89" s="9"/>
+      <c r="J89" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K89" s="8"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3" t="s">
         <v>692</v>
@@ -9038,16 +9040,16 @@
       <c r="A90" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="7" t="s">
         <v>893</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="7">
         <v>4</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="7">
         <v>3</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E90" s="7">
         <v>250</v>
       </c>
       <c r="F90" s="3" t="s">
@@ -9081,31 +9083,31 @@
       <c r="B91" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="8">
         <v>2</v>
       </c>
-      <c r="D91" s="9">
-        <v>1</v>
-      </c>
-      <c r="E91" s="9">
+      <c r="D91" s="8">
+        <v>1</v>
+      </c>
+      <c r="E91" s="8">
         <v>10000</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="F91" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G91" s="9" t="s">
+      <c r="G91" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="9" t="s">
+      <c r="H91" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I91" s="9" t="s">
+      <c r="I91" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="J91" s="9" t="s">
+      <c r="J91" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K91" s="9"/>
+      <c r="K91" s="8"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3" t="s">
         <v>637</v>
@@ -9119,31 +9121,31 @@
       <c r="B92" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="8">
         <v>3</v>
       </c>
-      <c r="D92" s="9">
-        <v>1</v>
-      </c>
-      <c r="E92" s="9">
+      <c r="D92" s="8">
+        <v>1</v>
+      </c>
+      <c r="E92" s="8">
         <v>10000</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="F92" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G92" s="9" t="s">
+      <c r="G92" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H92" s="9" t="s">
+      <c r="H92" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="I92" s="9" t="s">
+      <c r="I92" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="J92" s="9" t="s">
+      <c r="J92" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K92" s="9"/>
+      <c r="K92" s="8"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3" t="s">
         <v>740</v>
@@ -9157,29 +9159,29 @@
       <c r="B93" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="8">
         <v>4</v>
       </c>
-      <c r="D93" s="9">
-        <v>1</v>
-      </c>
-      <c r="E93" s="9">
+      <c r="D93" s="8">
+        <v>1</v>
+      </c>
+      <c r="E93" s="8">
         <v>10000</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9" t="s">
+      <c r="G93" s="8"/>
+      <c r="H93" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="I93" s="9" t="s">
+      <c r="I93" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="J93" s="9" t="s">
+      <c r="J93" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="K93" s="9" t="s">
+      <c r="K93" s="8" t="s">
         <v>441</v>
       </c>
       <c r="L93" s="3"/>
@@ -9195,29 +9197,29 @@
       <c r="B94" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="8">
         <v>4</v>
       </c>
-      <c r="D94" s="9">
-        <v>1</v>
-      </c>
-      <c r="E94" s="9">
+      <c r="D94" s="8">
+        <v>1</v>
+      </c>
+      <c r="E94" s="8">
         <v>10000</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9" t="s">
+      <c r="G94" s="8"/>
+      <c r="H94" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I94" s="9" t="s">
+      <c r="I94" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="J94" s="9" t="s">
+      <c r="J94" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K94" s="9" t="s">
+      <c r="K94" s="8" t="s">
         <v>452</v>
       </c>
       <c r="L94" s="3"/>
@@ -9233,29 +9235,29 @@
       <c r="B95" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="C95" s="9">
-        <v>1</v>
-      </c>
-      <c r="D95" s="9">
+      <c r="C95" s="8">
+        <v>1</v>
+      </c>
+      <c r="D95" s="8">
         <v>4</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E95" s="8">
         <v>50</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9" t="s">
+      <c r="G95" s="8"/>
+      <c r="H95" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I95" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J95" s="9" t="s">
+      <c r="I95" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J95" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="K95" s="9"/>
+      <c r="K95" s="8"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3" t="s">
         <v>637</v>
@@ -9266,16 +9268,16 @@
       <c r="A96" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="C96" s="8">
-        <v>1</v>
-      </c>
-      <c r="D96" s="8">
-        <v>1</v>
-      </c>
-      <c r="E96" s="8">
+      <c r="C96" s="7">
+        <v>1</v>
+      </c>
+      <c r="D96" s="7">
+        <v>1</v>
+      </c>
+      <c r="E96" s="7">
         <v>10000</v>
       </c>
       <c r="F96" s="3" t="s">
@@ -9305,29 +9307,29 @@
       <c r="B97" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C97" s="8">
         <v>2</v>
       </c>
-      <c r="D97" s="9">
-        <v>1</v>
-      </c>
-      <c r="E97" s="9">
+      <c r="D97" s="8">
+        <v>1</v>
+      </c>
+      <c r="E97" s="8">
         <v>10000</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="F97" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9" t="s">
+      <c r="G97" s="8"/>
+      <c r="H97" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="I97" s="9" t="s">
+      <c r="I97" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="J97" s="9" t="s">
+      <c r="J97" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K97" s="9"/>
+      <c r="K97" s="8"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3" t="s">
         <v>744</v>
@@ -9340,29 +9342,29 @@
       <c r="B98" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C98" s="8">
         <v>2</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D98" s="8">
         <v>4</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E98" s="8">
         <v>50</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="F98" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9" t="s">
+      <c r="G98" s="8"/>
+      <c r="H98" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I98" s="9" t="s">
+      <c r="I98" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="J98" s="9" t="s">
+      <c r="J98" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="K98" s="9"/>
+      <c r="K98" s="8"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3" t="s">
         <v>713</v>
@@ -9378,29 +9380,29 @@
       <c r="B99" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99" s="8">
         <v>2</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99" s="8">
         <v>4</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E99" s="8">
         <v>50</v>
       </c>
-      <c r="F99" s="9" t="s">
+      <c r="F99" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9" t="s">
+      <c r="G99" s="8"/>
+      <c r="H99" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I99" s="9" t="s">
+      <c r="I99" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="J99" s="9" t="s">
+      <c r="J99" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="K99" s="9"/>
+      <c r="K99" s="8"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3" t="s">
         <v>713</v>
@@ -9413,29 +9415,29 @@
       <c r="B100" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C100" s="8">
         <v>2</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="8">
         <v>4</v>
       </c>
-      <c r="E100" s="9">
+      <c r="E100" s="8">
         <v>50</v>
       </c>
-      <c r="F100" s="9" t="s">
+      <c r="F100" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9" t="s">
+      <c r="G100" s="8"/>
+      <c r="H100" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I100" s="9" t="s">
+      <c r="I100" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="J100" s="9" t="s">
+      <c r="J100" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="K100" s="9"/>
+      <c r="K100" s="8"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3" t="s">
         <v>713</v>
@@ -9448,29 +9450,29 @@
       <c r="B101" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C101" s="8">
         <v>2</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="8">
         <v>4</v>
       </c>
-      <c r="E101" s="9">
+      <c r="E101" s="8">
         <v>50</v>
       </c>
-      <c r="F101" s="9" t="s">
+      <c r="F101" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9" t="s">
+      <c r="G101" s="8"/>
+      <c r="H101" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I101" s="9" t="s">
+      <c r="I101" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="J101" s="9" t="s">
+      <c r="J101" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="K101" s="9"/>
+      <c r="K101" s="8"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3" t="s">
         <v>713</v>
@@ -9483,29 +9485,29 @@
       <c r="B102" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="8">
         <v>2</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="8">
         <v>2</v>
       </c>
-      <c r="E102" s="9">
+      <c r="E102" s="8">
         <v>2500</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="F102" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9" t="s">
+      <c r="G102" s="8"/>
+      <c r="H102" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="9" t="s">
+      <c r="I102" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J102" s="9" t="s">
+      <c r="J102" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="K102" s="9"/>
+      <c r="K102" s="8"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3" t="s">
         <v>720</v>
@@ -9515,16 +9517,16 @@
       <c r="A103" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="7" t="s">
         <v>901</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103" s="7">
         <v>2</v>
       </c>
-      <c r="D103" s="8">
+      <c r="D103" s="7">
         <v>4</v>
       </c>
-      <c r="E103" s="8">
+      <c r="E103" s="7">
         <v>50</v>
       </c>
       <c r="F103" s="3" t="s">
@@ -9557,29 +9559,29 @@
       <c r="B104" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="8">
         <v>3</v>
       </c>
-      <c r="D104" s="9">
-        <v>1</v>
-      </c>
-      <c r="E104" s="9">
+      <c r="D104" s="8">
+        <v>1</v>
+      </c>
+      <c r="E104" s="8">
         <v>10000</v>
       </c>
-      <c r="F104" s="9" t="s">
+      <c r="F104" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9" t="s">
+      <c r="G104" s="8"/>
+      <c r="H104" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I104" s="9" t="s">
+      <c r="I104" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="J104" s="9" t="s">
+      <c r="J104" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="K104" s="9"/>
+      <c r="K104" s="8"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3" t="s">
         <v>709</v>
@@ -9592,29 +9594,29 @@
       <c r="B105" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C105" s="8">
         <v>4</v>
       </c>
-      <c r="D105" s="9">
+      <c r="D105" s="8">
         <v>4</v>
       </c>
-      <c r="E105" s="9">
+      <c r="E105" s="8">
         <v>50</v>
       </c>
-      <c r="F105" s="9" t="s">
+      <c r="F105" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9" t="s">
+      <c r="G105" s="8"/>
+      <c r="H105" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="I105" s="9" t="s">
+      <c r="I105" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="J105" s="9" t="s">
+      <c r="J105" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="K105" s="9"/>
+      <c r="K105" s="8"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3" t="s">
         <v>661</v>
@@ -9624,16 +9626,16 @@
       <c r="A106" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="7" t="s">
         <v>897</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="7">
         <v>4</v>
       </c>
-      <c r="D106" s="8">
+      <c r="D106" s="7">
         <v>4</v>
       </c>
-      <c r="E106" s="8">
+      <c r="E106" s="7">
         <v>50</v>
       </c>
       <c r="F106" s="3" t="s">
@@ -9662,29 +9664,29 @@
       <c r="B107" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="8">
         <v>5</v>
       </c>
-      <c r="D107" s="9">
-        <v>1</v>
-      </c>
-      <c r="E107" s="9">
+      <c r="D107" s="8">
+        <v>1</v>
+      </c>
+      <c r="E107" s="8">
         <v>10000</v>
       </c>
-      <c r="F107" s="9" t="s">
+      <c r="F107" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="G107" s="9" t="s">
+      <c r="G107" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="H107" s="9" t="s">
+      <c r="H107" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="I107" s="9" t="s">
+      <c r="I107" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
       <c r="L107" s="3"/>
       <c r="M107" s="3" t="s">
         <v>624</v>
@@ -9837,27 +9839,27 @@
       <c r="B112" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="C112" s="9">
+      <c r="C112" s="8">
         <v>3</v>
       </c>
-      <c r="D112" s="9">
-        <v>1</v>
-      </c>
-      <c r="E112" s="9">
+      <c r="D112" s="8">
+        <v>1</v>
+      </c>
+      <c r="E112" s="8">
         <v>10000</v>
       </c>
-      <c r="F112" s="9" t="s">
+      <c r="F112" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9" t="s">
+      <c r="G112" s="8"/>
+      <c r="H112" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I112" s="9" t="s">
+      <c r="I112" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J112" s="9"/>
-      <c r="K112" s="9"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3" t="s">
         <v>670</v>
@@ -10191,16 +10193,16 @@
       <c r="A122" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="C122" s="8">
+      <c r="C122" s="7">
         <v>3</v>
       </c>
-      <c r="D122" s="9">
-        <v>1</v>
-      </c>
-      <c r="E122" s="9">
+      <c r="D122" s="8">
+        <v>1</v>
+      </c>
+      <c r="E122" s="8">
         <v>10000</v>
       </c>
       <c r="F122" s="3" t="s">
@@ -10226,16 +10228,16 @@
       <c r="A123" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="C123" s="8">
+      <c r="C123" s="7">
         <v>3</v>
       </c>
-      <c r="D123" s="9">
-        <v>1</v>
-      </c>
-      <c r="E123" s="9">
+      <c r="D123" s="8">
+        <v>1</v>
+      </c>
+      <c r="E123" s="8">
         <v>10000</v>
       </c>
       <c r="F123" s="3" t="s">
@@ -10261,16 +10263,16 @@
       <c r="A124" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="8" t="s">
         <v>848</v>
       </c>
-      <c r="C124" s="8">
+      <c r="C124" s="7">
         <v>3</v>
       </c>
-      <c r="D124" s="9">
-        <v>1</v>
-      </c>
-      <c r="E124" s="9">
+      <c r="D124" s="8">
+        <v>1</v>
+      </c>
+      <c r="E124" s="8">
         <v>10000</v>
       </c>
       <c r="F124" s="3" t="s">
@@ -10438,16 +10440,16 @@
       <c r="A129" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="C129" s="8">
-        <v>1</v>
-      </c>
-      <c r="D129" s="8">
-        <v>1</v>
-      </c>
-      <c r="E129" s="8">
+      <c r="C129" s="7">
+        <v>1</v>
+      </c>
+      <c r="D129" s="7">
+        <v>1</v>
+      </c>
+      <c r="E129" s="7">
         <v>10000</v>
       </c>
       <c r="F129" s="3" t="s">
@@ -10473,16 +10475,16 @@
       <c r="A130" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="C130" s="8">
-        <v>1</v>
-      </c>
-      <c r="D130" s="8">
-        <v>1</v>
-      </c>
-      <c r="E130" s="8">
+      <c r="C130" s="7">
+        <v>1</v>
+      </c>
+      <c r="D130" s="7">
+        <v>1</v>
+      </c>
+      <c r="E130" s="7">
         <v>10000</v>
       </c>
       <c r="F130" s="3" t="s">
@@ -10506,16 +10508,16 @@
       <c r="A131" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="8" t="s">
         <v>849</v>
       </c>
-      <c r="C131" s="8">
+      <c r="C131" s="7">
         <v>2</v>
       </c>
-      <c r="D131" s="9">
-        <v>1</v>
-      </c>
-      <c r="E131" s="9">
+      <c r="D131" s="8">
+        <v>1</v>
+      </c>
+      <c r="E131" s="8">
         <v>10000</v>
       </c>
       <c r="F131" s="3" t="s">
@@ -10545,16 +10547,16 @@
       <c r="A132" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="C132" s="8">
+      <c r="C132" s="7">
         <v>3</v>
       </c>
-      <c r="D132" s="8">
-        <v>1</v>
-      </c>
-      <c r="E132" s="8">
+      <c r="D132" s="7">
+        <v>1</v>
+      </c>
+      <c r="E132" s="7">
         <v>10000</v>
       </c>
       <c r="F132" s="3" t="s">
@@ -10578,16 +10580,16 @@
       <c r="A133" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="C133" s="8">
+      <c r="C133" s="7">
         <v>3</v>
       </c>
-      <c r="D133" s="9">
-        <v>1</v>
-      </c>
-      <c r="E133" s="9">
+      <c r="D133" s="8">
+        <v>1</v>
+      </c>
+      <c r="E133" s="8">
         <v>10000</v>
       </c>
       <c r="F133" s="3" t="s">
@@ -10615,16 +10617,16 @@
       <c r="A134" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="C134" s="8">
+      <c r="C134" s="7">
         <v>4</v>
       </c>
-      <c r="D134" s="8">
+      <c r="D134" s="7">
         <v>4</v>
       </c>
-      <c r="E134" s="8">
+      <c r="E134" s="7">
         <v>50</v>
       </c>
       <c r="F134" s="3" t="s">
@@ -10650,16 +10652,16 @@
       <c r="A135" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="C135" s="8">
+      <c r="C135" s="7">
         <v>4</v>
       </c>
-      <c r="D135" s="8">
+      <c r="D135" s="7">
         <v>4</v>
       </c>
-      <c r="E135" s="8">
+      <c r="E135" s="7">
         <v>50</v>
       </c>
       <c r="F135" s="3" t="s">
@@ -10685,16 +10687,16 @@
       <c r="A136" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="C136" s="8">
+      <c r="C136" s="7">
         <v>4</v>
       </c>
-      <c r="D136" s="8">
+      <c r="D136" s="7">
         <v>4</v>
       </c>
-      <c r="E136" s="8">
+      <c r="E136" s="7">
         <v>50</v>
       </c>
       <c r="F136" s="3" t="s">
@@ -10720,16 +10722,16 @@
       <c r="A137" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="C137" s="8">
+      <c r="C137" s="7">
         <v>4</v>
       </c>
-      <c r="D137" s="8">
+      <c r="D137" s="7">
         <v>4</v>
       </c>
-      <c r="E137" s="8">
+      <c r="E137" s="7">
         <v>50</v>
       </c>
       <c r="F137" s="3" t="s">
@@ -10755,16 +10757,16 @@
       <c r="A138" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="8" t="s">
         <v>907</v>
       </c>
-      <c r="C138" s="9">
+      <c r="C138" s="8">
         <v>5</v>
       </c>
-      <c r="D138" s="9">
+      <c r="D138" s="8">
         <v>4</v>
       </c>
-      <c r="E138" s="9">
+      <c r="E138" s="8">
         <v>50</v>
       </c>
       <c r="F138" s="4" t="s">
@@ -10794,16 +10796,16 @@
       <c r="A139" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="8" t="s">
         <v>908</v>
       </c>
-      <c r="C139" s="9">
+      <c r="C139" s="8">
         <v>5</v>
       </c>
-      <c r="D139" s="9">
+      <c r="D139" s="8">
         <v>4</v>
       </c>
-      <c r="E139" s="9">
+      <c r="E139" s="8">
         <v>50</v>
       </c>
       <c r="F139" s="4" t="s">
@@ -10833,16 +10835,16 @@
       <c r="A140" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="8" t="s">
         <v>844</v>
       </c>
-      <c r="C140" s="8">
+      <c r="C140" s="7">
         <v>2</v>
       </c>
-      <c r="D140" s="9">
-        <v>1</v>
-      </c>
-      <c r="E140" s="9">
+      <c r="D140" s="8">
+        <v>1</v>
+      </c>
+      <c r="E140" s="8">
         <v>10000</v>
       </c>
       <c r="F140" s="3" t="s">
@@ -10868,16 +10870,16 @@
       <c r="A141" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="8" t="s">
         <v>841</v>
       </c>
-      <c r="C141" s="8">
+      <c r="C141" s="7">
         <v>4</v>
       </c>
-      <c r="D141" s="9">
-        <v>1</v>
-      </c>
-      <c r="E141" s="9">
+      <c r="D141" s="8">
+        <v>1</v>
+      </c>
+      <c r="E141" s="8">
         <v>10000</v>
       </c>
       <c r="F141" s="3" t="s">
@@ -10903,16 +10905,16 @@
       <c r="A142" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="8" t="s">
         <v>927</v>
       </c>
-      <c r="C142" s="9">
+      <c r="C142" s="8">
         <v>4</v>
       </c>
-      <c r="D142" s="9">
+      <c r="D142" s="8">
         <v>3</v>
       </c>
-      <c r="E142" s="9">
+      <c r="E142" s="8">
         <v>250</v>
       </c>
       <c r="F142" s="4" t="s">
@@ -10938,16 +10940,16 @@
       <c r="A143" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="8" t="s">
         <v>924</v>
       </c>
-      <c r="C143" s="9">
-        <v>1</v>
-      </c>
-      <c r="D143" s="9">
-        <v>1</v>
-      </c>
-      <c r="E143" s="9">
+      <c r="C143" s="8">
+        <v>1</v>
+      </c>
+      <c r="D143" s="8">
+        <v>1</v>
+      </c>
+      <c r="E143" s="8">
         <v>10000</v>
       </c>
       <c r="F143" s="4" t="s">
@@ -10973,10 +10975,10 @@
       <c r="A144" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="8" t="s">
         <v>925</v>
       </c>
-      <c r="C144" s="9">
+      <c r="C144" s="8">
         <v>3</v>
       </c>
       <c r="D144" s="3">
@@ -11010,16 +11012,16 @@
       <c r="A145" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="8" t="s">
         <v>922</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
       </c>
-      <c r="D145" s="9">
-        <v>1</v>
-      </c>
-      <c r="E145" s="9">
+      <c r="D145" s="8">
+        <v>1</v>
+      </c>
+      <c r="E145" s="8">
         <v>10000</v>
       </c>
       <c r="F145" s="4" t="s">
@@ -11043,16 +11045,16 @@
       <c r="A146" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="8" t="s">
         <v>928</v>
       </c>
       <c r="C146" s="3">
         <v>2</v>
       </c>
-      <c r="D146" s="9">
+      <c r="D146" s="8">
         <v>2</v>
       </c>
-      <c r="E146" s="9">
+      <c r="E146" s="8">
         <v>2500</v>
       </c>
       <c r="F146" s="4" t="s">
@@ -11080,16 +11082,16 @@
       <c r="A147" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="8" t="s">
         <v>926</v>
       </c>
       <c r="C147" s="3">
         <v>3</v>
       </c>
-      <c r="D147" s="9">
+      <c r="D147" s="8">
         <v>2</v>
       </c>
-      <c r="E147" s="9">
+      <c r="E147" s="8">
         <v>2500</v>
       </c>
       <c r="F147" s="4" t="s">
@@ -11127,10 +11129,10 @@
       <c r="C148" s="3">
         <v>2</v>
       </c>
-      <c r="D148" s="9">
-        <v>1</v>
-      </c>
-      <c r="E148" s="9">
+      <c r="D148" s="8">
+        <v>1</v>
+      </c>
+      <c r="E148" s="8">
         <v>10000</v>
       </c>
       <c r="F148" s="4" t="s">
@@ -11155,39 +11157,83 @@
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="C149" s="2">
-        <v>1</v>
-      </c>
-      <c r="D149" s="10">
+      <c r="C149" s="3">
+        <v>1</v>
+      </c>
+      <c r="D149" s="8">
         <v>4</v>
       </c>
-      <c r="E149" s="10">
+      <c r="E149" s="8">
         <v>50</v>
       </c>
-      <c r="F149" s="5" t="s">
+      <c r="F149" s="4" t="s">
         <v>934</v>
       </c>
-      <c r="G149" s="2"/>
-      <c r="H149" s="5" t="s">
+      <c r="G149" s="3"/>
+      <c r="H149" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="I149" s="5" t="s">
+      <c r="I149" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J149" s="5" t="s">
+      <c r="J149" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
-      <c r="M149" s="5" t="s">
+      <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="4" t="s">
         <v>932</v>
       </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C150" s="10">
+        <v>10</v>
+      </c>
+      <c r="D150" s="2">
+        <v>1</v>
+      </c>
+      <c r="E150" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A143:E149">
@@ -11205,7 +11251,7 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79039AC-22EF-42FD-AE8D-7DD106F07648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAD5C2A-7A51-44F4-A949-6981AA16839D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D4271B40-E291-4F7D-B212-DFF8B5827327}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="950">
   <si>
     <t>armor_percent</t>
   </si>
@@ -2843,6 +2843,48 @@
   </si>
   <si>
     <t>blaze_bow</t>
+  </si>
+  <si>
+    <t>gheeds_fortune</t>
+  </si>
+  <si>
+    <t>0.25 sta</t>
+  </si>
+  <si>
+    <t>0.5 sta</t>
+  </si>
+  <si>
+    <t>0.25 sta, 0.25 int</t>
+  </si>
+  <si>
+    <t>0.25 sta, 0.25 vit</t>
+  </si>
+  <si>
+    <t>0.25 sta, 0.25 dex</t>
+  </si>
+  <si>
+    <t>0.25 sta, 0.25 str</t>
+  </si>
+  <si>
+    <t>0.25 sta, 0.25 wis</t>
+  </si>
+  <si>
+    <t>hellfire_ocean</t>
+  </si>
+  <si>
+    <t>hellfire_fire</t>
+  </si>
+  <si>
+    <t>hellfire_storm</t>
+  </si>
+  <si>
+    <t>hellfire_nature</t>
+  </si>
+  <si>
+    <t>hellfire_hunting</t>
+  </si>
+  <si>
+    <t>hellfire_divine</t>
   </si>
 </sst>
 </file>
@@ -2914,7 +2956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2925,7 +2967,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5827,10 +5870,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:N157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="G149" sqref="G149"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="M146" sqref="M146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6681,7 +6724,7 @@
         <v>655</v>
       </c>
       <c r="C24" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -6716,7 +6759,7 @@
         <v>656</v>
       </c>
       <c r="C25" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -6751,7 +6794,7 @@
         <v>657</v>
       </c>
       <c r="C26" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -6788,7 +6831,7 @@
         <v>658</v>
       </c>
       <c r="C27" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -11192,48 +11235,284 @@
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="C150" s="10">
+      <c r="C150" s="7">
         <v>10</v>
       </c>
-      <c r="D150" s="2">
-        <v>1</v>
-      </c>
-      <c r="E150" s="2">
+      <c r="D150" s="3">
+        <v>1</v>
+      </c>
+      <c r="E150" s="3">
         <v>10000</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="F150" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2" t="s">
+      <c r="G150" s="3"/>
+      <c r="H150" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="I150" s="2" t="s">
+      <c r="I150" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J150" s="2" t="s">
+      <c r="J150" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="K150" s="2" t="s">
+      <c r="K150" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2" t="s">
+      <c r="L150" s="3"/>
+      <c r="M150" s="3" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
+      <c r="A151" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="C151" s="4">
+        <v>3</v>
+      </c>
+      <c r="D151" s="8">
+        <v>2</v>
+      </c>
+      <c r="E151" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="3"/>
+      <c r="M151" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="C152" s="4">
+        <v>4</v>
+      </c>
+      <c r="D152" s="8">
+        <v>3</v>
+      </c>
+      <c r="E152" s="8">
+        <v>250</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K152" s="3"/>
+      <c r="L152" s="3"/>
+      <c r="M152" s="4" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="C153" s="4">
+        <v>4</v>
+      </c>
+      <c r="D153" s="8">
+        <v>3</v>
+      </c>
+      <c r="E153" s="8">
+        <v>250</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K153" s="3"/>
+      <c r="L153" s="3"/>
+      <c r="M153" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="C154" s="4">
+        <v>4</v>
+      </c>
+      <c r="D154" s="8">
+        <v>3</v>
+      </c>
+      <c r="E154" s="8">
+        <v>250</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K154" s="3"/>
+      <c r="L154" s="3"/>
+      <c r="M154" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="C155" s="4">
+        <v>4</v>
+      </c>
+      <c r="D155" s="8">
+        <v>3</v>
+      </c>
+      <c r="E155" s="8">
+        <v>250</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K155" s="3"/>
+      <c r="L155" s="3"/>
+      <c r="M155" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="C156" s="4">
+        <v>4</v>
+      </c>
+      <c r="D156" s="8">
+        <v>3</v>
+      </c>
+      <c r="E156" s="8">
+        <v>250</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K156" s="3"/>
+      <c r="L156" s="3"/>
+      <c r="M156" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="C157" s="10">
+        <v>4</v>
+      </c>
+      <c r="D157" s="11">
+        <v>3</v>
+      </c>
+      <c r="E157" s="11">
+        <v>250</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="10" t="s">
+        <v>940</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A143:E149">
@@ -11251,8 +11530,8 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD8919D-1AB9-40A2-8AB9-74BCCE0D4706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB61D53-94E8-4D62-BDD1-5EF038BCFFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32895" yWindow="2220" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{D4271B40-E291-4F7D-B212-DFF8B5827327}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D4271B40-E291-4F7D-B212-DFF8B5827327}"/>
   </bookViews>
   <sheets>
     <sheet name="Runewords" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="1012">
   <si>
     <t>armor_percent</t>
   </si>
@@ -2581,9 +2581,6 @@
     <t>the_searing_touch</t>
   </si>
   <si>
-    <t>whispering_ice</t>
-  </si>
-  <si>
     <t>ephemeral_edge</t>
   </si>
   <si>
@@ -2888,6 +2885,192 @@
   </si>
   <si>
     <t>Custom</t>
+  </si>
+  <si>
+    <t>the_whispering_ice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>cte_uniques:limbsplit</t>
+  </si>
+  <si>
+    <t>cte_uniques:soul_taker</t>
+  </si>
+  <si>
+    <t>cte_uniques:silverbranch</t>
+  </si>
+  <si>
+    <t>cte_uniques:ngamahus_flame</t>
+  </si>
+  <si>
+    <t>cte_uniques:chin_sol</t>
+  </si>
+  <si>
+    <t>cte_uniques:nuros_harp</t>
+  </si>
+  <si>
+    <t>cte_uniques:voltaxic_rift</t>
+  </si>
+  <si>
+    <t>cte_uniques:wurms_molt</t>
+  </si>
+  <si>
+    <t>cte_uniques:headhunter</t>
+  </si>
+  <si>
+    <t>cte_uniques:gheeds_fortune</t>
+  </si>
+  <si>
+    <t>cte_uniques:hellfire</t>
+  </si>
+  <si>
+    <t>cte_uniques:cloth_unique_4_chestplate</t>
+  </si>
+  <si>
+    <t>cte_uniques:cloth_unique_2_chestplate</t>
+  </si>
+  <si>
+    <t>cte_uniques:cloth_unique_1_chestplate</t>
+  </si>
+  <si>
+    <t>cte_uniques:cloth_unique_3_chestplate</t>
+  </si>
+  <si>
+    <t>cte_uniques:cloth_unique_2_helmet</t>
+  </si>
+  <si>
+    <t>cte_uniques:cloth_unique_3_helmet</t>
+  </si>
+  <si>
+    <t>cte_uniques:cloth_unique_4_helmet</t>
+  </si>
+  <si>
+    <t>cte_uniques:cloth_unique_3_leggings</t>
+  </si>
+  <si>
+    <t>cte_uniques:cloth_unique_4_leggings</t>
+  </si>
+  <si>
+    <t>cte_uniques:cloth_unique_2_leggings</t>
+  </si>
+  <si>
+    <t>cte_uniques:chaber_cairn</t>
+  </si>
+  <si>
+    <t>cte_uniques:frostbreath</t>
+  </si>
+  <si>
+    <t>cte_uniques:mjolner</t>
+  </si>
+  <si>
+    <t>cte_uniques:leather_unique_2_boots</t>
+  </si>
+  <si>
+    <t>cte_uniques:leather_unique_3_boots</t>
+  </si>
+  <si>
+    <t>cte_uniques:leather_unique_1_boots</t>
+  </si>
+  <si>
+    <t>cte_uniques:leather_unique_2_chestplate</t>
+  </si>
+  <si>
+    <t>cte_uniques:leather_unique_3_chestplate</t>
+  </si>
+  <si>
+    <t>cte_uniques:leather_unique_1_chestplate</t>
+  </si>
+  <si>
+    <t>cte_uniques:leather_unique_2_helmet</t>
+  </si>
+  <si>
+    <t>cte_uniques:leather_unique_3_helmet</t>
+  </si>
+  <si>
+    <t>cte_uniques:leather_unique_1_helmet</t>
+  </si>
+  <si>
+    <t>cte_uniques:leather_unique_4_helmet</t>
+  </si>
+  <si>
+    <t>cte_uniques:leather_unique_2_leggings</t>
+  </si>
+  <si>
+    <t>cte_uniques:leather_unique_1_leggings</t>
+  </si>
+  <si>
+    <t>cte_uniques:leather_unique_3_leggings</t>
+  </si>
+  <si>
+    <t>cte_uniques:karui_ward</t>
+  </si>
+  <si>
+    <t>cte_uniques:biscos_collar</t>
+  </si>
+  <si>
+    <t>cte_uniques:plate_unique_2_chestplate</t>
+  </si>
+  <si>
+    <t>cte_uniques:plate_unique_3_chestplate</t>
+  </si>
+  <si>
+    <t>cte_uniques:plate_unique_1_chestplate</t>
+  </si>
+  <si>
+    <t>cte_uniques:plate_unique_1_helmet</t>
+  </si>
+  <si>
+    <t>cte_uniques:plate_unique_3_leggings</t>
+  </si>
+  <si>
+    <t>cte_uniques:plate_unique_1_leggings</t>
+  </si>
+  <si>
+    <t>cte_uniques:manald_heal</t>
+  </si>
+  <si>
+    <t>cte_uniques:stone_of_jordan</t>
+  </si>
+  <si>
+    <t>cte_uniques:andvarius</t>
+  </si>
+  <si>
+    <t>cte_uniques:crest_of_perandus</t>
+  </si>
+  <si>
+    <t>cte_uniques:steelclash</t>
+  </si>
+  <si>
+    <t>cte_uniques:springleaf</t>
+  </si>
+  <si>
+    <t>cte_uniques:cane_of_unravelling</t>
+  </si>
+  <si>
+    <t>cte_uniques:the_searing_touch</t>
+  </si>
+  <si>
+    <t>cte_uniques:ephemeral_edge</t>
+  </si>
+  <si>
+    <t>cte_uniques:rebuke_of_the_vaal</t>
+  </si>
+  <si>
+    <t>cte_uniques:the_whispering_ice</t>
+  </si>
+  <si>
+    <t>cte_uniques:starforge</t>
+  </si>
+  <si>
+    <t>cte_uniques:cospris_malice</t>
+  </si>
+  <si>
+    <t>cte_uniques:lidless_wall</t>
+  </si>
+  <si>
+    <t>cte_uniques:rathpith_globe</t>
   </si>
 </sst>
 </file>
@@ -2938,7 +3121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2946,11 +3129,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2960,6 +3152,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4455,7 +4652,7 @@
         <v>599</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4802,7 +4999,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -4829,7 +5026,7 @@
         <v>22</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -4857,7 +5054,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>38</v>
@@ -4912,7 +5109,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -5214,7 +5411,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -5235,7 +5432,7 @@
         <v>6</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>8</v>
@@ -5244,10 +5441,10 @@
         <v>27</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -5531,7 +5728,7 @@
         <v>6</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>3</v>
@@ -5573,7 +5770,7 @@
         <v>6</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>363</v>
@@ -5615,10 +5812,10 @@
         <v>6</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>27</v>
@@ -5861,6087 +6058,6302 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:O157"/>
+  <dimension ref="A1:P157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="5" max="13" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="6" max="14" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="8" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>816</v>
       </c>
-      <c r="C2" s="7">
+      <c r="D2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
       <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
         <v>10000</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2"/>
+      <c r="N2" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="2"/>
+      <c r="P2" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>817</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="7">
         <v>3</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
       <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
         <v>10000</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2"/>
+      <c r="N3" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="D4" s="7">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
       <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
         <v>10000</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2"/>
+      <c r="N4" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B5" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="D5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
         <v>10000</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
+      <c r="M5" s="2"/>
+      <c r="N5" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>818</v>
       </c>
-      <c r="C6" s="7">
+      <c r="D6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
       <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
         <v>10000</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2"/>
+      <c r="N6" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>819</v>
       </c>
-      <c r="C7" s="6">
+      <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
       <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
         <v>10000</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="2"/>
+      <c r="N7" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="C8" s="6">
+      <c r="D8" s="6">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
       <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
         <v>10000</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="2"/>
+      <c r="N8" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="2"/>
+      <c r="P8" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>913</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
+      <c r="B9" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>912</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
         <v>10000</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2"/>
+      <c r="N9" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="C10" s="7">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7">
-        <v>4</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>870</v>
-      </c>
       <c r="K10" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="2"/>
+      <c r="P10" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="D11" s="3">
         <v>3</v>
       </c>
-      <c r="D11" s="7">
+      <c r="E11" s="7">
         <v>2</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11" s="7">
         <v>2500</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="3" t="s">
-        <v>937</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2" t="s">
+      <c r="M11" s="2"/>
+      <c r="N11" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>944</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="D12" s="3">
         <v>4</v>
       </c>
-      <c r="D12" s="7">
+      <c r="E12" s="7">
         <v>3</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12" s="7">
         <v>250</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="3" t="s">
-        <v>943</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2" t="s">
+      <c r="M12" s="2"/>
+      <c r="N12" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="D13" s="3">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="E13" s="7">
         <v>3</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13" s="7">
         <v>250</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2" t="s">
+      <c r="M13" s="2"/>
+      <c r="N13" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="D14" s="3">
         <v>4</v>
       </c>
-      <c r="D14" s="7">
+      <c r="E14" s="7">
         <v>3</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14" s="7">
         <v>250</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2" t="s">
+      <c r="M14" s="2"/>
+      <c r="N14" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="D15" s="3">
         <v>4</v>
       </c>
-      <c r="D15" s="7">
+      <c r="E15" s="7">
         <v>3</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15" s="7">
         <v>250</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2" t="s">
+      <c r="M15" s="2"/>
+      <c r="N15" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="D16" s="3">
         <v>4</v>
       </c>
-      <c r="D16" s="7">
+      <c r="E16" s="7">
         <v>3</v>
       </c>
-      <c r="E16" s="7">
+      <c r="F16" s="7">
         <v>250</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="3" t="s">
-        <v>941</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2" t="s">
+      <c r="M16" s="2"/>
+      <c r="N16" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="D17" s="3">
         <v>4</v>
       </c>
-      <c r="D17" s="7">
+      <c r="E17" s="7">
         <v>3</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17" s="7">
         <v>250</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2" t="s">
+      <c r="M17" s="2"/>
+      <c r="N17" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>823</v>
       </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
         <v>10000</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2"/>
+      <c r="I18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="2"/>
+      <c r="N18" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="2"/>
+      <c r="P18" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="C19" s="6">
+      <c r="D19" s="6">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
         <v>10000</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="2"/>
+      <c r="N19" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="2"/>
+      <c r="P19" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="D20" s="6">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6">
+        <v>250</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="C20" s="6">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6">
-        <v>3</v>
-      </c>
-      <c r="E20" s="6">
-        <v>250</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="2"/>
+      <c r="N20" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="2"/>
+      <c r="P20" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>822</v>
       </c>
-      <c r="C21" s="6">
+      <c r="D21" s="6">
         <v>5</v>
       </c>
-      <c r="D21" s="7">
+      <c r="E21" s="7">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>50</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3" t="s">
-        <v>880</v>
-      </c>
+      <c r="H21" s="2"/>
       <c r="I21" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>864</v>
-      </c>
       <c r="L21" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2" t="s">
+      <c r="N21" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="2">
         <v>2</v>
       </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
       <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
         <v>10000</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2"/>
+      <c r="I22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="2"/>
+      <c r="N22" s="3" t="s">
         <v>670</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>825</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>2</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
       <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
         <v>10000</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="2"/>
+      <c r="N23" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>2</v>
       </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
       <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
         <v>10000</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2"/>
+      <c r="I24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="2"/>
+      <c r="N24" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2" t="s">
+      <c r="O24" s="2"/>
+      <c r="P24" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="B25" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7">
+        <v>10000</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="C25" s="7">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7">
-        <v>10000</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="D26" s="7">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2500</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="I25" s="3" t="s">
+      <c r="H26" s="2"/>
+      <c r="I26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="D27" s="7">
         <v>4</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="3" t="s">
+      <c r="E27" s="7">
+        <v>3</v>
+      </c>
+      <c r="F27" s="7">
+        <v>250</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2" t="s">
+      <c r="O27" s="2"/>
+      <c r="P27" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>925</v>
-      </c>
-      <c r="C26" s="7">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2">
-        <v>2</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2500</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="3" t="s">
-        <v>933</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>927</v>
-      </c>
-      <c r="C27" s="7">
-        <v>4</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3</v>
-      </c>
-      <c r="E27" s="7">
-        <v>250</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="C28" s="6">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="D28" s="6">
         <v>1</v>
       </c>
       <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
         <v>10000</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="2"/>
+      <c r="I28" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="3" t="s">
+      <c r="L28" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2" t="s">
+      <c r="O28" s="2"/>
+      <c r="P28" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="C29" s="6">
+      <c r="D29" s="6">
         <v>4</v>
       </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
       <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
         <v>10000</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="2"/>
+      <c r="I29" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="2"/>
+      <c r="N29" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2" t="s">
+      <c r="O29" s="2"/>
+      <c r="P29" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>829</v>
       </c>
-      <c r="C30" s="6">
+      <c r="D30" s="6">
         <v>5</v>
       </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
       <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
         <v>10000</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2" t="s">
+      <c r="M30" s="2"/>
+      <c r="N30" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="C31" s="6">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="D31" s="6">
         <v>1</v>
       </c>
       <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
         <v>10000</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="2"/>
+      <c r="I31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="2"/>
+      <c r="N31" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2" t="s">
+      <c r="O31" s="2"/>
+      <c r="P31" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="C32" s="6">
+      <c r="D32" s="6">
         <v>2</v>
       </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
       <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
         <v>10000</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="2"/>
+      <c r="N32" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2" t="s">
+      <c r="O32" s="2"/>
+      <c r="P32" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="C33" s="6">
+      <c r="D33" s="6">
         <v>3</v>
       </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
       <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
         <v>10000</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="2"/>
+      <c r="I33" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2" t="s">
+      <c r="M33" s="2"/>
+      <c r="N33" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="C34" s="6">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="D34" s="6">
         <v>1</v>
       </c>
       <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
         <v>10000</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="2"/>
+      <c r="N34" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2" t="s">
+      <c r="O34" s="2"/>
+      <c r="P34" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="C35" s="6">
+      <c r="B35" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="D35" s="6">
         <v>2</v>
       </c>
-      <c r="D35" s="6">
-        <v>1</v>
-      </c>
       <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
         <v>10000</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3" t="s">
-        <v>904</v>
-      </c>
+      <c r="H35" s="2"/>
       <c r="I35" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="2"/>
+      <c r="N35" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2" t="s">
+      <c r="O35" s="2"/>
+      <c r="P35" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>909</v>
-      </c>
-      <c r="C36" s="7">
+      <c r="B36" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="D36" s="7">
         <v>5</v>
       </c>
-      <c r="D36" s="7">
+      <c r="E36" s="7">
         <v>4</v>
       </c>
-      <c r="E36" s="7">
+      <c r="F36" s="7">
         <v>50</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="2"/>
+      <c r="I36" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="3" t="s">
-        <v>917</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2" t="s">
+      <c r="O36" s="2"/>
+      <c r="P36" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>837</v>
       </c>
-      <c r="C37" s="6">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="D37" s="6">
         <v>1</v>
       </c>
       <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
         <v>10000</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2" t="s">
-        <v>856</v>
-      </c>
+      <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="2"/>
+      <c r="N37" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2" t="s">
+      <c r="O37" s="2"/>
+      <c r="P37" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="C38" s="6">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="D38" s="6">
         <v>1</v>
       </c>
       <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
         <v>10000</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="2"/>
+      <c r="I38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="2"/>
+      <c r="N38" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2" t="s">
+      <c r="O38" s="2"/>
+      <c r="P38" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="C39" s="6">
+      <c r="D39" s="6">
         <v>2</v>
       </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
       <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
         <v>10000</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="2"/>
+      <c r="I39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="K39" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2" t="s">
+      <c r="L39" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>839</v>
       </c>
-      <c r="C40" s="6">
+      <c r="D40" s="6">
         <v>3</v>
       </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
       <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
         <v>10000</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="2"/>
+      <c r="I40" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="2"/>
+      <c r="N40" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2" t="s">
+      <c r="O40" s="2"/>
+      <c r="P40" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="7">
+        <v>919</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="D41" s="2">
         <v>1</v>
       </c>
       <c r="E41" s="7">
+        <v>1</v>
+      </c>
+      <c r="F41" s="7">
         <v>10000</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="2"/>
+      <c r="I41" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="J41" s="2"/>
+      <c r="J41" s="3" t="s">
+        <v>928</v>
+      </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="3" t="s">
+      <c r="M41" s="2"/>
+      <c r="N41" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2" t="s">
+      <c r="O41" s="2"/>
+      <c r="P41" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>928</v>
-      </c>
-      <c r="C42" s="2">
+        <v>919</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="D42" s="2">
         <v>2</v>
       </c>
-      <c r="D42" s="7">
+      <c r="E42" s="7">
         <v>2</v>
       </c>
-      <c r="E42" s="7">
+      <c r="F42" s="7">
         <v>2500</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="2"/>
+      <c r="I42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="2"/>
+      <c r="N42" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2" t="s">
+      <c r="O42" s="2"/>
+      <c r="P42" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>926</v>
-      </c>
-      <c r="C43" s="2">
+        <v>919</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="D43" s="2">
         <v>3</v>
       </c>
-      <c r="D43" s="7">
+      <c r="E43" s="7">
         <v>2</v>
       </c>
-      <c r="E43" s="7">
+      <c r="F43" s="7">
         <v>2500</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2" t="s">
+      <c r="N43" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>896</v>
-      </c>
-      <c r="C44" s="6">
-        <v>1</v>
+      <c r="B44" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>895</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
       </c>
       <c r="E44" s="6">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6">
         <v>10000</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="2"/>
+      <c r="I44" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2" t="s">
+      <c r="M44" s="2"/>
+      <c r="N44" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="C45" s="6">
+      <c r="B45" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="D45" s="6">
         <v>2</v>
       </c>
-      <c r="D45" s="6">
+      <c r="E45" s="6">
         <v>4</v>
       </c>
-      <c r="E45" s="6">
+      <c r="F45" s="6">
         <v>50</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="2"/>
+      <c r="I45" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="2"/>
+      <c r="N45" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2" t="s">
+      <c r="O45" s="2"/>
+      <c r="P45" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="C46" s="6">
-        <v>1</v>
+      <c r="B46" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>891</v>
       </c>
       <c r="D46" s="6">
         <v>1</v>
       </c>
       <c r="E46" s="6">
+        <v>1</v>
+      </c>
+      <c r="F46" s="6">
         <v>10000</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2" t="s">
+      <c r="O46" s="2"/>
+      <c r="P46" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="C47" s="6">
+      <c r="B47" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="D47" s="6">
         <v>2</v>
       </c>
-      <c r="D47" s="6">
-        <v>1</v>
-      </c>
       <c r="E47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6">
         <v>10000</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="I47" s="2" t="s">
+      <c r="H47" s="2"/>
+      <c r="I47" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="2"/>
+      <c r="N47" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2" t="s">
+      <c r="O47" s="2"/>
+      <c r="P47" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="C48" s="6">
-        <v>3</v>
+      <c r="B48" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>893</v>
       </c>
       <c r="D48" s="6">
         <v>3</v>
       </c>
       <c r="E48" s="6">
+        <v>3</v>
+      </c>
+      <c r="F48" s="6">
         <v>250</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2" t="s">
+      <c r="O48" s="2"/>
+      <c r="P48" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="C49" s="6">
+      <c r="B49" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="D49" s="6">
         <v>4</v>
       </c>
-      <c r="D49" s="6">
+      <c r="E49" s="6">
         <v>3</v>
       </c>
-      <c r="E49" s="6">
+      <c r="F49" s="6">
         <v>250</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="L49" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="3" t="s">
+      <c r="M49" s="2"/>
+      <c r="N49" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" s="3" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C50" s="2">
-        <v>1</v>
-      </c>
-      <c r="D50" s="7">
+      <c r="B50" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="7">
         <v>4</v>
       </c>
-      <c r="E50" s="7">
+      <c r="F50" s="7">
         <v>50</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>934</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="3" t="s">
+      <c r="G50" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="3" t="s">
-        <v>932</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2" t="s">
+      <c r="M50" s="2"/>
+      <c r="N50" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="C51" s="2">
+      <c r="B51" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="D51" s="2">
         <v>2</v>
       </c>
-      <c r="D51" s="7">
-        <v>1</v>
-      </c>
       <c r="E51" s="7">
+        <v>1</v>
+      </c>
+      <c r="F51" s="7">
         <v>10000</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="2"/>
+      <c r="I51" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="L51" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="L51" s="2"/>
-      <c r="M51" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2" t="s">
+      <c r="M51" s="2"/>
+      <c r="N51" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="C52" s="6">
-        <v>1</v>
+      <c r="B52" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>890</v>
       </c>
       <c r="D52" s="6">
         <v>1</v>
       </c>
       <c r="E52" s="6">
+        <v>1</v>
+      </c>
+      <c r="F52" s="6">
         <v>10000</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="2"/>
+      <c r="N52" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2" t="s">
+      <c r="O52" s="2"/>
+      <c r="P52" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="D53" s="6">
+        <v>2</v>
+      </c>
+      <c r="E53" s="6">
+        <v>4</v>
+      </c>
+      <c r="F53" s="6">
+        <v>50</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="C53" s="6">
-        <v>2</v>
-      </c>
-      <c r="D53" s="6">
-        <v>4</v>
-      </c>
-      <c r="E53" s="6">
-        <v>50</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="2"/>
+      <c r="I53" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="L53" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="M53" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="M53" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2" t="s">
+      <c r="N53" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>897</v>
-      </c>
-      <c r="C54" s="6">
-        <v>4</v>
+      <c r="B54" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>896</v>
       </c>
       <c r="D54" s="6">
         <v>4</v>
       </c>
       <c r="E54" s="6">
+        <v>4</v>
+      </c>
+      <c r="F54" s="6">
         <v>50</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="2"/>
+      <c r="I54" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="J54" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2" t="s">
+      <c r="O54" s="2"/>
+      <c r="P54" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>840</v>
       </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>1</v>
       </c>
       <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
         <v>10000</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2" t="s">
+      <c r="H55" s="2"/>
+      <c r="I55" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="2"/>
+      <c r="N55" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2" t="s">
+      <c r="O55" s="2"/>
+      <c r="P55" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>845</v>
       </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <v>1</v>
       </c>
       <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
         <v>10000</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2" t="s">
-        <v>869</v>
-      </c>
+      <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="J56" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="K56" s="2"/>
+      <c r="K56" s="3" t="s">
+        <v>852</v>
+      </c>
       <c r="L56" s="2"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="2"/>
+      <c r="N56" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2" t="s">
+      <c r="O56" s="2"/>
+      <c r="P56" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>842</v>
       </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <v>1</v>
       </c>
       <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
         <v>10000</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="2"/>
+      <c r="I57" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="2"/>
+      <c r="N57" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2" t="s">
+      <c r="O57" s="2"/>
+      <c r="P57" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>846</v>
       </c>
-      <c r="C58" s="6">
+      <c r="D58" s="6">
         <v>3</v>
       </c>
-      <c r="D58" s="7">
-        <v>1</v>
-      </c>
       <c r="E58" s="7">
+        <v>1</v>
+      </c>
+      <c r="F58" s="7">
         <v>10000</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="2"/>
+      <c r="I58" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="J58" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="2"/>
+      <c r="N58" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2" t="s">
+      <c r="O58" s="2"/>
+      <c r="P58" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>847</v>
       </c>
-      <c r="C59" s="6">
+      <c r="D59" s="6">
         <v>3</v>
       </c>
-      <c r="D59" s="7">
-        <v>1</v>
-      </c>
       <c r="E59" s="7">
+        <v>1</v>
+      </c>
+      <c r="F59" s="7">
         <v>10000</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="2"/>
+      <c r="I59" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="K59" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="2"/>
+      <c r="N59" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2" t="s">
+      <c r="O59" s="2"/>
+      <c r="P59" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>848</v>
-      </c>
-      <c r="C60" s="6">
+      <c r="B60" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="D60" s="6">
         <v>3</v>
       </c>
-      <c r="D60" s="7">
-        <v>1</v>
-      </c>
       <c r="E60" s="7">
+        <v>1</v>
+      </c>
+      <c r="F60" s="7">
         <v>10000</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="2"/>
+      <c r="I60" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="J60" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="K60" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="K60" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2" t="s">
+      <c r="L60" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2" t="s">
+      <c r="O60" s="2"/>
+      <c r="P60" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>849</v>
-      </c>
-      <c r="C61" s="6">
+      <c r="B61" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="D61" s="6">
         <v>2</v>
       </c>
-      <c r="D61" s="7">
-        <v>1</v>
-      </c>
       <c r="E61" s="7">
+        <v>1</v>
+      </c>
+      <c r="F61" s="7">
         <v>10000</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="2"/>
+      <c r="I61" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="L61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L61" s="2" t="s">
-        <v>858</v>
-      </c>
       <c r="M61" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="N61" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2" t="s">
+      <c r="O61" s="2"/>
+      <c r="P61" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>850</v>
-      </c>
-      <c r="C62" s="6">
+      <c r="B62" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="D62" s="6">
         <v>3</v>
       </c>
-      <c r="D62" s="7">
-        <v>1</v>
-      </c>
       <c r="E62" s="7">
+        <v>1</v>
+      </c>
+      <c r="F62" s="7">
         <v>10000</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2" t="s">
+      <c r="G62" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="K62" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="L62" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="K62" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="2"/>
+      <c r="N62" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2" t="s">
+      <c r="O62" s="2"/>
+      <c r="P62" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>907</v>
-      </c>
-      <c r="C63" s="7">
+      <c r="B63" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="D63" s="7">
         <v>5</v>
       </c>
-      <c r="D63" s="7">
+      <c r="E63" s="7">
         <v>4</v>
       </c>
-      <c r="E63" s="7">
+      <c r="F63" s="7">
         <v>50</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="3" t="s">
+      <c r="G63" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="H63" s="2"/>
+      <c r="I63" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="J63" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="K63" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="L63" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="L63" s="3" t="s">
+      <c r="M63" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="M63" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2" t="s">
+      <c r="N63" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>908</v>
-      </c>
-      <c r="C64" s="7">
+      <c r="B64" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="D64" s="7">
         <v>5</v>
       </c>
-      <c r="D64" s="7">
+      <c r="E64" s="7">
         <v>4</v>
       </c>
-      <c r="E64" s="7">
+      <c r="F64" s="7">
         <v>50</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="3" t="s">
+      <c r="H64" s="2"/>
+      <c r="I64" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="J64" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="K64" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="L64" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L64" s="3" t="s">
+      <c r="M64" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="M64" s="3" t="s">
-        <v>915</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2" t="s">
+      <c r="N64" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="C65" s="6">
+      <c r="D65" s="6">
         <v>2</v>
       </c>
-      <c r="D65" s="7">
-        <v>1</v>
-      </c>
       <c r="E65" s="7">
+        <v>1</v>
+      </c>
+      <c r="F65" s="7">
         <v>10000</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2" t="s">
+      <c r="H65" s="2"/>
+      <c r="I65" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="J65" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="K65" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="2"/>
+      <c r="N65" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2" t="s">
+      <c r="O65" s="2"/>
+      <c r="P65" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
         <v>843</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>841</v>
       </c>
-      <c r="C66" s="6">
+      <c r="D66" s="11">
         <v>4</v>
       </c>
-      <c r="D66" s="7">
-        <v>1</v>
-      </c>
-      <c r="E66" s="7">
+      <c r="E66" s="10">
+        <v>1</v>
+      </c>
+      <c r="F66" s="10">
         <v>10000</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2" t="s">
+      <c r="H66" s="12"/>
+      <c r="I66" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="J66" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="K66" s="12" t="s">
         <v>783</v>
       </c>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2" t="s">
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12" t="s">
         <v>720</v>
       </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2" t="s">
+      <c r="O66" s="12"/>
+      <c r="P66" s="12" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="4"/>
+      <c r="C67" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="C67" s="6">
-        <v>1</v>
-      </c>
-      <c r="D67" s="2">
+      <c r="D67" s="6">
         <v>1</v>
       </c>
       <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
         <v>10000</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="2"/>
+      <c r="I67" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="K67" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="2"/>
+      <c r="N67" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P67" s="2"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="4"/>
+      <c r="C68" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="C68" s="6">
+      <c r="D68" s="6">
         <v>3</v>
       </c>
-      <c r="D68" s="2">
-        <v>1</v>
-      </c>
       <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
         <v>10000</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="2"/>
+      <c r="I68" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="K68" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="L68" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="2"/>
+      <c r="N68" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P68" s="2"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="4"/>
+      <c r="C69" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="C69" s="6">
+      <c r="D69" s="6">
         <v>5</v>
       </c>
-      <c r="D69" s="2">
-        <v>1</v>
-      </c>
       <c r="E69" s="2">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
         <v>10000</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="2"/>
+      <c r="N69" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P69" s="2"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="4"/>
+      <c r="C70" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="C70" s="6">
+      <c r="D70" s="6">
         <v>3</v>
       </c>
-      <c r="D70" s="2">
-        <v>1</v>
-      </c>
       <c r="E70" s="2">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2">
         <v>10000</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2" t="s">
+      <c r="H70" s="2"/>
+      <c r="I70" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="2"/>
+      <c r="N70" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P70" s="2"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="4"/>
+      <c r="C71" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="C71" s="6">
+      <c r="D71" s="6">
         <v>3</v>
       </c>
-      <c r="D71" s="2">
-        <v>1</v>
-      </c>
       <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
         <v>10000</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2" t="s">
+      <c r="H71" s="2"/>
+      <c r="I71" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="K71" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="2"/>
+      <c r="N71" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P71" s="2"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="4"/>
+      <c r="C72" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="C72" s="6">
+      <c r="D72" s="6">
         <v>3</v>
       </c>
-      <c r="D72" s="2">
-        <v>1</v>
-      </c>
       <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2">
         <v>10000</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2" t="s">
+      <c r="H72" s="2"/>
+      <c r="I72" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="J72" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="K72" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="2"/>
+      <c r="N72" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P72" s="2"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="4"/>
+      <c r="C73" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="C73" s="6">
+      <c r="D73" s="6">
         <v>3</v>
       </c>
-      <c r="D73" s="2">
-        <v>1</v>
-      </c>
       <c r="E73" s="2">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2">
         <v>10000</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="2"/>
+      <c r="I73" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="J73" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="K73" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="2"/>
+      <c r="N73" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P73" s="2"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="C74" s="6">
+      <c r="B74" s="4"/>
+      <c r="C74" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="D74" s="6">
         <v>10</v>
       </c>
-      <c r="D74" s="2">
-        <v>1</v>
-      </c>
       <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2">
         <v>10000</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2" t="s">
+      <c r="H74" s="2"/>
+      <c r="I74" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="J74" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="K74" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="L74" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="2"/>
+      <c r="N74" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P74" s="2"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="4"/>
+      <c r="C75" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="C75" s="6">
-        <v>1</v>
-      </c>
-      <c r="D75" s="2">
+      <c r="D75" s="6">
         <v>1</v>
       </c>
       <c r="E75" s="2">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2">
         <v>10000</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2" t="s">
+      <c r="H75" s="2"/>
+      <c r="I75" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="J75" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="K75" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="L75" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="2"/>
+      <c r="N75" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P75" s="2"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="4"/>
+      <c r="C76" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="C76" s="6">
+      <c r="D76" s="6">
         <v>2</v>
       </c>
-      <c r="D76" s="2">
-        <v>1</v>
-      </c>
       <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" s="2">
         <v>10000</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2" t="s">
+      <c r="H76" s="2"/>
+      <c r="I76" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="J76" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="K76" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="2"/>
+      <c r="N76" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P76" s="2"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="4"/>
+      <c r="C77" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="C77" s="6">
+      <c r="D77" s="6">
         <v>3</v>
       </c>
-      <c r="D77" s="2">
-        <v>1</v>
-      </c>
       <c r="E77" s="2">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2">
         <v>10000</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2" t="s">
+      <c r="H77" s="2"/>
+      <c r="I77" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="J77" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="K77" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="2"/>
+      <c r="N77" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P77" s="2"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="4"/>
+      <c r="C78" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="C78" s="6">
+      <c r="D78" s="6">
         <v>3</v>
       </c>
-      <c r="D78" s="2">
-        <v>1</v>
-      </c>
       <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2">
         <v>10000</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="J78" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="2"/>
+      <c r="N78" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="N78" s="2" t="s">
+      <c r="O78" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="O78" s="2"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P78" s="2"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="4"/>
+      <c r="C79" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="C79" s="6">
+      <c r="D79" s="6">
         <v>4</v>
       </c>
-      <c r="D79" s="2">
-        <v>1</v>
-      </c>
       <c r="E79" s="2">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2">
         <v>10000</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2" t="s">
+      <c r="H79" s="2"/>
+      <c r="I79" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="2"/>
+      <c r="N79" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P79" s="2"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="4"/>
+      <c r="C80" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="C80" s="6">
+      <c r="D80" s="6">
         <v>4</v>
       </c>
-      <c r="D80" s="2">
-        <v>1</v>
-      </c>
       <c r="E80" s="2">
+        <v>1</v>
+      </c>
+      <c r="F80" s="2">
         <v>10000</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="G80" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="J80" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="K80" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="2"/>
+      <c r="N80" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="4"/>
+      <c r="C81" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="C81" s="6">
-        <v>1</v>
-      </c>
-      <c r="D81" s="2">
+      <c r="D81" s="6">
         <v>1</v>
       </c>
       <c r="E81" s="2">
+        <v>1</v>
+      </c>
+      <c r="F81" s="2">
         <v>10000</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2" t="s">
+      <c r="H81" s="2"/>
+      <c r="I81" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="J81" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="K81" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="2"/>
+      <c r="N81" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P81" s="2"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="4"/>
+      <c r="C82" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="C82" s="6">
-        <v>1</v>
-      </c>
-      <c r="D82" s="2">
+      <c r="D82" s="6">
         <v>1</v>
       </c>
       <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
         <v>10000</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2" t="s">
+      <c r="H82" s="2"/>
+      <c r="I82" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="J82" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="K82" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="2"/>
+      <c r="N82" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P82" s="2"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C83" s="6">
+      <c r="D83" s="6">
         <v>2</v>
       </c>
-      <c r="D83" s="2">
-        <v>1</v>
-      </c>
       <c r="E83" s="2">
+        <v>1</v>
+      </c>
+      <c r="F83" s="2">
         <v>10000</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="J83" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="K83" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="2"/>
+      <c r="N83" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P83" s="2"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="C84" s="6">
+      <c r="D84" s="6">
         <v>2</v>
       </c>
-      <c r="D84" s="2">
-        <v>1</v>
-      </c>
       <c r="E84" s="2">
+        <v>1</v>
+      </c>
+      <c r="F84" s="2">
         <v>10000</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2" t="s">
+      <c r="H84" s="2"/>
+      <c r="I84" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="J84" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="K84" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="2"/>
+      <c r="N84" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P84" s="2"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="C85" s="6">
+      <c r="D85" s="6">
         <v>2</v>
       </c>
-      <c r="D85" s="2">
-        <v>1</v>
-      </c>
       <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2">
         <v>50</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2" t="s">
+      <c r="H85" s="2"/>
+      <c r="I85" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="J85" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="K85" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="L85" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="2"/>
+      <c r="N85" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P85" s="2"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="C86" s="6">
+      <c r="D86" s="6">
         <v>2</v>
       </c>
-      <c r="D86" s="2">
-        <v>1</v>
-      </c>
       <c r="E86" s="2">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2">
         <v>50</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2" t="s">
+      <c r="H86" s="2"/>
+      <c r="I86" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="J86" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="K86" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="L86" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="2"/>
+      <c r="N86" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P86" s="2"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="C87" s="6">
+      <c r="D87" s="6">
         <v>2</v>
       </c>
-      <c r="D87" s="6">
-        <v>1</v>
-      </c>
-      <c r="E87" s="2">
+      <c r="E87" s="6">
+        <v>1</v>
+      </c>
+      <c r="F87" s="2">
         <v>50</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2" t="s">
+      <c r="H87" s="2"/>
+      <c r="I87" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="J87" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="K87" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="L87" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="2"/>
+      <c r="N87" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P87" s="2"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="C88" s="6">
+      <c r="D88" s="6">
         <v>2</v>
       </c>
-      <c r="D88" s="6">
-        <v>1</v>
-      </c>
-      <c r="E88" s="2">
+      <c r="E88" s="6">
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
         <v>50</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2" t="s">
+      <c r="H88" s="2"/>
+      <c r="I88" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="J88" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="K88" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="L88" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="2"/>
+      <c r="N88" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P88" s="2"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="C89" s="6">
+      <c r="D89" s="6">
         <v>3</v>
       </c>
-      <c r="D89" s="6">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2">
+      <c r="E89" s="6">
+        <v>1</v>
+      </c>
+      <c r="F89" s="2">
         <v>10000</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2" t="s">
+      <c r="H89" s="2"/>
+      <c r="I89" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="J89" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J89" s="2" t="s">
+      <c r="K89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="L89" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="2"/>
+      <c r="N89" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P89" s="2"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="C90" s="2">
+      <c r="D90" s="2">
         <v>3</v>
       </c>
-      <c r="D90" s="2">
-        <v>1</v>
-      </c>
       <c r="E90" s="2">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2">
         <v>10000</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2" t="s">
+      <c r="H90" s="2"/>
+      <c r="I90" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="J90" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J90" s="2" t="s">
+      <c r="K90" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K90" s="2"/>
       <c r="L90" s="2"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="2"/>
+      <c r="N90" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P90" s="2"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="C91" s="6">
+      <c r="D91" s="6">
         <v>5</v>
       </c>
-      <c r="D91" s="6">
-        <v>1</v>
-      </c>
-      <c r="E91" s="2">
+      <c r="E91" s="6">
+        <v>1</v>
+      </c>
+      <c r="F91" s="2">
         <v>10000</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="G91" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2" t="s">
+      <c r="H91" s="2"/>
+      <c r="I91" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="J91" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="K91" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="K91" s="2"/>
       <c r="L91" s="2"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="2"/>
+      <c r="N91" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P91" s="2"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="C92" s="2">
+      <c r="D92" s="2">
         <v>2</v>
       </c>
-      <c r="D92" s="2">
+      <c r="E92" s="2">
         <v>4</v>
       </c>
-      <c r="E92" s="2">
+      <c r="F92" s="2">
         <v>50</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2" t="s">
+      <c r="H92" s="2"/>
+      <c r="I92" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="J92" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="J92" s="2" t="s">
+      <c r="K92" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="K92" s="2"/>
       <c r="L92" s="2"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="2"/>
+      <c r="N92" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P92" s="2"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="C93" s="2">
+      <c r="D93" s="2">
         <v>2</v>
       </c>
-      <c r="D93" s="2">
+      <c r="E93" s="2">
         <v>4</v>
       </c>
-      <c r="E93" s="2">
+      <c r="F93" s="2">
         <v>50</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2" t="s">
+      <c r="H93" s="2"/>
+      <c r="I93" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="J93" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="K93" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K93" s="2"/>
       <c r="L93" s="2"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="2"/>
+      <c r="N93" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P93" s="2"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="C94" s="2">
+      <c r="D94" s="2">
         <v>2</v>
       </c>
-      <c r="D94" s="2">
+      <c r="E94" s="2">
         <v>4</v>
       </c>
-      <c r="E94" s="2">
+      <c r="F94" s="2">
         <v>50</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2" t="s">
+      <c r="H94" s="2"/>
+      <c r="I94" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="J94" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="K94" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="K94" s="2"/>
       <c r="L94" s="2"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="2"/>
+      <c r="N94" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P94" s="2"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="C95" s="2">
+      <c r="D95" s="2">
         <v>2</v>
       </c>
-      <c r="D95" s="2">
+      <c r="E95" s="2">
         <v>4</v>
       </c>
-      <c r="E95" s="2">
+      <c r="F95" s="2">
         <v>50</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2" t="s">
+      <c r="H95" s="2"/>
+      <c r="I95" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="J95" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="K95" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="K95" s="2"/>
       <c r="L95" s="2"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="2"/>
+      <c r="N95" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P95" s="2"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="C96" s="6">
+      <c r="D96" s="6">
         <v>2</v>
       </c>
-      <c r="D96" s="2">
-        <v>1</v>
-      </c>
       <c r="E96" s="2">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2">
         <v>10000</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="G96" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2" t="s">
+      <c r="H96" s="2"/>
+      <c r="I96" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="J96" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="K96" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="K96" s="2"/>
       <c r="L96" s="2"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="2"/>
+      <c r="N96" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P96" s="2"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="C97" s="6">
+      <c r="D97" s="6">
         <v>3</v>
       </c>
-      <c r="D97" s="2">
-        <v>1</v>
-      </c>
       <c r="E97" s="2">
+        <v>1</v>
+      </c>
+      <c r="F97" s="2">
         <v>10000</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2" t="s">
+      <c r="H97" s="2"/>
+      <c r="I97" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="J97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J97" s="2" t="s">
+      <c r="K97" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="K97" s="2"/>
       <c r="L97" s="2"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="2"/>
+      <c r="N97" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P97" s="2"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="C98" s="6">
+      <c r="D98" s="6">
         <v>4</v>
       </c>
-      <c r="D98" s="2">
-        <v>1</v>
-      </c>
       <c r="E98" s="2">
+        <v>1</v>
+      </c>
+      <c r="F98" s="2">
         <v>10000</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="H98" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="I98" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="J98" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="K98" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L98" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="2"/>
+      <c r="N98" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P98" s="2"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="C99" s="7">
-        <v>1</v>
-      </c>
       <c r="D99" s="7">
+        <v>1</v>
+      </c>
+      <c r="E99" s="7">
         <v>3</v>
       </c>
-      <c r="E99" s="7">
+      <c r="F99" s="7">
         <v>250</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="G99" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7" t="s">
+      <c r="H99" s="7"/>
+      <c r="I99" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="I99" s="7" t="s">
+      <c r="J99" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J99" s="7" t="s">
+      <c r="K99" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K99" s="7"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2" t="s">
+      <c r="L99" s="7"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="N99" s="2" t="s">
+      <c r="O99" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="O99" s="2"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P99" s="2"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="C100" s="7">
-        <v>1</v>
-      </c>
       <c r="D100" s="7">
+        <v>1</v>
+      </c>
+      <c r="E100" s="7">
         <v>3</v>
       </c>
-      <c r="E100" s="7">
+      <c r="F100" s="7">
         <v>250</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="G100" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7" t="s">
+      <c r="H100" s="7"/>
+      <c r="I100" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I100" s="7" t="s">
+      <c r="J100" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="J100" s="7" t="s">
+      <c r="K100" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K100" s="7" t="s">
+      <c r="L100" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="2"/>
+      <c r="N100" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="N100" s="2"/>
       <c r="O100" s="2"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P100" s="2"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="C101" s="6">
+      <c r="D101" s="6">
         <v>2</v>
       </c>
-      <c r="D101" s="2">
-        <v>1</v>
-      </c>
       <c r="E101" s="2">
+        <v>1</v>
+      </c>
+      <c r="F101" s="2">
         <v>10000</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2" t="s">
+      <c r="H101" s="2"/>
+      <c r="I101" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="J101" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="K101" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="L101" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="2"/>
+      <c r="N101" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P101" s="2"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="C102" s="7">
+      <c r="D102" s="7">
         <v>2</v>
       </c>
-      <c r="D102" s="7">
-        <v>1</v>
-      </c>
       <c r="E102" s="7">
+        <v>1</v>
+      </c>
+      <c r="F102" s="7">
         <v>10000</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="G102" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7" t="s">
+      <c r="H102" s="7"/>
+      <c r="I102" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I102" s="7" t="s">
+      <c r="J102" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J102" s="7" t="s">
+      <c r="K102" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K102" s="7" t="s">
+      <c r="L102" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="L102" s="2" t="s">
+      <c r="M102" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="M102" s="2" t="s">
+      <c r="N102" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P102" s="2"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="C103" s="7">
+      <c r="D103" s="7">
         <v>2</v>
       </c>
-      <c r="D103" s="7">
+      <c r="E103" s="7">
         <v>3</v>
       </c>
-      <c r="E103" s="7">
+      <c r="F103" s="7">
         <v>250</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="G103" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7" t="s">
+      <c r="H103" s="7"/>
+      <c r="I103" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="I103" s="7" t="s">
+      <c r="J103" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="J103" s="7" t="s">
+      <c r="K103" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K103" s="7"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2" t="s">
+      <c r="L103" s="7"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P103" s="2"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="C104" s="7">
+      <c r="D104" s="7">
         <v>3</v>
       </c>
-      <c r="D104" s="7">
-        <v>1</v>
-      </c>
       <c r="E104" s="7">
+        <v>1</v>
+      </c>
+      <c r="F104" s="7">
         <v>10000</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="G104" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7" t="s">
+      <c r="H104" s="7"/>
+      <c r="I104" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2" t="s">
+      <c r="L104" s="7"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P104" s="2"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="C105" s="7">
+      <c r="D105" s="7">
         <v>3</v>
       </c>
-      <c r="D105" s="7">
-        <v>1</v>
-      </c>
       <c r="E105" s="7">
+        <v>1</v>
+      </c>
+      <c r="F105" s="7">
         <v>10000</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="G105" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7" t="s">
+      <c r="H105" s="7"/>
+      <c r="I105" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="I105" s="7" t="s">
+      <c r="J105" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="J105" s="7" t="s">
+      <c r="K105" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="K105" s="7" t="s">
+      <c r="L105" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="2"/>
+      <c r="N105" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="N105" s="2"/>
       <c r="O105" s="2"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P105" s="2"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="C106" s="7">
+      <c r="D106" s="7">
         <v>4</v>
       </c>
-      <c r="D106" s="7">
-        <v>1</v>
-      </c>
       <c r="E106" s="7">
+        <v>1</v>
+      </c>
+      <c r="F106" s="7">
         <v>10000</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="G106" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7" t="s">
+      <c r="H106" s="7"/>
+      <c r="I106" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="I106" s="7" t="s">
+      <c r="J106" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J106" s="7" t="s">
+      <c r="K106" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K106" s="7"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2" t="s">
+      <c r="L106" s="7"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="N106" s="2"/>
       <c r="O106" s="2"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P106" s="2"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="C107" s="6">
+      <c r="D107" s="6">
         <v>5</v>
       </c>
-      <c r="D107" s="2">
-        <v>1</v>
-      </c>
       <c r="E107" s="2">
+        <v>1</v>
+      </c>
+      <c r="F107" s="2">
         <v>10000</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="G107" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2" t="s">
+      <c r="H107" s="2"/>
+      <c r="I107" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="I107" s="2" t="s">
+      <c r="J107" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J107" s="2" t="s">
+      <c r="K107" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="K107" s="2"/>
       <c r="L107" s="2"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="2"/>
+      <c r="N107" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="N107" s="2"/>
       <c r="O107" s="2"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P107" s="2"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="C108" s="7">
+      <c r="D108" s="7">
         <v>5</v>
       </c>
-      <c r="D108" s="7">
-        <v>1</v>
-      </c>
       <c r="E108" s="7">
+        <v>1</v>
+      </c>
+      <c r="F108" s="7">
         <v>10000</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="G108" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7" t="s">
+      <c r="H108" s="7"/>
+      <c r="I108" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="I108" s="7" t="s">
+      <c r="J108" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="J108" s="7" t="s">
+      <c r="K108" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K108" s="7"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2" t="s">
+      <c r="L108" s="7"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="N108" s="2"/>
       <c r="O108" s="2"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P108" s="2"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="C109" s="7">
+      <c r="D109" s="7">
         <v>5</v>
       </c>
-      <c r="D109" s="7">
+      <c r="E109" s="7">
         <v>4</v>
       </c>
-      <c r="E109" s="7">
+      <c r="F109" s="7">
         <v>50</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="G109" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="G109" s="7" t="s">
+      <c r="H109" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="I109" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="I109" s="7" t="s">
+      <c r="J109" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="J109" s="7" t="s">
+      <c r="K109" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="K109" s="7" t="s">
+      <c r="L109" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="2"/>
+      <c r="N109" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="N109" s="2"/>
       <c r="O109" s="2"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P109" s="2"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="C110" s="7">
-        <v>1</v>
-      </c>
       <c r="D110" s="7">
         <v>1</v>
       </c>
       <c r="E110" s="7">
+        <v>1</v>
+      </c>
+      <c r="F110" s="7">
         <v>10000</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="G110" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7" t="s">
+      <c r="H110" s="7"/>
+      <c r="I110" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="I110" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J110" s="7"/>
+      <c r="J110" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="K110" s="7"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2" t="s">
+      <c r="L110" s="7"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="N110" s="2"/>
       <c r="O110" s="2"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P110" s="2"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="C111" s="7">
+      <c r="D111" s="7">
         <v>2</v>
       </c>
-      <c r="D111" s="7">
-        <v>1</v>
-      </c>
       <c r="E111" s="7">
+        <v>1</v>
+      </c>
+      <c r="F111" s="7">
         <v>10000</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="G111" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7" t="s">
+      <c r="H111" s="7"/>
+      <c r="I111" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="I111" s="7" t="s">
+      <c r="J111" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="J111" s="7" t="s">
+      <c r="K111" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K111" s="7"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2" t="s">
+      <c r="L111" s="7"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N111" s="2"/>
       <c r="O111" s="2"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P111" s="2"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="C112" s="7">
+      <c r="D112" s="7">
         <v>2</v>
       </c>
-      <c r="D112" s="7">
-        <v>1</v>
-      </c>
       <c r="E112" s="7">
+        <v>1</v>
+      </c>
+      <c r="F112" s="7">
         <v>10000</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="G112" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7" t="s">
+      <c r="H112" s="7"/>
+      <c r="I112" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="I112" s="7" t="s">
+      <c r="J112" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="J112" s="7" t="s">
+      <c r="K112" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="K112" s="7"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2" t="s">
+      <c r="L112" s="7"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="N112" s="2"/>
       <c r="O112" s="2"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P112" s="2"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="C113" s="7">
+      <c r="D113" s="7">
         <v>3</v>
       </c>
-      <c r="D113" s="7">
-        <v>1</v>
-      </c>
       <c r="E113" s="7">
+        <v>1</v>
+      </c>
+      <c r="F113" s="7">
         <v>10000</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="G113" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7" t="s">
+      <c r="H113" s="7"/>
+      <c r="I113" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="I113" s="7" t="s">
+      <c r="J113" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="J113" s="7" t="s">
+      <c r="K113" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="K113" s="7"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2" t="s">
+      <c r="L113" s="7"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="N113" s="2"/>
       <c r="O113" s="2"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P113" s="2"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="C114" s="7">
+      <c r="D114" s="7">
         <v>2</v>
       </c>
-      <c r="D114" s="7">
-        <v>1</v>
-      </c>
       <c r="E114" s="7">
+        <v>1</v>
+      </c>
+      <c r="F114" s="7">
         <v>10000</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="G114" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7" t="s">
+      <c r="H114" s="7"/>
+      <c r="I114" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I114" s="7" t="s">
+      <c r="J114" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J114" s="7" t="s">
+      <c r="K114" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="K114" s="7"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2" t="s">
+      <c r="L114" s="7"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="N114" s="2"/>
       <c r="O114" s="2"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P114" s="2"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="C115" s="7">
+      <c r="D115" s="7">
         <v>2</v>
       </c>
-      <c r="D115" s="7">
-        <v>1</v>
-      </c>
       <c r="E115" s="7">
+        <v>1</v>
+      </c>
+      <c r="F115" s="7">
         <v>10000</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="G115" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7" t="s">
+      <c r="H115" s="7"/>
+      <c r="I115" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="I115" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="J115" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K115" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="K115" s="7"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2" t="s">
+      <c r="L115" s="7"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="N115" s="2"/>
       <c r="O115" s="2"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P115" s="2"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="C116" s="7">
+      <c r="D116" s="7">
         <v>2</v>
       </c>
-      <c r="D116" s="7">
-        <v>1</v>
-      </c>
       <c r="E116" s="7">
+        <v>1</v>
+      </c>
+      <c r="F116" s="7">
         <v>10000</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="G116" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7" t="s">
+      <c r="H116" s="7"/>
+      <c r="I116" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I116" s="7" t="s">
+      <c r="J116" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J116" s="7" t="s">
+      <c r="K116" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="K116" s="7"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2" t="s">
+      <c r="L116" s="7"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="N116" s="2"/>
       <c r="O116" s="2"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P116" s="2"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="C117" s="7">
+      <c r="D117" s="7">
         <v>2</v>
       </c>
-      <c r="D117" s="7">
-        <v>1</v>
-      </c>
       <c r="E117" s="7">
+        <v>1</v>
+      </c>
+      <c r="F117" s="7">
         <v>10000</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="G117" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7" t="s">
+      <c r="H117" s="7"/>
+      <c r="I117" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="I117" s="7" t="s">
+      <c r="J117" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J117" s="7" t="s">
+      <c r="K117" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="K117" s="7"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2" t="s">
+      <c r="L117" s="7"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="N117" s="2"/>
       <c r="O117" s="2"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P117" s="2"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="C118" s="7">
+      <c r="D118" s="7">
         <v>2</v>
       </c>
-      <c r="D118" s="7">
-        <v>1</v>
-      </c>
       <c r="E118" s="7">
+        <v>1</v>
+      </c>
+      <c r="F118" s="7">
         <v>10000</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="G118" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7" t="s">
+      <c r="H118" s="7"/>
+      <c r="I118" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="I118" s="7" t="s">
+      <c r="J118" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J118" s="7" t="s">
+      <c r="K118" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K118" s="7"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2" t="s">
+      <c r="L118" s="7"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="N118" s="2"/>
       <c r="O118" s="2"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P118" s="2"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="C119" s="7">
+      <c r="D119" s="7">
         <v>3</v>
       </c>
-      <c r="D119" s="7">
-        <v>1</v>
-      </c>
       <c r="E119" s="7">
+        <v>1</v>
+      </c>
+      <c r="F119" s="7">
         <v>10000</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="G119" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7" t="s">
+      <c r="H119" s="7"/>
+      <c r="I119" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I119" s="7" t="s">
+      <c r="J119" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J119" s="7" t="s">
+      <c r="K119" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K119" s="7"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2" t="s">
+      <c r="L119" s="7"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="N119" s="2"/>
       <c r="O119" s="2"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P119" s="2"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="C120" s="7">
+      <c r="D120" s="7">
         <v>4</v>
       </c>
-      <c r="D120" s="7">
-        <v>1</v>
-      </c>
       <c r="E120" s="7">
+        <v>1</v>
+      </c>
+      <c r="F120" s="7">
         <v>10000</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="G120" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7" t="s">
+      <c r="H120" s="7"/>
+      <c r="I120" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="I120" s="7" t="s">
+      <c r="J120" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J120" s="7" t="s">
+      <c r="K120" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K120" s="7" t="s">
+      <c r="L120" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="2"/>
+      <c r="N120" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="N120" s="2"/>
       <c r="O120" s="2"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P120" s="2"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="C121" s="7">
+      <c r="D121" s="7">
         <v>4</v>
       </c>
-      <c r="D121" s="7">
-        <v>1</v>
-      </c>
       <c r="E121" s="7">
+        <v>1</v>
+      </c>
+      <c r="F121" s="7">
         <v>10000</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="G121" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7" t="s">
+      <c r="H121" s="7"/>
+      <c r="I121" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="I121" s="7" t="s">
+      <c r="J121" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="J121" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K121" s="7"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2" t="s">
+      <c r="K121" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L121" s="7"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="N121" s="2"/>
       <c r="O121" s="2"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P121" s="2"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="C122" s="7">
+      <c r="D122" s="7">
         <v>2</v>
       </c>
-      <c r="D122" s="7">
-        <v>1</v>
-      </c>
       <c r="E122" s="7">
+        <v>1</v>
+      </c>
+      <c r="F122" s="7">
         <v>10000</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="G122" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G122" s="7" t="s">
+      <c r="H122" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H122" s="7" t="s">
+      <c r="I122" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I122" s="7" t="s">
+      <c r="J122" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="J122" s="7" t="s">
+      <c r="K122" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K122" s="7"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2" t="s">
+      <c r="L122" s="7"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="N122" s="2"/>
       <c r="O122" s="2"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P122" s="2"/>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="C123" s="7">
+      <c r="D123" s="7">
         <v>3</v>
       </c>
-      <c r="D123" s="7">
-        <v>1</v>
-      </c>
       <c r="E123" s="7">
+        <v>1</v>
+      </c>
+      <c r="F123" s="7">
         <v>10000</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="G123" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G123" s="7" t="s">
+      <c r="H123" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H123" s="7" t="s">
+      <c r="I123" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="I123" s="7" t="s">
+      <c r="J123" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="J123" s="7" t="s">
+      <c r="K123" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K123" s="7"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2" t="s">
+      <c r="L123" s="7"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="N123" s="2"/>
       <c r="O123" s="2"/>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P123" s="2"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="C124" s="7">
+      <c r="D124" s="7">
         <v>4</v>
       </c>
-      <c r="D124" s="7">
-        <v>1</v>
-      </c>
       <c r="E124" s="7">
+        <v>1</v>
+      </c>
+      <c r="F124" s="7">
         <v>10000</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="G124" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7" t="s">
+      <c r="H124" s="7"/>
+      <c r="I124" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="I124" s="7" t="s">
+      <c r="J124" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="J124" s="7" t="s">
+      <c r="K124" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K124" s="7" t="s">
+      <c r="L124" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="2"/>
+      <c r="N124" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="N124" s="2"/>
       <c r="O124" s="2"/>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P124" s="2"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="C125" s="7">
+      <c r="D125" s="7">
         <v>4</v>
       </c>
-      <c r="D125" s="7">
-        <v>1</v>
-      </c>
       <c r="E125" s="7">
+        <v>1</v>
+      </c>
+      <c r="F125" s="7">
         <v>10000</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="G125" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7" t="s">
+      <c r="H125" s="7"/>
+      <c r="I125" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I125" s="7" t="s">
+      <c r="J125" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="J125" s="7" t="s">
+      <c r="K125" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K125" s="7" t="s">
+      <c r="L125" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="2"/>
+      <c r="N125" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="N125" s="2"/>
       <c r="O125" s="2"/>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P125" s="2"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="C126" s="7">
-        <v>1</v>
-      </c>
       <c r="D126" s="7">
+        <v>1</v>
+      </c>
+      <c r="E126" s="7">
         <v>4</v>
       </c>
-      <c r="E126" s="7">
+      <c r="F126" s="7">
         <v>50</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="G126" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7" t="s">
+      <c r="H126" s="7"/>
+      <c r="I126" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I126" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="J126" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K126" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K126" s="7"/>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2" t="s">
+      <c r="L126" s="7"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="N126" s="2"/>
       <c r="O126" s="2"/>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P126" s="2"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="C127" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="C127" s="7">
+      <c r="D127" s="7">
         <v>2</v>
       </c>
-      <c r="D127" s="7">
-        <v>1</v>
-      </c>
       <c r="E127" s="7">
+        <v>1</v>
+      </c>
+      <c r="F127" s="7">
         <v>10000</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="G127" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7" t="s">
-        <v>906</v>
-      </c>
+      <c r="H127" s="7"/>
       <c r="I127" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="J127" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="J127" s="7" t="s">
+      <c r="K127" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K127" s="7"/>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2" t="s">
+      <c r="L127" s="7"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="N127" s="2"/>
       <c r="O127" s="2"/>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P127" s="2"/>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="C128" s="7">
+      <c r="D128" s="7">
         <v>2</v>
       </c>
-      <c r="D128" s="7">
+      <c r="E128" s="7">
         <v>4</v>
       </c>
-      <c r="E128" s="7">
+      <c r="F128" s="7">
         <v>50</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="G128" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7" t="s">
+      <c r="H128" s="7"/>
+      <c r="I128" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I128" s="7" t="s">
+      <c r="J128" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="J128" s="7" t="s">
+      <c r="K128" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="K128" s="7"/>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2" t="s">
+      <c r="L128" s="7"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="N128" s="2" t="s">
+      <c r="O128" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="O128" s="2"/>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P128" s="2"/>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="C129" s="7">
+      <c r="D129" s="7">
         <v>2</v>
       </c>
-      <c r="D129" s="7">
+      <c r="E129" s="7">
         <v>4</v>
       </c>
-      <c r="E129" s="7">
+      <c r="F129" s="7">
         <v>50</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="G129" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7" t="s">
+      <c r="H129" s="7"/>
+      <c r="I129" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I129" s="7" t="s">
+      <c r="J129" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="J129" s="7" t="s">
+      <c r="K129" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K129" s="7"/>
-      <c r="L129" s="2"/>
-      <c r="M129" s="2" t="s">
+      <c r="L129" s="7"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="N129" s="2"/>
       <c r="O129" s="2"/>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P129" s="2"/>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="C130" s="7">
+      <c r="D130" s="7">
         <v>2</v>
       </c>
-      <c r="D130" s="7">
+      <c r="E130" s="7">
         <v>4</v>
       </c>
-      <c r="E130" s="7">
+      <c r="F130" s="7">
         <v>50</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="G130" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7" t="s">
+      <c r="H130" s="7"/>
+      <c r="I130" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I130" s="7" t="s">
+      <c r="J130" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="J130" s="7" t="s">
+      <c r="K130" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="K130" s="7"/>
-      <c r="L130" s="2"/>
-      <c r="M130" s="2" t="s">
+      <c r="L130" s="7"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="N130" s="2"/>
       <c r="O130" s="2"/>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P130" s="2"/>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="C131" s="7">
+      <c r="D131" s="7">
         <v>2</v>
       </c>
-      <c r="D131" s="7">
+      <c r="E131" s="7">
         <v>4</v>
       </c>
-      <c r="E131" s="7">
+      <c r="F131" s="7">
         <v>50</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="G131" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7" t="s">
+      <c r="H131" s="7"/>
+      <c r="I131" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I131" s="7" t="s">
+      <c r="J131" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="J131" s="7" t="s">
+      <c r="K131" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="K131" s="7"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2" t="s">
+      <c r="L131" s="7"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="N131" s="2"/>
       <c r="O131" s="2"/>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P131" s="2"/>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>754</v>
-      </c>
-      <c r="C132" s="7">
-        <v>2</v>
       </c>
       <c r="D132" s="7">
         <v>2</v>
       </c>
       <c r="E132" s="7">
+        <v>2</v>
+      </c>
+      <c r="F132" s="7">
         <v>2500</v>
       </c>
-      <c r="F132" s="7" t="s">
+      <c r="G132" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7" t="s">
+      <c r="H132" s="7"/>
+      <c r="I132" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I132" s="7" t="s">
+      <c r="J132" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J132" s="7" t="s">
+      <c r="K132" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="K132" s="7"/>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2" t="s">
+      <c r="L132" s="7"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="N132" s="2"/>
       <c r="O132" s="2"/>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P132" s="2"/>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="C133" s="7">
+      <c r="D133" s="7">
         <v>3</v>
       </c>
-      <c r="D133" s="7">
-        <v>1</v>
-      </c>
       <c r="E133" s="7">
+        <v>1</v>
+      </c>
+      <c r="F133" s="7">
         <v>10000</v>
       </c>
-      <c r="F133" s="7" t="s">
+      <c r="G133" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7" t="s">
+      <c r="H133" s="7"/>
+      <c r="I133" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I133" s="7" t="s">
+      <c r="J133" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="J133" s="7" t="s">
+      <c r="K133" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K133" s="7"/>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2" t="s">
+      <c r="L133" s="7"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="N133" s="2"/>
       <c r="O133" s="2"/>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P133" s="2"/>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>753</v>
-      </c>
-      <c r="C134" s="7">
-        <v>4</v>
       </c>
       <c r="D134" s="7">
         <v>4</v>
       </c>
       <c r="E134" s="7">
+        <v>4</v>
+      </c>
+      <c r="F134" s="7">
         <v>50</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="G134" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7" t="s">
+      <c r="H134" s="7"/>
+      <c r="I134" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="I134" s="7" t="s">
+      <c r="J134" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="J134" s="7" t="s">
+      <c r="K134" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="K134" s="7"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="2" t="s">
+      <c r="L134" s="7"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="N134" s="2"/>
       <c r="O134" s="2"/>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P134" s="2"/>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="C135" s="7">
+      <c r="D135" s="7">
         <v>5</v>
       </c>
-      <c r="D135" s="7">
-        <v>1</v>
-      </c>
       <c r="E135" s="7">
+        <v>1</v>
+      </c>
+      <c r="F135" s="7">
         <v>10000</v>
       </c>
-      <c r="F135" s="7" t="s">
+      <c r="G135" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G135" s="7" t="s">
+      <c r="H135" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="H135" s="7" t="s">
+      <c r="I135" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="I135" s="7" t="s">
+      <c r="J135" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="J135" s="7"/>
       <c r="K135" s="7"/>
-      <c r="L135" s="2"/>
-      <c r="M135" s="2" t="s">
+      <c r="L135" s="7"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="N135" s="2"/>
       <c r="O135" s="2"/>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P135" s="2"/>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="C136" s="2">
+      <c r="D136" s="2">
         <v>2</v>
       </c>
-      <c r="D136" s="2">
-        <v>1</v>
-      </c>
       <c r="E136" s="2">
+        <v>1</v>
+      </c>
+      <c r="F136" s="2">
         <v>10000</v>
       </c>
-      <c r="F136" s="2" t="s">
+      <c r="G136" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2" t="s">
+      <c r="H136" s="2"/>
+      <c r="I136" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I136" s="2" t="s">
+      <c r="J136" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="K136" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="K136" s="2"/>
       <c r="L136" s="2"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="2"/>
+      <c r="N136" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="N136" s="2"/>
       <c r="O136" s="2"/>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P136" s="2"/>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="C137" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="C137" s="7">
+      <c r="D137" s="7">
         <v>3</v>
       </c>
-      <c r="D137" s="7">
-        <v>1</v>
-      </c>
       <c r="E137" s="7">
+        <v>1</v>
+      </c>
+      <c r="F137" s="7">
         <v>10000</v>
       </c>
-      <c r="F137" s="7" t="s">
+      <c r="G137" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7" t="s">
+      <c r="H137" s="7"/>
+      <c r="I137" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I137" s="7" t="s">
+      <c r="J137" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J137" s="7"/>
       <c r="K137" s="7"/>
-      <c r="L137" s="2"/>
-      <c r="M137" s="2" t="s">
+      <c r="L137" s="7"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="N137" s="2"/>
       <c r="O137" s="2"/>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P137" s="2"/>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="C138" s="2" t="s">
         <v>758</v>
-      </c>
-      <c r="C138" s="2">
-        <v>3</v>
       </c>
       <c r="D138" s="2">
         <v>3</v>
       </c>
       <c r="E138" s="2">
+        <v>3</v>
+      </c>
+      <c r="F138" s="2">
         <v>250</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="G138" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G138" s="2" t="s">
+      <c r="H138" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="H138" s="2" t="s">
+      <c r="I138" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I138" s="2" t="s">
+      <c r="J138" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J138" s="2"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="2"/>
+      <c r="N138" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="N138" s="2"/>
       <c r="O138" s="2"/>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P138" s="2"/>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="C139" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="C139" s="2">
-        <v>3</v>
       </c>
       <c r="D139" s="2">
         <v>3</v>
       </c>
       <c r="E139" s="2">
+        <v>3</v>
+      </c>
+      <c r="F139" s="2">
         <v>250</v>
       </c>
-      <c r="F139" s="2" t="s">
+      <c r="G139" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G139" s="2" t="s">
+      <c r="H139" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="H139" s="2" t="s">
+      <c r="I139" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I139" s="2" t="s">
+      <c r="J139" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="J139" s="2"/>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="2"/>
+      <c r="N139" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="N139" s="2"/>
       <c r="O139" s="2"/>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P139" s="2"/>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="C140" s="2">
-        <v>3</v>
       </c>
       <c r="D140" s="2">
         <v>3</v>
       </c>
       <c r="E140" s="2">
+        <v>3</v>
+      </c>
+      <c r="F140" s="2">
         <v>250</v>
       </c>
-      <c r="F140" s="2" t="s">
+      <c r="G140" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="H140" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="H140" s="2" t="s">
+      <c r="I140" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="I140" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J140" s="2"/>
+      <c r="J140" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="2"/>
+      <c r="N140" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="N140" s="2"/>
       <c r="O140" s="2"/>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P140" s="2"/>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="C141" s="2" t="s">
         <v>761</v>
-      </c>
-      <c r="C141" s="2">
-        <v>3</v>
       </c>
       <c r="D141" s="2">
         <v>3</v>
       </c>
       <c r="E141" s="2">
+        <v>3</v>
+      </c>
+      <c r="F141" s="2">
         <v>250</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="G141" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="H141" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="H141" s="2" t="s">
+      <c r="I141" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I141" s="2" t="s">
+      <c r="J141" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J141" s="2"/>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="2"/>
+      <c r="N141" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="N141" s="2"/>
       <c r="O141" s="2"/>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P141" s="2"/>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="C142" s="2">
+      <c r="D142" s="2">
         <v>2</v>
       </c>
-      <c r="D142" s="2">
-        <v>1</v>
-      </c>
       <c r="E142" s="2">
+        <v>1</v>
+      </c>
+      <c r="F142" s="2">
         <v>10000</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="G142" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2" t="s">
+      <c r="H142" s="2"/>
+      <c r="I142" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I142" s="2" t="s">
+      <c r="J142" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="J142" s="2" t="s">
+      <c r="K142" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="K142" s="2" t="s">
+      <c r="L142" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="2"/>
+      <c r="N142" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="N142" s="2"/>
       <c r="O142" s="2"/>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P142" s="2"/>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C143" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="C143" s="2">
+      <c r="D143" s="2">
         <v>2</v>
       </c>
-      <c r="D143" s="2">
-        <v>1</v>
-      </c>
       <c r="E143" s="2">
+        <v>1</v>
+      </c>
+      <c r="F143" s="2">
         <v>10000</v>
       </c>
-      <c r="F143" s="2" t="s">
+      <c r="G143" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2" t="s">
+      <c r="H143" s="2"/>
+      <c r="I143" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="I143" s="2" t="s">
+      <c r="J143" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="J143" s="2" t="s">
+      <c r="K143" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K143" s="2" t="s">
+      <c r="L143" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="L143" s="2"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="2"/>
+      <c r="N143" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="N143" s="2"/>
       <c r="O143" s="2"/>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P143" s="2"/>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="C144" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="C144" s="2">
+      <c r="D144" s="2">
         <v>2</v>
       </c>
-      <c r="D144" s="2">
-        <v>1</v>
-      </c>
       <c r="E144" s="2">
+        <v>1</v>
+      </c>
+      <c r="F144" s="2">
         <v>10000</v>
       </c>
-      <c r="F144" s="2" t="s">
+      <c r="G144" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2" t="s">
+      <c r="H144" s="2"/>
+      <c r="I144" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I144" s="2" t="s">
+      <c r="J144" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="J144" s="2" t="s">
+      <c r="K144" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K144" s="2" t="s">
+      <c r="L144" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="L144" s="2"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="2"/>
+      <c r="N144" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="N144" s="2"/>
       <c r="O144" s="2"/>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P144" s="2"/>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="C145" s="2">
+      <c r="D145" s="2">
         <v>2</v>
       </c>
-      <c r="D145" s="2">
-        <v>1</v>
-      </c>
       <c r="E145" s="2">
+        <v>1</v>
+      </c>
+      <c r="F145" s="2">
         <v>10000</v>
       </c>
-      <c r="F145" s="2" t="s">
+      <c r="G145" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2" t="s">
+      <c r="H145" s="2"/>
+      <c r="I145" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I145" s="2" t="s">
+      <c r="J145" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J145" s="2" t="s">
+      <c r="K145" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="L145" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="L145" s="2"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="2"/>
+      <c r="N145" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="N145" s="2"/>
       <c r="O145" s="2"/>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P145" s="2"/>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="C146" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="C146" s="2">
+      <c r="D146" s="2">
         <v>3</v>
       </c>
-      <c r="D146" s="2">
-        <v>1</v>
-      </c>
       <c r="E146" s="2">
+        <v>1</v>
+      </c>
+      <c r="F146" s="2">
         <v>10000</v>
       </c>
-      <c r="F146" s="2" t="s">
+      <c r="G146" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2" t="s">
+      <c r="H146" s="2"/>
+      <c r="I146" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="I146" s="2" t="s">
+      <c r="J146" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J146" s="2" t="s">
+      <c r="K146" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="K146" s="2"/>
       <c r="L146" s="2"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="2"/>
+      <c r="N146" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="N146" s="2"/>
       <c r="O146" s="2"/>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P146" s="2"/>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="C147" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="C147" s="2">
-        <v>4</v>
       </c>
       <c r="D147" s="2">
         <v>4</v>
       </c>
       <c r="E147" s="2">
+        <v>4</v>
+      </c>
+      <c r="F147" s="2">
         <v>50</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="G147" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2" t="s">
+      <c r="H147" s="2"/>
+      <c r="I147" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="I147" s="2" t="s">
+      <c r="J147" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="J147" s="2" t="s">
+      <c r="K147" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="K147" s="2"/>
       <c r="L147" s="2"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="2"/>
+      <c r="N147" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="N147" s="2"/>
       <c r="O147" s="2"/>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P147" s="2"/>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="C148" s="2" t="s">
         <v>770</v>
-      </c>
-      <c r="C148" s="2">
-        <v>4</v>
       </c>
       <c r="D148" s="2">
         <v>4</v>
       </c>
       <c r="E148" s="2">
+        <v>4</v>
+      </c>
+      <c r="F148" s="2">
         <v>50</v>
       </c>
-      <c r="F148" s="2" t="s">
+      <c r="G148" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2" t="s">
+      <c r="H148" s="2"/>
+      <c r="I148" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I148" s="2" t="s">
+      <c r="J148" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="J148" s="2" t="s">
+      <c r="K148" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="K148" s="2"/>
       <c r="L148" s="2"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="2"/>
+      <c r="N148" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="N148" s="2"/>
       <c r="O148" s="2"/>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P148" s="2"/>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="C149" s="2" t="s">
         <v>771</v>
-      </c>
-      <c r="C149" s="2">
-        <v>4</v>
       </c>
       <c r="D149" s="2">
         <v>4</v>
       </c>
       <c r="E149" s="2">
+        <v>4</v>
+      </c>
+      <c r="F149" s="2">
         <v>50</v>
       </c>
-      <c r="F149" s="2" t="s">
+      <c r="G149" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2" t="s">
+      <c r="H149" s="2"/>
+      <c r="I149" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="I149" s="2" t="s">
+      <c r="J149" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="J149" s="2" t="s">
+      <c r="K149" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="K149" s="2"/>
       <c r="L149" s="2"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="2"/>
+      <c r="N149" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="N149" s="2"/>
       <c r="O149" s="2"/>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P149" s="2"/>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="C150" s="2" t="s">
         <v>772</v>
-      </c>
-      <c r="C150" s="2">
-        <v>4</v>
       </c>
       <c r="D150" s="2">
         <v>4</v>
       </c>
       <c r="E150" s="2">
+        <v>4</v>
+      </c>
+      <c r="F150" s="2">
         <v>50</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="G150" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2" t="s">
+      <c r="H150" s="2"/>
+      <c r="I150" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="I150" s="2" t="s">
+      <c r="J150" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="J150" s="2" t="s">
+      <c r="K150" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="K150" s="2"/>
       <c r="L150" s="2"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="2"/>
+      <c r="N150" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="N150" s="2"/>
       <c r="O150" s="2"/>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P150" s="2"/>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="C151" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="C151" s="6">
-        <v>1</v>
-      </c>
       <c r="D151" s="6">
         <v>1</v>
       </c>
       <c r="E151" s="6">
+        <v>1</v>
+      </c>
+      <c r="F151" s="6">
         <v>10000</v>
       </c>
-      <c r="F151" s="2" t="s">
+      <c r="G151" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2" t="s">
+      <c r="H151" s="2"/>
+      <c r="I151" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I151" s="2" t="s">
+      <c r="J151" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="J151" s="2" t="s">
+      <c r="K151" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="K151" s="2"/>
       <c r="L151" s="2"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="2"/>
+      <c r="N151" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="N151" s="2"/>
       <c r="O151" s="2"/>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P151" s="2"/>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="C152" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="C152" s="6">
-        <v>1</v>
-      </c>
       <c r="D152" s="6">
         <v>1</v>
       </c>
       <c r="E152" s="6">
+        <v>1</v>
+      </c>
+      <c r="F152" s="6">
         <v>10000</v>
       </c>
-      <c r="F152" s="2" t="s">
+      <c r="G152" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2" t="s">
+      <c r="H152" s="2"/>
+      <c r="I152" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="I152" s="2" t="s">
+      <c r="J152" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J152" s="2"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="2"/>
+      <c r="N152" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="N152" s="2"/>
       <c r="O152" s="2"/>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P152" s="2"/>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="C153" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="C153" s="6">
+      <c r="D153" s="6">
         <v>3</v>
       </c>
-      <c r="D153" s="6">
-        <v>1</v>
-      </c>
       <c r="E153" s="6">
+        <v>1</v>
+      </c>
+      <c r="F153" s="6">
         <v>10000</v>
       </c>
-      <c r="F153" s="2" t="s">
+      <c r="G153" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2" t="s">
-        <v>906</v>
-      </c>
+      <c r="H153" s="2"/>
       <c r="I153" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="J153" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="J153" s="2"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="2"/>
+      <c r="N153" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="N153" s="2"/>
       <c r="O153" s="2"/>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P153" s="2"/>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="C154" s="6" t="s">
         <v>777</v>
-      </c>
-      <c r="C154" s="6">
-        <v>4</v>
       </c>
       <c r="D154" s="6">
         <v>4</v>
       </c>
       <c r="E154" s="6">
+        <v>4</v>
+      </c>
+      <c r="F154" s="6">
         <v>50</v>
       </c>
-      <c r="F154" s="2" t="s">
+      <c r="G154" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2" t="s">
+      <c r="H154" s="2"/>
+      <c r="I154" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="I154" s="2" t="s">
+      <c r="J154" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="J154" s="2" t="s">
+      <c r="K154" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="K154" s="2"/>
       <c r="L154" s="2"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="2"/>
+      <c r="N154" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="N154" s="2"/>
       <c r="O154" s="2"/>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P154" s="2"/>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="C155" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C155" s="6">
-        <v>4</v>
       </c>
       <c r="D155" s="6">
         <v>4</v>
       </c>
       <c r="E155" s="6">
+        <v>4</v>
+      </c>
+      <c r="F155" s="6">
         <v>50</v>
       </c>
-      <c r="F155" s="2" t="s">
+      <c r="G155" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2" t="s">
+      <c r="H155" s="2"/>
+      <c r="I155" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="I155" s="2" t="s">
+      <c r="J155" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="J155" s="2" t="s">
+      <c r="K155" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="K155" s="2"/>
       <c r="L155" s="2"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="2"/>
+      <c r="N155" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="N155" s="2"/>
       <c r="O155" s="2"/>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P155" s="2"/>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="C156" s="6" t="s">
         <v>779</v>
-      </c>
-      <c r="C156" s="6">
-        <v>4</v>
       </c>
       <c r="D156" s="6">
         <v>4</v>
       </c>
       <c r="E156" s="6">
+        <v>4</v>
+      </c>
+      <c r="F156" s="6">
         <v>50</v>
       </c>
-      <c r="F156" s="2" t="s">
+      <c r="G156" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2" t="s">
+      <c r="H156" s="2"/>
+      <c r="I156" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="I156" s="2" t="s">
+      <c r="J156" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="K156" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="K156" s="2"/>
       <c r="L156" s="2"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="2"/>
+      <c r="N156" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="N156" s="2"/>
       <c r="O156" s="2"/>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P156" s="2"/>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="C157" s="6" t="s">
         <v>780</v>
-      </c>
-      <c r="C157" s="6">
-        <v>4</v>
       </c>
       <c r="D157" s="6">
         <v>4</v>
       </c>
       <c r="E157" s="6">
+        <v>4</v>
+      </c>
+      <c r="F157" s="6">
         <v>50</v>
       </c>
-      <c r="F157" s="2" t="s">
+      <c r="G157" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2" t="s">
+      <c r="H157" s="2"/>
+      <c r="I157" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="I157" s="2" t="s">
+      <c r="J157" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="J157" s="2" t="s">
+      <c r="K157" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="K157" s="2"/>
       <c r="L157" s="2"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="2"/>
+      <c r="N157" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="N157" s="2"/>
       <c r="O157" s="2"/>
+      <c r="P157" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O157">
-    <sortCondition ref="O2:O157"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P157">
+    <sortCondition ref="P2:P157"/>
     <sortCondition ref="A2:A157"/>
-    <sortCondition ref="C2:C157"/>
+    <sortCondition ref="D2:D157"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\GitHub\Craft-to-Exile-Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB61D53-94E8-4D62-BDD1-5EF038BCFFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079960B6-F6FF-4A23-B440-D5016AFCA764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D4271B40-E291-4F7D-B212-DFF8B5827327}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{D4271B40-E291-4F7D-B212-DFF8B5827327}"/>
   </bookViews>
   <sheets>
     <sheet name="Runewords" sheetId="3" r:id="rId1"/>
     <sheet name="Sets" sheetId="2" r:id="rId2"/>
     <sheet name="Uniques" sheetId="4" r:id="rId3"/>
     <sheet name="Affixes" sheetId="1" r:id="rId4"/>
-    <sheet name="Talent Perks" sheetId="5" r:id="rId5"/>
+    <sheet name="Mob Affixes" sheetId="6" r:id="rId5"/>
+    <sheet name="Talent Perks" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="1042">
   <si>
     <t>armor_percent</t>
   </si>
@@ -3071,6 +3072,96 @@
   </si>
   <si>
     <t>cte_uniques:rathpith_globe</t>
+  </si>
+  <si>
+    <t>Affix Type</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>Suffix</t>
+  </si>
+  <si>
+    <t>Massive</t>
+  </si>
+  <si>
+    <t>of Mountains</t>
+  </si>
+  <si>
+    <t>major_health_flat</t>
+  </si>
+  <si>
+    <t>Deadly</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>Evasive</t>
+  </si>
+  <si>
+    <t>major_dodge_flat</t>
+  </si>
+  <si>
+    <t>Flaming</t>
+  </si>
+  <si>
+    <t>attack_fire_damage_plat</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>Venom</t>
+  </si>
+  <si>
+    <t>Resistant</t>
+  </si>
+  <si>
+    <t>major_elemental_resist_flat</t>
+  </si>
+  <si>
+    <t>of Thunder Strikes</t>
+  </si>
+  <si>
+    <t>of Harsh Winter</t>
+  </si>
+  <si>
+    <t>of Leeching</t>
+  </si>
+  <si>
+    <t>of Raging Volcano</t>
+  </si>
+  <si>
+    <t>of The Cobra</t>
+  </si>
+  <si>
+    <t>of Rock Skin</t>
+  </si>
+  <si>
+    <t>very_high_water_penetration_flat</t>
+  </si>
+  <si>
+    <t>very_high_thunder_penetration_flat</t>
+  </si>
+  <si>
+    <t>very_high_nature_penetration_flat</t>
+  </si>
+  <si>
+    <t>very_high_fire_penetration_flat</t>
+  </si>
+  <si>
+    <t>major_lifesteal_flat</t>
+  </si>
+  <si>
+    <t>Sanguine</t>
+  </si>
+  <si>
+    <t>of Elemental Resistance</t>
+  </si>
+  <si>
+    <t>high_elemental_resist_flat</t>
   </si>
 </sst>
 </file>
@@ -6060,8 +6151,8 @@
   </sheetPr>
   <dimension ref="A1:P157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12368,8 +12459,8 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13045,6 +13136,502 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B321434F-7E12-4E67-9119-8625AFACAC69}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>384</v>
+      </c>
+      <c r="G3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>636</v>
+      </c>
+      <c r="G4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>621</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>635</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C16">
+        <v>1000</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>483</v>
+      </c>
+      <c r="G17" t="s">
+        <v>621</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>483</v>
+      </c>
+      <c r="G18" t="s">
+        <v>636</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>483</v>
+      </c>
+      <c r="G19" t="s">
+        <v>635</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>483</v>
+      </c>
+      <c r="G20" t="s">
+        <v>627</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C21">
+        <v>1000</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G21" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C22">
+        <v>1000</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>454</v>
+      </c>
+      <c r="G22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98E29CE-F36E-4B51-928B-B3DEFF7B094E}">
   <sheetPr>
     <tabColor theme="1"/>
